--- a/algorithms_results/Yardens_results/FPGrowth_subgroups_results_delta_10000_2.xlsx
+++ b/algorithms_results/Yardens_results/FPGrowth_subgroups_results_delta_10000_2.xlsx
@@ -450,12 +450,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': 'White or of European descent'}</t>
+          <t>{'SexualOrientation': 'Straight or heterosexual'}</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '1 - 4 hours', 'FormalEducation': 'Master’s degree (MA, MS, M.Eng., MBA, etc.)'}</t>
+          <t>{'DevType': 'Back-end developer'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>283</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,4529 +534,6753 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1'}</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27379</v>
+        <v>33253</v>
       </c>
       <c r="C2" t="n">
-        <v>66186.82906464252</v>
+        <v>5920.984439082945</v>
       </c>
       <c r="D2" t="n">
-        <v>2263.163514136046</v>
+        <v>-792.3712621303766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'Gender': '1'}</t>
+          <t>{'Student': '1'}</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27355</v>
+        <v>29526</v>
       </c>
       <c r="C3" t="n">
-        <v>28760.07708329829</v>
+        <v>5617.758312088003</v>
       </c>
       <c r="D3" t="n">
-        <v>-35163.58846720819</v>
+        <v>-1095.597389125319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'HDI': '1'}</t>
+          <t>{'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25023</v>
+        <v>28842</v>
       </c>
       <c r="C4" t="n">
-        <v>92651.2553000177</v>
+        <v>5516.21828962618</v>
       </c>
       <c r="D4" t="n">
-        <v>28727.58974951123</v>
+        <v>-1197.137411587141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'Student': '1'}</t>
+          <t>{'HDI': '1'}</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25010</v>
+        <v>27581</v>
       </c>
       <c r="C5" t="n">
-        <v>69037.25289973368</v>
+        <v>8280.034330059932</v>
       </c>
       <c r="D5" t="n">
-        <v>5113.587349227208</v>
+        <v>1566.678628846611</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'Hobby': '1'}</t>
+          <t>{'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24271</v>
+        <v>27379</v>
       </c>
       <c r="C6" t="n">
-        <v>75305.94186742087</v>
+        <v>6509.936391650183</v>
       </c>
       <c r="D6" t="n">
-        <v>11382.2763169144</v>
+        <v>-203.4193095631381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{'GDP': '1'}</t>
+          <t>{'FormalEducation': '1'}</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14547</v>
+        <v>17131</v>
       </c>
       <c r="C7" t="n">
-        <v>83620.6316081338</v>
+        <v>5336.323872777189</v>
       </c>
       <c r="D7" t="n">
-        <v>19696.96605762733</v>
+        <v>-1377.031828436133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'Continent': '1'}</t>
+          <t>{'GDP': '1'}</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14254</v>
+        <v>15752</v>
       </c>
       <c r="C8" t="n">
-        <v>61061.53118928884</v>
+        <v>3295.830519890884</v>
       </c>
       <c r="D8" t="n">
-        <v>-2862.134361217628</v>
+        <v>-3417.525181322438</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'Dependents': '2'}</t>
+          <t>{'Continent': '1'}</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20567</v>
+        <v>14866</v>
       </c>
       <c r="C9" t="n">
-        <v>44769.6150714461</v>
+        <v>2137.970683874352</v>
       </c>
       <c r="D9" t="n">
-        <v>-19154.05047906037</v>
+        <v>-4575.385017338969</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2'}</t>
+          <t>{'Dependents': '1'}</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18141</v>
+        <v>11129</v>
       </c>
       <c r="C10" t="n">
-        <v>68174.1421412092</v>
+        <v>5982.040967086004</v>
       </c>
       <c r="D10" t="n">
-        <v>4250.476590702732</v>
+        <v>-731.314734127317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'DevType': '2'}</t>
+          <t>{'HoursComputer': '1'}</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17900</v>
+        <v>10705</v>
       </c>
       <c r="C11" t="n">
-        <v>67020.51843222066</v>
+        <v>7207.640912963764</v>
       </c>
       <c r="D11" t="n">
-        <v>3096.852881714192</v>
+        <v>494.2852117504426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'GINI': '2'}</t>
+          <t>{'EducationParents': '1'}</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14320</v>
+        <v>10410</v>
       </c>
       <c r="C12" t="n">
-        <v>49519.17135070804</v>
+        <v>8041.492512881828</v>
       </c>
       <c r="D12" t="n">
-        <v>-14404.49419979843</v>
+        <v>1328.136811668506</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'Continent': '2'}</t>
+          <t>{'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11997</v>
+        <v>24167</v>
       </c>
       <c r="C13" t="n">
-        <v>19539458.91496402</v>
+        <v>7072.162954162452</v>
       </c>
       <c r="D13" t="n">
-        <v>19475535.24941352</v>
+        <v>358.8072529491301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'Exercise': '3'}</t>
+          <t>{'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10585</v>
+        <v>22173</v>
       </c>
       <c r="C14" t="n">
-        <v>73292.67827358504</v>
+        <v>3542.149042873403</v>
       </c>
       <c r="D14" t="n">
-        <v>9369.012723078573</v>
+        <v>-3171.206658339918</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'GDP': '2'}</t>
+          <t>{'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10476</v>
+        <v>19738</v>
       </c>
       <c r="C15" t="n">
-        <v>103590.0287144722</v>
+        <v>5820.891848914629</v>
       </c>
       <c r="D15" t="n">
-        <v>39666.36316396573</v>
+        <v>-892.4638522986925</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'Country': '2'}</t>
+          <t>{'Exercise': '2'}</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10476</v>
+        <v>10297</v>
       </c>
       <c r="C16" t="n">
-        <v>103590.0287144722</v>
+        <v>10771.92455702791</v>
       </c>
       <c r="D16" t="n">
-        <v>39666.36316396573</v>
+        <v>4058.568855814586</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'Age': '3'}</t>
+          <t>{'GINI': '2'}</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15063</v>
+        <v>19081</v>
       </c>
       <c r="C17" t="n">
-        <v>88402.98647134985</v>
+        <v>9822.797811066226</v>
       </c>
       <c r="D17" t="n">
-        <v>24479.32092084338</v>
+        <v>3109.442109852905</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Continent': '2'}</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25910</v>
+        <v>13664</v>
       </c>
       <c r="C18" t="n">
-        <v>29696.54061095317</v>
+        <v>13797.70359829684</v>
       </c>
       <c r="D18" t="n">
-        <v>-34227.12493955331</v>
+        <v>7084.347897083514</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'Exercise': '3'}</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23146</v>
+        <v>12820</v>
       </c>
       <c r="C19" t="n">
-        <v>92329.32285938319</v>
+        <v>3558.704492548648</v>
       </c>
       <c r="D19" t="n">
-        <v>28405.65730887672</v>
+        <v>-3154.651208664674</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Gender': '1'}</t>
+          <t>{'GDP': '2'}</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23143</v>
+        <v>11829</v>
       </c>
       <c r="C20" t="n">
-        <v>51877.44343435086</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D20" t="n">
-        <v>-12046.22211615561</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Country': '2'}</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21900</v>
+        <v>11829</v>
       </c>
       <c r="C21" t="n">
-        <v>51568.43116287054</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D21" t="n">
-        <v>-12355.23438763593</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Age': '3'}</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23264</v>
+        <v>18401</v>
       </c>
       <c r="C22" t="n">
-        <v>71635.86104707757</v>
+        <v>8048.308572796766</v>
       </c>
       <c r="D22" t="n">
-        <v>7712.195496571105</v>
+        <v>1334.952871583445</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23188</v>
+        <v>27820</v>
       </c>
       <c r="C23" t="n">
-        <v>30756.07440513934</v>
+        <v>4860.761884746209</v>
       </c>
       <c r="D23" t="n">
-        <v>-33167.59114536713</v>
+        <v>-1852.593816467112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21710</v>
+        <v>27456</v>
       </c>
       <c r="C24" t="n">
-        <v>97371.55623112104</v>
+        <v>5084.527001737077</v>
       </c>
       <c r="D24" t="n">
-        <v>33447.89068061457</v>
+        <v>-1628.828699476245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22014</v>
+        <v>23894</v>
       </c>
       <c r="C25" t="n">
-        <v>31756.87735016486</v>
+        <v>4208.446115890501</v>
       </c>
       <c r="D25" t="n">
-        <v>-32166.78820034161</v>
+        <v>-2504.90958532282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>20128</v>
+        <v>22758</v>
       </c>
       <c r="C26" t="n">
-        <v>97021.7782667594</v>
+        <v>4081.320153739394</v>
       </c>
       <c r="D26" t="n">
-        <v>33098.11271625293</v>
+        <v>-2632.035547473928</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20079</v>
+        <v>25944</v>
       </c>
       <c r="C27" t="n">
-        <v>53460.04447893988</v>
+        <v>7219.315451383841</v>
       </c>
       <c r="D27" t="n">
-        <v>-10463.62107156659</v>
+        <v>505.9597501705193</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19043</v>
+        <v>23773</v>
       </c>
       <c r="C28" t="n">
-        <v>53032.9745932775</v>
+        <v>7095.77558069452</v>
       </c>
       <c r="D28" t="n">
-        <v>-10890.69095722897</v>
+        <v>382.4198794811982</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22770</v>
+        <v>22660</v>
       </c>
       <c r="C29" t="n">
-        <v>33500.5330174407</v>
+        <v>7025.684796894849</v>
       </c>
       <c r="D29" t="n">
-        <v>-30423.13253306577</v>
+        <v>312.3290956815272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22529</v>
+        <v>22370</v>
       </c>
       <c r="C30" t="n">
-        <v>77205.08079836208</v>
+        <v>6176.689060932703</v>
       </c>
       <c r="D30" t="n">
-        <v>13281.41524785561</v>
+        <v>-536.6666402806186</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20675</v>
+        <v>21574</v>
       </c>
       <c r="C31" t="n">
-        <v>106758.1933671348</v>
+        <v>6412.706957617019</v>
       </c>
       <c r="D31" t="n">
-        <v>42834.52781662828</v>
+        <v>-300.6487435963027</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20375</v>
+        <v>19358</v>
       </c>
       <c r="C32" t="n">
-        <v>82970.69846509804</v>
+        <v>5757.284204945694</v>
       </c>
       <c r="D32" t="n">
-        <v>19047.03291459157</v>
+        <v>-956.0714962676275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21544</v>
+        <v>18438</v>
       </c>
       <c r="C33" t="n">
-        <v>34403.67592435614</v>
+        <v>5619.548811679768</v>
       </c>
       <c r="D33" t="n">
-        <v>-29519.98962615033</v>
+        <v>-1093.806889533554</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19359</v>
+        <v>25910</v>
       </c>
       <c r="C34" t="n">
-        <v>59450.14468615378</v>
+        <v>6471.012774252379</v>
       </c>
       <c r="D34" t="n">
-        <v>-4473.520864352686</v>
+        <v>-242.3429269609423</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19133</v>
+        <v>23264</v>
       </c>
       <c r="C35" t="n">
-        <v>106627.0830684059</v>
+        <v>5618.412897795355</v>
       </c>
       <c r="D35" t="n">
-        <v>42703.41751789946</v>
+        <v>-1094.942803417966</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18306</v>
+        <v>23146</v>
       </c>
       <c r="C36" t="n">
-        <v>59271.66228835012</v>
+        <v>7669.000695259265</v>
       </c>
       <c r="D36" t="n">
-        <v>-4652.003262156351</v>
+        <v>955.6449940459433</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19121</v>
+        <v>22529</v>
       </c>
       <c r="C37" t="n">
-        <v>36233.24044087317</v>
+        <v>5345.204113474854</v>
       </c>
       <c r="D37" t="n">
-        <v>-27690.4251096333</v>
+        <v>-1368.151587738467</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>18956</v>
+        <v>22014</v>
       </c>
       <c r="C38" t="n">
-        <v>85205.49734644298</v>
+        <v>5982.017555487582</v>
       </c>
       <c r="D38" t="n">
-        <v>21281.83179593651</v>
+        <v>-731.3381457257392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17771</v>
+        <v>21900</v>
       </c>
       <c r="C39" t="n">
-        <v>114013.4621285526</v>
+        <v>7566.667087338407</v>
       </c>
       <c r="D39" t="n">
-        <v>50089.79657804617</v>
+        <v>853.3113861250858</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18136</v>
+        <v>20128</v>
       </c>
       <c r="C40" t="n">
-        <v>37190.56623534991</v>
+        <v>6694.06933007496</v>
       </c>
       <c r="D40" t="n">
-        <v>-26733.09931515656</v>
+        <v>-19.28637113836157</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16648</v>
+        <v>19043</v>
       </c>
       <c r="C41" t="n">
-        <v>62090.51769338568</v>
+        <v>7073.278421988637</v>
       </c>
       <c r="D41" t="n">
-        <v>-1833.147857120792</v>
+        <v>359.9227207753156</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16486</v>
+        <v>21544</v>
       </c>
       <c r="C42" t="n">
-        <v>113801.9274549091</v>
+        <v>5551.102665918384</v>
       </c>
       <c r="D42" t="n">
-        <v>49878.26190440262</v>
+        <v>-1162.253035294938</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15779</v>
+        <v>19133</v>
       </c>
       <c r="C43" t="n">
-        <v>61735.94468987677</v>
+        <v>6167.928095255636</v>
       </c>
       <c r="D43" t="n">
-        <v>-2187.720860629699</v>
+        <v>-545.427605957686</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14547</v>
+        <v>18956</v>
       </c>
       <c r="C44" t="n">
-        <v>83620.6316081338</v>
+        <v>4707.214742762342</v>
       </c>
       <c r="D44" t="n">
-        <v>19696.96605762733</v>
+        <v>-2006.140958450979</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13664</v>
+        <v>18306</v>
       </c>
       <c r="C45" t="n">
-        <v>99498.6548488627</v>
+        <v>6286.555506924179</v>
       </c>
       <c r="D45" t="n">
-        <v>35574.98929835623</v>
+        <v>-426.8001942891424</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13543</v>
+        <v>18136</v>
       </c>
       <c r="C46" t="n">
-        <v>83060.45514959762</v>
+        <v>5289.423209809513</v>
       </c>
       <c r="D46" t="n">
-        <v>19136.78959909115</v>
+        <v>-1423.932491403809</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>12224</v>
+        <v>16486</v>
       </c>
       <c r="C47" t="n">
-        <v>89751.92184887239</v>
+        <v>5666.495872135472</v>
       </c>
       <c r="D47" t="n">
-        <v>25828.25629836592</v>
+        <v>-1046.859829077849</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12093</v>
+        <v>15779</v>
       </c>
       <c r="C48" t="n">
-        <v>98540.70471336409</v>
+        <v>6251.332734797039</v>
       </c>
       <c r="D48" t="n">
-        <v>34617.03916285762</v>
+        <v>-462.0229664162825</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1'}</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10623</v>
+        <v>16065</v>
       </c>
       <c r="C49" t="n">
-        <v>-11769.69987595764</v>
+        <v>4156.361432148196</v>
       </c>
       <c r="D49" t="n">
-        <v>-75693.36542646411</v>
+        <v>-2556.994269065125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'FormalEducation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13664</v>
+        <v>14779</v>
       </c>
       <c r="C50" t="n">
-        <v>99498.6548488627</v>
+        <v>4607.279095772894</v>
       </c>
       <c r="D50" t="n">
-        <v>35574.98929835623</v>
+        <v>-2106.076605440428</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'FormalEducation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13543</v>
+        <v>13729</v>
       </c>
       <c r="C51" t="n">
-        <v>83060.45514959762</v>
+        <v>3752.00434229091</v>
       </c>
       <c r="D51" t="n">
-        <v>19136.78959909115</v>
+        <v>-2961.351358922411</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12923</v>
+        <v>12988</v>
       </c>
       <c r="C52" t="n">
-        <v>99457.39072293921</v>
+        <v>6346.378413272951</v>
       </c>
       <c r="D52" t="n">
-        <v>35533.72517243274</v>
+        <v>-366.9772879403708</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'FormalEducation': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>12923</v>
+        <v>12747</v>
       </c>
       <c r="C53" t="n">
-        <v>99457.39072293921</v>
+        <v>6521.820031304564</v>
       </c>
       <c r="D53" t="n">
-        <v>35533.72517243274</v>
+        <v>-191.5356699087579</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'HDI': '1'}</t>
+          <t>{'FormalEducation': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12224</v>
+        <v>11889</v>
       </c>
       <c r="C54" t="n">
-        <v>89751.92184887239</v>
+        <v>8005.636881248936</v>
       </c>
       <c r="D54" t="n">
-        <v>25828.25629836592</v>
+        <v>1292.281180035615</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'Gender': '1'}</t>
+          <t>{'FormalEducation': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>11483</v>
+        <v>11310</v>
       </c>
       <c r="C55" t="n">
-        <v>108393.9110030283</v>
+        <v>1790.85632592141</v>
       </c>
       <c r="D55" t="n">
-        <v>44470.24545252186</v>
+        <v>-4922.499375291911</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'SexualOrientation': '1'}</t>
+          <t>{'GINI': '2', 'FormalEducation': '1'}</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11420</v>
+        <v>10868</v>
       </c>
       <c r="C56" t="n">
-        <v>88974.19209694142</v>
+        <v>5452.299621678139</v>
       </c>
       <c r="D56" t="n">
-        <v>25050.52654643495</v>
+        <v>-1261.056079535182</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>11483</v>
+        <v>13856</v>
       </c>
       <c r="C57" t="n">
-        <v>108393.9110030283</v>
+        <v>3480.789109812271</v>
       </c>
       <c r="D57" t="n">
-        <v>44470.24545252186</v>
+        <v>-3232.566591401051</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>11420</v>
+        <v>13035</v>
       </c>
       <c r="C58" t="n">
-        <v>88974.19209694142</v>
+        <v>3055.195564704285</v>
       </c>
       <c r="D58" t="n">
-        <v>25050.52654643495</v>
+        <v>-3658.160136509036</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'FormalEducation': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10895</v>
+        <v>11725</v>
       </c>
       <c r="C59" t="n">
-        <v>108110.5269711771</v>
+        <v>2768.390500492396</v>
       </c>
       <c r="D59" t="n">
-        <v>44186.86142067067</v>
+        <v>-3944.965200720926</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10895</v>
+        <v>11142</v>
       </c>
       <c r="C60" t="n">
-        <v>108110.5269711771</v>
+        <v>2456.886802253134</v>
       </c>
       <c r="D60" t="n">
-        <v>44186.86142067067</v>
+        <v>-4256.468898960187</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12093</v>
+        <v>12139</v>
       </c>
       <c r="C61" t="n">
-        <v>98540.70471336409</v>
+        <v>4770.80124644188</v>
       </c>
       <c r="D61" t="n">
-        <v>34617.03916285762</v>
+        <v>-1942.554454771442</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>11456</v>
+        <v>11640</v>
       </c>
       <c r="C62" t="n">
-        <v>120411.0967787041</v>
+        <v>5462.057895865366</v>
       </c>
       <c r="D62" t="n">
-        <v>56487.43122819762</v>
+        <v>-1251.297805347956</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GDP': '1', 'Hobby': '1'}</t>
+          <t>{'FormalEducation': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>11245</v>
+        <v>10423</v>
       </c>
       <c r="C63" t="n">
-        <v>97726.71172315006</v>
+        <v>5195.057726463114</v>
       </c>
       <c r="D63" t="n">
-        <v>33803.04617264359</v>
+        <v>-1518.297974750208</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10055</v>
+        <v>10886</v>
       </c>
       <c r="C64" t="n">
-        <v>108271.5541525469</v>
+        <v>4025.890132833666</v>
       </c>
       <c r="D64" t="n">
-        <v>44347.8886020404</v>
+        <v>-2687.465568379655</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>11456</v>
+        <v>12006</v>
       </c>
       <c r="C65" t="n">
-        <v>120411.0967787041</v>
+        <v>6452.768629762377</v>
       </c>
       <c r="D65" t="n">
-        <v>56487.43122819762</v>
+        <v>-260.5870714509447</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GDP': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'FormalEducation': '1', 'Student': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>11245</v>
+        <v>11170</v>
       </c>
       <c r="C66" t="n">
-        <v>97726.71172315006</v>
+        <v>6019.176948768032</v>
       </c>
       <c r="D66" t="n">
-        <v>33803.04617264359</v>
+        <v>-694.1787524452893</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GDP': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10822</v>
+        <v>10869</v>
       </c>
       <c r="C67" t="n">
-        <v>120325.6879796336</v>
+        <v>6648.531004748326</v>
       </c>
       <c r="D67" t="n">
-        <v>56402.02242912714</v>
+        <v>-64.82469646499521</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'FormalEducation': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10822</v>
+        <v>10267</v>
       </c>
       <c r="C68" t="n">
-        <v>120325.6879796336</v>
+        <v>5788.079104279298</v>
       </c>
       <c r="D68" t="n">
-        <v>56402.02242912714</v>
+        <v>-925.2765969340235</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'Student': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10055</v>
+        <v>10523</v>
       </c>
       <c r="C69" t="n">
-        <v>108271.5541525469</v>
+        <v>6283.1080195612</v>
       </c>
       <c r="D69" t="n">
-        <v>44347.8886020404</v>
+        <v>-430.2476816521212</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>10623</v>
+        <v>10233</v>
       </c>
       <c r="C70" t="n">
-        <v>-11769.69987595764</v>
+        <v>6568.343205338938</v>
       </c>
       <c r="D70" t="n">
-        <v>-75693.36542646411</v>
+        <v>-145.0124958743836</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>{'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>13438</v>
+        <v>11034</v>
       </c>
       <c r="C71" t="n">
-        <v>63485.68751396376</v>
+        <v>7726.053737005758</v>
       </c>
       <c r="D71" t="n">
-        <v>-437.9780365427141</v>
+        <v>1012.698035792437</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Continent': '1'}</t>
+          <t>{'FormalEducation': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>13337</v>
+        <v>10019</v>
       </c>
       <c r="C72" t="n">
-        <v>63152.44679721064</v>
+        <v>7307.246263408175</v>
       </c>
       <c r="D72" t="n">
-        <v>-771.2187532958269</v>
+        <v>593.8905621948534</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>11833</v>
+        <v>10704</v>
       </c>
       <c r="C73" t="n">
-        <v>75705.23086734045</v>
+        <v>587.1978129865015</v>
       </c>
       <c r="D73" t="n">
-        <v>11781.56531683398</v>
+        <v>-6126.15788822682</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>11828</v>
+        <v>10139</v>
       </c>
       <c r="C74" t="n">
-        <v>88401.96201526468</v>
+        <v>4341.598080788931</v>
       </c>
       <c r="D74" t="n">
-        <v>24478.29646475821</v>
+        <v>-2371.757620424391</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Continent': '1'}</t>
+          <t>{'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>11828</v>
+        <v>15752</v>
       </c>
       <c r="C75" t="n">
-        <v>88401.96201526468</v>
+        <v>3295.830519890884</v>
       </c>
       <c r="D75" t="n">
-        <v>24478.29646475821</v>
+        <v>-3417.525181322438</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>11714</v>
+        <v>14972</v>
       </c>
       <c r="C76" t="n">
-        <v>68402.92529972312</v>
+        <v>2291.155932144135</v>
       </c>
       <c r="D76" t="n">
-        <v>4479.259749216653</v>
+        <v>-4422.199769069186</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>{'Continent': '1', 'Dependents': '2'}</t>
+          <t>{'RaceEthnicity': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>10571</v>
+        <v>13543</v>
       </c>
       <c r="C77" t="n">
-        <v>3910.92865067605</v>
+        <v>4271.359150869486</v>
       </c>
       <c r="D77" t="n">
-        <v>-60012.73689983042</v>
+        <v>-2441.996550343835</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>12751</v>
+        <v>13181</v>
       </c>
       <c r="C78" t="n">
-        <v>66641.72929307203</v>
+        <v>3818.674868508243</v>
       </c>
       <c r="D78" t="n">
-        <v>2718.063742565559</v>
+        <v>-2894.680832705079</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Hobby': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>11249</v>
+        <v>12990</v>
       </c>
       <c r="C79" t="n">
-        <v>79017.48784590041</v>
+        <v>3334.394391013402</v>
       </c>
       <c r="D79" t="n">
-        <v>15093.82229539394</v>
+        <v>-3378.96131019992</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Continent': '1'}</t>
+          <t>{'Dependents': '2', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>11053</v>
+        <v>11252</v>
       </c>
       <c r="C80" t="n">
-        <v>77382.28208400602</v>
+        <v>3548.681348261595</v>
       </c>
       <c r="D80" t="n">
-        <v>13458.61653349955</v>
+        <v>-3164.674352951727</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'UndergradMajor': '2', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10654</v>
+        <v>10304</v>
       </c>
       <c r="C81" t="n">
-        <v>81753.25283022538</v>
+        <v>1398.159101211331</v>
       </c>
       <c r="D81" t="n">
-        <v>17829.58727971891</v>
+        <v>-5315.19660000199</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>11152</v>
+        <v>14972</v>
       </c>
       <c r="C82" t="n">
-        <v>106062.8329594582</v>
+        <v>2291.155932144135</v>
       </c>
       <c r="D82" t="n">
-        <v>42139.16740895172</v>
+        <v>-4422.199769069186</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'Continent': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>11026</v>
+        <v>13543</v>
       </c>
       <c r="C83" t="n">
-        <v>87857.86285747391</v>
+        <v>4271.359150869486</v>
       </c>
       <c r="D83" t="n">
-        <v>23934.19730696744</v>
+        <v>-2441.996550343835</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>10556</v>
+        <v>12923</v>
       </c>
       <c r="C84" t="n">
-        <v>106036.1971381218</v>
+        <v>3558.80054499852</v>
       </c>
       <c r="D84" t="n">
-        <v>42112.53158761536</v>
+        <v>-3154.555156214802</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'HDI': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>11828</v>
+        <v>12923</v>
       </c>
       <c r="C85" t="n">
-        <v>88401.96201526468</v>
+        <v>3558.80054499852</v>
       </c>
       <c r="D85" t="n">
-        <v>24478.29646475821</v>
+        <v>-3154.555156214802</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>11152</v>
+        <v>13181</v>
       </c>
       <c r="C86" t="n">
-        <v>106062.8329594582</v>
+        <v>3818.674868508243</v>
       </c>
       <c r="D86" t="n">
-        <v>42139.16740895172</v>
+        <v>-2894.680832705079</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>11026</v>
+        <v>12535</v>
       </c>
       <c r="C87" t="n">
-        <v>87857.86285747391</v>
+        <v>3173.246927464169</v>
       </c>
       <c r="D87" t="n">
-        <v>23934.19730696744</v>
+        <v>-3540.108773749152</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'HDI': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>11152</v>
+        <v>11420</v>
       </c>
       <c r="C88" t="n">
-        <v>106062.8329594582</v>
+        <v>5179.20310827674</v>
       </c>
       <c r="D88" t="n">
-        <v>42139.16740895172</v>
+        <v>-1534.152592936582</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'GDP': '1', 'SexualOrientation': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>11026</v>
+        <v>12535</v>
       </c>
       <c r="C89" t="n">
-        <v>87857.86285747391</v>
+        <v>3173.246927464169</v>
       </c>
       <c r="D89" t="n">
-        <v>23934.19730696744</v>
+        <v>-3540.108773749152</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>10556</v>
+        <v>11420</v>
       </c>
       <c r="C90" t="n">
-        <v>106036.1971381218</v>
+        <v>5179.20310827674</v>
       </c>
       <c r="D90" t="n">
-        <v>42112.53158761536</v>
+        <v>-1534.152592936582</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'Continent': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>10556</v>
+        <v>10895</v>
       </c>
       <c r="C91" t="n">
-        <v>106036.1971381218</v>
+        <v>4924.720261095068</v>
       </c>
       <c r="D91" t="n">
-        <v>42112.53158761536</v>
+        <v>-1788.635440118253</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>11044</v>
+        <v>10895</v>
       </c>
       <c r="C92" t="n">
-        <v>69960.02122952242</v>
+        <v>4924.720261095068</v>
       </c>
       <c r="D92" t="n">
-        <v>6036.355679015949</v>
+        <v>-1788.635440118253</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Continent': '1'}</t>
+          <t>{'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>10995</v>
+        <v>12990</v>
       </c>
       <c r="C93" t="n">
-        <v>71007.61485220448</v>
+        <v>3334.394391013402</v>
       </c>
       <c r="D93" t="n">
-        <v>7083.949301698012</v>
+        <v>-3378.96131019992</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>10513</v>
+        <v>12461</v>
       </c>
       <c r="C94" t="n">
-        <v>73615.05841777306</v>
+        <v>2901.674533602559</v>
       </c>
       <c r="D94" t="n">
-        <v>9691.392867266593</v>
+        <v>-3811.681167610762</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>11663</v>
+        <v>11245</v>
       </c>
       <c r="C95" t="n">
-        <v>147444.2268400251</v>
+        <v>3674.746807792224</v>
       </c>
       <c r="D95" t="n">
-        <v>83520.56128951861</v>
+        <v>-3038.608893421097</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'GINI': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>11555</v>
+        <v>10760</v>
       </c>
       <c r="C96" t="n">
-        <v>115054.1423168246</v>
+        <v>4182.46300213111</v>
       </c>
       <c r="D96" t="n">
-        <v>51130.47676631817</v>
+        <v>-2530.892699082212</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>11555</v>
+        <v>12461</v>
       </c>
       <c r="C97" t="n">
-        <v>115054.1423168246</v>
+        <v>2901.674533602559</v>
       </c>
       <c r="D97" t="n">
-        <v>51130.47676631817</v>
+        <v>-3811.681167610762</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>11541</v>
+        <v>11245</v>
       </c>
       <c r="C98" t="n">
-        <v>615523.1186523738</v>
+        <v>3674.746807792224</v>
       </c>
       <c r="D98" t="n">
-        <v>551599.4531018673</v>
+        <v>-3038.608893421097</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GINI': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>10440</v>
+        <v>10822</v>
       </c>
       <c r="C99" t="n">
-        <v>35217.11920354891</v>
+        <v>3723.145410233127</v>
       </c>
       <c r="D99" t="n">
-        <v>-28706.54634695756</v>
+        <v>-2990.210290980194</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>10282</v>
+        <v>10822</v>
       </c>
       <c r="C100" t="n">
-        <v>25318.74565898669</v>
+        <v>3723.145410233127</v>
       </c>
       <c r="D100" t="n">
-        <v>-38604.91989151978</v>
+        <v>-2990.210290980194</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'GINI': '1', 'Gender': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>10822</v>
+        <v>10760</v>
       </c>
       <c r="C101" t="n">
-        <v>143387.3174808473</v>
+        <v>4182.46300213111</v>
       </c>
       <c r="D101" t="n">
-        <v>79463.6519303408</v>
+        <v>-2530.892699082212</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'GINI': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>11555</v>
+        <v>10323</v>
       </c>
       <c r="C102" t="n">
-        <v>115054.1423168246</v>
+        <v>4219.642681064523</v>
       </c>
       <c r="D102" t="n">
-        <v>51130.47676631817</v>
+        <v>-2493.713020148798</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>10822</v>
+        <v>10323</v>
       </c>
       <c r="C103" t="n">
-        <v>143387.3174808473</v>
+        <v>4219.642681064523</v>
       </c>
       <c r="D103" t="n">
-        <v>79463.6519303408</v>
+        <v>-2493.713020148798</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'GINI': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Dependents': '2', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>10822</v>
+        <v>11252</v>
       </c>
       <c r="C104" t="n">
-        <v>143387.3174808473</v>
+        <v>3548.681348261595</v>
       </c>
       <c r="D104" t="n">
-        <v>79463.6519303408</v>
+        <v>-3164.674352951727</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>10997</v>
+        <v>10622</v>
       </c>
       <c r="C105" t="n">
-        <v>662944.0442811465</v>
+        <v>2200.405104562714</v>
       </c>
       <c r="D105" t="n">
-        <v>599020.37873064</v>
+        <v>-4512.950596650608</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>10707</v>
+        <v>10622</v>
       </c>
       <c r="C106" t="n">
-        <v>113903.9331556256</v>
+        <v>2200.405104562714</v>
       </c>
       <c r="D106" t="n">
-        <v>49980.26760511917</v>
+        <v>-4512.950596650608</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'GINI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10707</v>
+        <v>10304</v>
       </c>
       <c r="C107" t="n">
-        <v>113903.9331556256</v>
+        <v>1398.159101211331</v>
       </c>
       <c r="D107" t="n">
-        <v>49980.26760511917</v>
+        <v>-5315.19660000199</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>10191</v>
+        <v>14174</v>
       </c>
       <c r="C108" t="n">
-        <v>143152.1083109268</v>
+        <v>1230.633024994443</v>
       </c>
       <c r="D108" t="n">
-        <v>79228.44276042032</v>
+        <v>-5482.722676218878</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'GDP': '1', 'SexualOrientation': '1', 'GINI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>10707</v>
+        <v>13337</v>
       </c>
       <c r="C109" t="n">
-        <v>113903.9331556256</v>
+        <v>3292.028787749212</v>
       </c>
       <c r="D109" t="n">
-        <v>49980.26760511917</v>
+        <v>-3421.32691346411</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'GINI': '1', 'Gender': '1'}</t>
+          <t>{'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10191</v>
+        <v>12414</v>
       </c>
       <c r="C110" t="n">
-        <v>143152.1083109268</v>
+        <v>2025.048858279017</v>
       </c>
       <c r="D110" t="n">
-        <v>79228.44276042032</v>
+        <v>-4688.306842934304</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'SexualOrientation': '1', 'HDI': '1', 'GINI': '1'}</t>
+          <t>{'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>10191</v>
+        <v>12414</v>
       </c>
       <c r="C111" t="n">
-        <v>143152.1083109268</v>
+        <v>2025.048858279017</v>
       </c>
       <c r="D111" t="n">
-        <v>79228.44276042032</v>
+        <v>-4688.306842934304</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>18813</v>
+        <v>12270</v>
       </c>
       <c r="C112" t="n">
-        <v>-13125.82647387776</v>
+        <v>3302.750893854428</v>
       </c>
       <c r="D112" t="n">
-        <v>-77049.49202438424</v>
+        <v>-3410.604807358894</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Student': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>18715</v>
+        <v>12176</v>
       </c>
       <c r="C113" t="n">
-        <v>47513.09870580388</v>
+        <v>2273.1327139246</v>
       </c>
       <c r="D113" t="n">
-        <v>-16410.56684470259</v>
+        <v>-4440.222987288721</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>17336</v>
+        <v>10829</v>
       </c>
       <c r="C114" t="n">
-        <v>61913.38770942803</v>
+        <v>1536.250640999153</v>
       </c>
       <c r="D114" t="n">
-        <v>-2010.277841078438</v>
+        <v>-5177.105060214169</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>17063</v>
+        <v>12751</v>
       </c>
       <c r="C115" t="n">
-        <v>55179.39021199341</v>
+        <v>2580.216580747708</v>
       </c>
       <c r="D115" t="n">
-        <v>-8744.275338513056</v>
+        <v>-4133.139120465614</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>16812</v>
+        <v>11850</v>
       </c>
       <c r="C116" t="n">
-        <v>49053.37360088436</v>
+        <v>939.8379505216415</v>
       </c>
       <c r="D116" t="n">
-        <v>-14870.29194962211</v>
+        <v>-5773.51775069168</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'RaceEthnicity': '1', 'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>17563</v>
+        <v>11026</v>
       </c>
       <c r="C117" t="n">
-        <v>-13613.79048908756</v>
+        <v>3361.020374478494</v>
       </c>
       <c r="D117" t="n">
-        <v>-77537.45603959402</v>
+        <v>-3352.335326734828</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>15786</v>
+        <v>10556</v>
       </c>
       <c r="C118" t="n">
-        <v>-12776.45826555831</v>
+        <v>2491.733392297801</v>
       </c>
       <c r="D118" t="n">
-        <v>-76700.12381606478</v>
+        <v>-4221.622308915521</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'HDI': '1', 'Continent': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>15673</v>
+        <v>12414</v>
       </c>
       <c r="C119" t="n">
-        <v>61725.55326533812</v>
+        <v>2025.048858279017</v>
       </c>
       <c r="D119" t="n">
-        <v>-2198.112285168354</v>
+        <v>-4688.306842934304</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>14691</v>
+        <v>11850</v>
       </c>
       <c r="C120" t="n">
-        <v>-12955.83708304715</v>
+        <v>939.8379505216415</v>
       </c>
       <c r="D120" t="n">
-        <v>-76879.50263355361</v>
+        <v>-5773.51775069168</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>15834</v>
+        <v>11026</v>
       </c>
       <c r="C121" t="n">
-        <v>-18920.16786688082</v>
+        <v>3361.020374478494</v>
       </c>
       <c r="D121" t="n">
-        <v>-82843.8334173873</v>
+        <v>-3352.335326734828</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Continent': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>15532</v>
+        <v>11850</v>
       </c>
       <c r="C122" t="n">
-        <v>57615.80761633073</v>
+        <v>939.8379505216415</v>
       </c>
       <c r="D122" t="n">
-        <v>-6307.857934175743</v>
+        <v>-5773.51775069168</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Continent': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>14455</v>
+        <v>11026</v>
       </c>
       <c r="C123" t="n">
-        <v>74067.07977104175</v>
+        <v>3361.020374478494</v>
       </c>
       <c r="D123" t="n">
-        <v>10143.41422053528</v>
+        <v>-3352.335326734828</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>14766</v>
+        <v>10556</v>
       </c>
       <c r="C124" t="n">
-        <v>-19102.12217230686</v>
+        <v>2491.733392297801</v>
       </c>
       <c r="D124" t="n">
-        <v>-83025.78772281333</v>
+        <v>-4221.622308915521</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Hobby': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Continent': '1', 'RaceEthnicity': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>13367</v>
+        <v>10556</v>
       </c>
       <c r="C125" t="n">
-        <v>-19967.35332014683</v>
+        <v>2491.733392297801</v>
       </c>
       <c r="D125" t="n">
-        <v>-83891.01887065329</v>
+        <v>-4221.622308915521</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>13081</v>
+        <v>11796</v>
       </c>
       <c r="C126" t="n">
-        <v>73881.08803466598</v>
+        <v>2571.388807306062</v>
       </c>
       <c r="D126" t="n">
-        <v>9957.422484159513</v>
+        <v>-4141.96689390726</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>12432</v>
+        <v>11053</v>
       </c>
       <c r="C127" t="n">
-        <v>-20148.01438289917</v>
+        <v>4438.256643355662</v>
       </c>
       <c r="D127" t="n">
-        <v>-84071.67993340564</v>
+        <v>-2275.099057857659</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Continent': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>15339</v>
+        <v>10307</v>
       </c>
       <c r="C128" t="n">
-        <v>-14768.03598932514</v>
+        <v>3254.996070201035</v>
       </c>
       <c r="D128" t="n">
-        <v>-78691.70153983161</v>
+        <v>-3458.359631012287</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Hobby': '1', 'Continent': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>15301</v>
+        <v>10307</v>
       </c>
       <c r="C129" t="n">
-        <v>52077.57302570326</v>
+        <v>3254.996070201035</v>
       </c>
       <c r="D129" t="n">
-        <v>-11846.09252480321</v>
+        <v>-3458.359631012287</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>14539</v>
+        <v>10654</v>
       </c>
       <c r="C130" t="n">
-        <v>63538.45636008847</v>
+        <v>3809.891470605769</v>
       </c>
       <c r="D130" t="n">
-        <v>-385.2091904179979</v>
+        <v>-2903.464230607553</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Continent': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>13784</v>
+        <v>10307</v>
       </c>
       <c r="C131" t="n">
-        <v>62018.84892201595</v>
+        <v>3254.996070201035</v>
       </c>
       <c r="D131" t="n">
-        <v>-1904.816628490524</v>
+        <v>-3458.359631012287</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Student': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>14334</v>
+        <v>11621</v>
       </c>
       <c r="C132" t="n">
-        <v>-15761.241253814</v>
+        <v>1413.463302990777</v>
       </c>
       <c r="D132" t="n">
-        <v>-79684.90680432048</v>
+        <v>-5299.892398222545</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'RaceEthnicity': '1', 'Student': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>13214</v>
+        <v>10995</v>
       </c>
       <c r="C133" t="n">
-        <v>-17849.5427784518</v>
+        <v>3564.696745010334</v>
       </c>
       <c r="D133" t="n">
-        <v>-81773.20832895828</v>
+        <v>-3148.658956202988</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'HDI': '1', 'Student': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>13157</v>
+        <v>10285</v>
       </c>
       <c r="C134" t="n">
-        <v>63338.79618320156</v>
+        <v>2712.665943486069</v>
       </c>
       <c r="D134" t="n">
-        <v>-584.8693673049129</v>
+        <v>-4000.689757727253</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Dependents': '2', 'Gender': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'Student': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>12315</v>
+        <v>10285</v>
       </c>
       <c r="C135" t="n">
-        <v>-18133.92594440134</v>
+        <v>2712.665943486069</v>
       </c>
       <c r="D135" t="n">
-        <v>-82057.5914949078</v>
+        <v>-4000.689757727253</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>12773</v>
+        <v>10513</v>
       </c>
       <c r="C136" t="n">
-        <v>-24590.17382896515</v>
+        <v>2968.382268362951</v>
       </c>
       <c r="D136" t="n">
-        <v>-88513.83937947162</v>
+        <v>-3744.973432850371</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'HDI': '1', 'Student': '1', 'Continent': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>12550</v>
+        <v>10285</v>
       </c>
       <c r="C137" t="n">
-        <v>64864.94651942449</v>
+        <v>2712.665943486069</v>
       </c>
       <c r="D137" t="n">
-        <v>941.2809689180212</v>
+        <v>-4000.689757727253</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>11988</v>
+        <v>10272</v>
       </c>
       <c r="C138" t="n">
-        <v>76998.39191243949</v>
+        <v>167.6735827370063</v>
       </c>
       <c r="D138" t="n">
-        <v>13074.72636193302</v>
+        <v>-6545.682118476315</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Dependents': '2', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>11922</v>
+        <v>12698</v>
       </c>
       <c r="C139" t="n">
-        <v>-25359.20559936413</v>
+        <v>51952.46265055831</v>
       </c>
       <c r="D139" t="n">
-        <v>-89282.8711498706</v>
+        <v>45239.10694934498</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Dependents': '2', 'Gender': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'GINI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>11074</v>
+        <v>12493</v>
       </c>
       <c r="C140" t="n">
-        <v>-28750.75233294564</v>
+        <v>2401.742957735809</v>
       </c>
       <c r="D140" t="n">
-        <v>-92674.41788345212</v>
+        <v>-4311.612743477512</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Dependents': '2', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'GINI': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>10859</v>
+        <v>12493</v>
       </c>
       <c r="C141" t="n">
-        <v>76720.85106962433</v>
+        <v>2401.742957735809</v>
       </c>
       <c r="D141" t="n">
-        <v>12797.18551911786</v>
+        <v>-4311.612743477512</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'Dependents': '2', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'GINI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>10312</v>
+        <v>11541</v>
       </c>
       <c r="C142" t="n">
-        <v>-29082.64566639089</v>
+        <v>-14976.95903229892</v>
       </c>
       <c r="D142" t="n">
-        <v>-93006.31121689736</v>
+        <v>-21690.31473351224</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>17057</v>
+        <v>11181</v>
       </c>
       <c r="C143" t="n">
-        <v>16395.99367947712</v>
+        <v>19252.922990233</v>
       </c>
       <c r="D143" t="n">
-        <v>-47527.67187102935</v>
+        <v>12539.56728901968</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'GINI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>16908</v>
+        <v>10971</v>
       </c>
       <c r="C144" t="n">
-        <v>70695.42976420479</v>
+        <v>-2143.148876537512</v>
       </c>
       <c r="D144" t="n">
-        <v>6771.76421369832</v>
+        <v>-8856.504577750833</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'GINI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>15406</v>
+        <v>10458</v>
       </c>
       <c r="C145" t="n">
-        <v>100498.0092311445</v>
+        <v>-663.118766309188</v>
       </c>
       <c r="D145" t="n">
-        <v>36574.34368063799</v>
+        <v>-7376.474467522509</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>15077</v>
+        <v>11846</v>
       </c>
       <c r="C146" t="n">
-        <v>72448.44105051146</v>
+        <v>1062.159152704848</v>
       </c>
       <c r="D146" t="n">
-        <v>8524.775500004995</v>
+        <v>-5651.196548508473</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'GINI': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>15058</v>
+        <v>12493</v>
       </c>
       <c r="C147" t="n">
-        <v>80151.53721833733</v>
+        <v>2401.742957735809</v>
       </c>
       <c r="D147" t="n">
-        <v>16227.87166783086</v>
+        <v>-4311.612743477512</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Dependents': '2'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>12931</v>
+        <v>11846</v>
       </c>
       <c r="C148" t="n">
-        <v>67883.18002243419</v>
+        <v>1062.159152704848</v>
       </c>
       <c r="D148" t="n">
-        <v>3959.514471927716</v>
+        <v>-5651.196548508473</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>16152</v>
+        <v>11846</v>
       </c>
       <c r="C149" t="n">
-        <v>17281.7111565299</v>
+        <v>1062.159152704848</v>
       </c>
       <c r="D149" t="n">
-        <v>-46641.95439397657</v>
+        <v>-5651.196548508473</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>14474</v>
+        <v>10707</v>
       </c>
       <c r="C150" t="n">
-        <v>32080.78869948957</v>
+        <v>3177.485521743298</v>
       </c>
       <c r="D150" t="n">
-        <v>-31842.8768510169</v>
+        <v>-3535.870179470024</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'GINI': '1', 'RaceEthnicity': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>14309</v>
+        <v>10707</v>
       </c>
       <c r="C151" t="n">
-        <v>100140.5152255904</v>
+        <v>3177.485521743298</v>
       </c>
       <c r="D151" t="n">
-        <v>36216.84967508395</v>
+        <v>-3535.870179470024</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>13686</v>
+        <v>10191</v>
       </c>
       <c r="C152" t="n">
-        <v>31793.41795557719</v>
+        <v>2073.25752677342</v>
       </c>
       <c r="D152" t="n">
-        <v>-32130.24759492928</v>
+        <v>-4640.098174439901</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'RaceEthnicity': '1', 'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>14188</v>
+        <v>10707</v>
       </c>
       <c r="C153" t="n">
-        <v>15596.12790111552</v>
+        <v>3177.485521743298</v>
       </c>
       <c r="D153" t="n">
-        <v>-48327.53764939095</v>
+        <v>-3535.870179470024</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>14089</v>
+        <v>10191</v>
       </c>
       <c r="C154" t="n">
-        <v>75491.25290556287</v>
+        <v>2073.25752677342</v>
       </c>
       <c r="D154" t="n">
-        <v>11567.5873550564</v>
+        <v>-4640.098174439901</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>13134</v>
+        <v>10191</v>
       </c>
       <c r="C155" t="n">
-        <v>100461.266674729</v>
+        <v>2073.25752677342</v>
       </c>
       <c r="D155" t="n">
-        <v>36537.60112422255</v>
+        <v>-4640.098174439901</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>13466</v>
+        <v>10619</v>
       </c>
       <c r="C156" t="n">
-        <v>16587.48614996736</v>
+        <v>7174.621267101612</v>
       </c>
       <c r="D156" t="n">
-        <v>-47336.17940053911</v>
+        <v>461.2655658882904</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>12350</v>
+        <v>10524</v>
       </c>
       <c r="C157" t="n">
-        <v>28742.60287745129</v>
+        <v>3354.048633551495</v>
       </c>
       <c r="D157" t="n">
-        <v>-35181.06267305518</v>
+        <v>-3359.307067661826</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'GINI': '1', 'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>12226</v>
+        <v>10524</v>
       </c>
       <c r="C158" t="n">
-        <v>100331.87328008</v>
+        <v>3354.048633551495</v>
       </c>
       <c r="D158" t="n">
-        <v>36408.20772957352</v>
+        <v>-3359.307067661826</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'HDI': '1', 'UndergradMajor': '2'}</t>
+          <t>{'GINI': '1', 'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>11698</v>
+        <v>10524</v>
       </c>
       <c r="C159" t="n">
-        <v>28460.26195870931</v>
+        <v>3354.048633551495</v>
       </c>
       <c r="D159" t="n">
-        <v>-35463.40359179716</v>
+        <v>-3359.307067661826</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>14278</v>
+        <v>10505</v>
       </c>
       <c r="C160" t="n">
-        <v>17011.07848026578</v>
+        <v>-346.9948553294034</v>
       </c>
       <c r="D160" t="n">
-        <v>-46912.58707024068</v>
+        <v>-7060.350556542725</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'GINI': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>14027</v>
+        <v>10217</v>
       </c>
       <c r="C161" t="n">
-        <v>83685.12000105776</v>
+        <v>2622.769506859957</v>
       </c>
       <c r="D161" t="n">
-        <v>19761.45445055129</v>
+        <v>-4090.586194353365</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'GINI': '1', 'Hobby': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>12823</v>
+        <v>10217</v>
       </c>
       <c r="C162" t="n">
-        <v>112742.5806743679</v>
+        <v>2622.769506859957</v>
       </c>
       <c r="D162" t="n">
-        <v>48818.91512386141</v>
+        <v>-4090.586194353365</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'GINI': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>12366</v>
+        <v>10217</v>
       </c>
       <c r="C163" t="n">
-        <v>86405.35451359545</v>
+        <v>2622.769506859957</v>
       </c>
       <c r="D163" t="n">
-        <v>22481.68896308898</v>
+        <v>-4090.586194353365</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '1'}</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>13502</v>
+        <v>10685</v>
       </c>
       <c r="C164" t="n">
-        <v>18118.19155991826</v>
+        <v>4437.272134021358</v>
       </c>
       <c r="D164" t="n">
-        <v>-45805.4739905882</v>
+        <v>-2276.083567191963</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Student': '1', 'Dependents': '1'}</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>12152</v>
+        <v>10062</v>
       </c>
       <c r="C165" t="n">
-        <v>30171.80258295965</v>
+        <v>5588.172321573164</v>
       </c>
       <c r="D165" t="n">
-        <v>-33751.86296754683</v>
+        <v>-1125.183379640157</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '1', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>11905</v>
+        <v>10028</v>
       </c>
       <c r="C166" t="n">
-        <v>112348.8943201159</v>
+        <v>4955.436926446409</v>
       </c>
       <c r="D166" t="n">
-        <v>48425.22876960938</v>
+        <v>-1757.918774766912</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'UndergradMajor': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>11475</v>
+        <v>22568</v>
       </c>
       <c r="C167" t="n">
-        <v>29818.41178788688</v>
+        <v>6660.009269424866</v>
       </c>
       <c r="D167" t="n">
-        <v>-34105.25376261958</v>
+        <v>-53.34643178845545</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>11741</v>
+        <v>19952</v>
       </c>
       <c r="C168" t="n">
-        <v>15029.47842658478</v>
+        <v>5741.315462563783</v>
       </c>
       <c r="D168" t="n">
-        <v>-48894.18712392169</v>
+        <v>-972.0402386495389</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>11551</v>
+        <v>19464</v>
       </c>
       <c r="C169" t="n">
-        <v>90936.35249318778</v>
+        <v>5774.123848787556</v>
       </c>
       <c r="D169" t="n">
-        <v>27012.68694268131</v>
+        <v>-939.2318524257653</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>10811</v>
+        <v>18755</v>
       </c>
       <c r="C170" t="n">
-        <v>113777.5577715556</v>
+        <v>8440.872413111409</v>
       </c>
       <c r="D170" t="n">
-        <v>49853.89222104914</v>
+        <v>1727.516711898087</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'UndergradMajor': '2'}</t>
+          <t>{'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>11129</v>
+        <v>18715</v>
       </c>
       <c r="C171" t="n">
-        <v>16283.73892392486</v>
+        <v>5443.202083884486</v>
       </c>
       <c r="D171" t="n">
-        <v>-47639.92662658161</v>
+        <v>-1270.153617328835</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'Hobby': '1', 'HDI': '1', 'UndergradMajor': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>10257</v>
+        <v>18868</v>
       </c>
       <c r="C172" t="n">
-        <v>25763.32524130535</v>
+        <v>5634.634999361796</v>
       </c>
       <c r="D172" t="n">
-        <v>-38160.34030920113</v>
+        <v>-1078.720701851526</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'UndergradMajor': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>10060</v>
+        <v>18145</v>
       </c>
       <c r="C173" t="n">
-        <v>113722.852494571</v>
+        <v>5331.204181537214</v>
       </c>
       <c r="D173" t="n">
-        <v>49799.18694406451</v>
+        <v>-1382.151519676107</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>12028</v>
+        <v>15886</v>
       </c>
       <c r="C174" t="n">
-        <v>-6939.57401150956</v>
+        <v>3923.495586716469</v>
       </c>
       <c r="D174" t="n">
-        <v>-70863.23956201602</v>
+        <v>-2789.860114496852</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>11847</v>
+        <v>15007</v>
       </c>
       <c r="C175" t="n">
-        <v>71499.03173885991</v>
+        <v>4003.268385218564</v>
       </c>
       <c r="D175" t="n">
-        <v>7575.366188353437</v>
+        <v>-2710.087315994757</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>10928</v>
+        <v>17456</v>
       </c>
       <c r="C176" t="n">
-        <v>108233.3898956607</v>
+        <v>7663.615191867112</v>
       </c>
       <c r="D176" t="n">
-        <v>44309.72434515419</v>
+        <v>950.2594906537906</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>10789</v>
+        <v>15601</v>
       </c>
       <c r="C177" t="n">
-        <v>82909.68436632506</v>
+        <v>6881.083296062101</v>
       </c>
       <c r="D177" t="n">
-        <v>18986.01881581859</v>
+        <v>167.7275948487795</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>10330</v>
+        <v>15574</v>
       </c>
       <c r="C178" t="n">
-        <v>74311.60516644912</v>
+        <v>7178.223410287983</v>
       </c>
       <c r="D178" t="n">
-        <v>10387.93961594265</v>
+        <v>464.8677090746614</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>11243</v>
+        <v>14503</v>
       </c>
       <c r="C179" t="n">
-        <v>-6409.363168722327</v>
+        <v>6113.752999060658</v>
       </c>
       <c r="D179" t="n">
-        <v>-70333.02871922879</v>
+        <v>-599.6027021526634</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'UndergradMajor': '2', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>10150</v>
+        <v>14713</v>
       </c>
       <c r="C180" t="n">
-        <v>183.7534926999917</v>
+        <v>6795.263248758026</v>
       </c>
       <c r="D180" t="n">
-        <v>-63739.91205780648</v>
+        <v>81.90754754470436</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>10148</v>
+        <v>12812</v>
       </c>
       <c r="C181" t="n">
-        <v>-11168.5226427191</v>
+        <v>5256.635622114268</v>
       </c>
       <c r="D181" t="n">
-        <v>-75092.18819322556</v>
+        <v>-1456.720079099054</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Gender': '1'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>16852</v>
+        <v>12090</v>
       </c>
       <c r="C182" t="n">
-        <v>21638.64591757978</v>
+        <v>5166.412482998766</v>
       </c>
       <c r="D182" t="n">
-        <v>-42285.01963292669</v>
+        <v>-1546.943218214556</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>16631</v>
+        <v>17563</v>
       </c>
       <c r="C183" t="n">
-        <v>68169.46926137299</v>
+        <v>5093.2900472175</v>
       </c>
       <c r="D183" t="n">
-        <v>4245.803710866516</v>
+        <v>-1620.065653995822</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>15397</v>
+        <v>15673</v>
       </c>
       <c r="C184" t="n">
-        <v>74180.88430194776</v>
+        <v>6373.699265659056</v>
       </c>
       <c r="D184" t="n">
-        <v>10257.21875144129</v>
+        <v>-339.656435554266</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>15175</v>
+        <v>15532</v>
       </c>
       <c r="C185" t="n">
-        <v>115605.0458847686</v>
+        <v>4235.626288481227</v>
       </c>
       <c r="D185" t="n">
-        <v>51681.38033426217</v>
+        <v>-2477.729412732095</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Hobby': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>14939</v>
+        <v>15301</v>
       </c>
       <c r="C186" t="n">
-        <v>78527.86473803624</v>
+        <v>3964.682726108012</v>
       </c>
       <c r="D186" t="n">
-        <v>14604.19918752977</v>
+        <v>-2748.67297510531</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>12275</v>
+        <v>14691</v>
       </c>
       <c r="C187" t="n">
-        <v>49158.92797184191</v>
+        <v>5840.821070632547</v>
       </c>
       <c r="D187" t="n">
-        <v>-14764.73757866456</v>
+        <v>-872.5346305807743</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'UndergradMajor': '2'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>11598</v>
+        <v>14766</v>
       </c>
       <c r="C188" t="n">
-        <v>92295.86737433865</v>
+        <v>4014.43045013909</v>
       </c>
       <c r="D188" t="n">
-        <v>28372.20182383218</v>
+        <v>-2698.925251074231</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Dependents': '2', 'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>15929</v>
+        <v>13081</v>
       </c>
       <c r="C189" t="n">
-        <v>21614.03343870061</v>
+        <v>5176.478412017457</v>
       </c>
       <c r="D189" t="n">
-        <v>-42309.63211180586</v>
+        <v>-1536.877289195864</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'Gender': '1'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>14490</v>
+        <v>12432</v>
       </c>
       <c r="C190" t="n">
-        <v>24260.68308871506</v>
+        <v>4770.770380485729</v>
       </c>
       <c r="D190" t="n">
-        <v>-39662.98246179141</v>
+        <v>-1942.585320727592</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>14333</v>
+        <v>14334</v>
       </c>
       <c r="C191" t="n">
-        <v>75459.30116869592</v>
+        <v>4101.966529871975</v>
       </c>
       <c r="D191" t="n">
-        <v>11535.63561818945</v>
+        <v>-2611.389171341347</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'DevType': '2', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>13722</v>
+        <v>13157</v>
       </c>
       <c r="C192" t="n">
-        <v>24068.18881561828</v>
+        <v>4802.44220159377</v>
       </c>
       <c r="D192" t="n">
-        <v>-39855.47673488819</v>
+        <v>-1910.913499619552</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>14260</v>
+        <v>12550</v>
       </c>
       <c r="C193" t="n">
-        <v>48662.00486599757</v>
+        <v>2998.633776348373</v>
       </c>
       <c r="D193" t="n">
-        <v>-15261.6606845089</v>
+        <v>-3714.721924864949</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>14052</v>
+        <v>12315</v>
       </c>
       <c r="C194" t="n">
-        <v>115036.5043334122</v>
+        <v>4855.967853003912</v>
       </c>
       <c r="D194" t="n">
-        <v>51112.83878290572</v>
+        <v>-1857.38784820941</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>13392</v>
+        <v>11922</v>
       </c>
       <c r="C195" t="n">
-        <v>122957.1296165329</v>
+        <v>3119.841713619107</v>
       </c>
       <c r="D195" t="n">
-        <v>59033.46406602647</v>
+        <v>-3593.513987594215</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>13462</v>
+        <v>10859</v>
       </c>
       <c r="C196" t="n">
-        <v>48234.87833059606</v>
+        <v>4235.858197808889</v>
       </c>
       <c r="D196" t="n">
-        <v>-15688.78721991041</v>
+        <v>-2477.497503404433</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>12583</v>
+        <v>10312</v>
       </c>
       <c r="C197" t="n">
-        <v>50739.33656752112</v>
+        <v>4279.798279661542</v>
       </c>
       <c r="D197" t="n">
-        <v>-13184.32898298535</v>
+        <v>-2433.557421551779</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'DevType': '2', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>12424</v>
+        <v>21070</v>
       </c>
       <c r="C198" t="n">
-        <v>122524.4440702634</v>
+        <v>2140.616974317039</v>
       </c>
       <c r="D198" t="n">
-        <v>58600.77851975698</v>
+        <v>-4572.738726896283</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'HDI': '1', 'DevType': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>11898</v>
+        <v>18239</v>
       </c>
       <c r="C199" t="n">
-        <v>50289.67431400385</v>
+        <v>2972.364938069738</v>
       </c>
       <c r="D199" t="n">
-        <v>-13633.99123650262</v>
+        <v>-3740.990763143584</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>14176</v>
+        <v>18192</v>
       </c>
       <c r="C200" t="n">
-        <v>27169.49705055697</v>
+        <v>2404.812213119229</v>
       </c>
       <c r="D200" t="n">
-        <v>-36754.1684999495</v>
+        <v>-4308.543488094092</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>13874</v>
+        <v>17185</v>
       </c>
       <c r="C201" t="n">
-        <v>78292.35391223615</v>
+        <v>3962.0157917935</v>
       </c>
       <c r="D201" t="n">
-        <v>14368.68836172968</v>
+        <v>-2751.339909419821</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>12726</v>
+        <v>16908</v>
       </c>
       <c r="C202" t="n">
-        <v>127182.7614564916</v>
+        <v>3943.333030186835</v>
       </c>
       <c r="D202" t="n">
-        <v>63259.09590598509</v>
+        <v>-2770.022671026486</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'Hobby': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>12721</v>
+        <v>15506</v>
       </c>
       <c r="C203" t="n">
-        <v>88152.28272554808</v>
+        <v>6360.879966712541</v>
       </c>
       <c r="D203" t="n">
-        <v>24228.61717504161</v>
+        <v>-352.4757345007802</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>13382</v>
+        <v>17486</v>
       </c>
       <c r="C204" t="n">
-        <v>26965.59824237677</v>
+        <v>1946.722347701861</v>
       </c>
       <c r="D204" t="n">
-        <v>-36958.0673081297</v>
+        <v>-4766.633353511461</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>12060</v>
+        <v>17295</v>
       </c>
       <c r="C205" t="n">
-        <v>55486.84358717953</v>
+        <v>1412.889200370405</v>
       </c>
       <c r="D205" t="n">
-        <v>-8436.82196332694</v>
+        <v>-5300.466500842917</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>11788</v>
+        <v>14794</v>
       </c>
       <c r="C206" t="n">
-        <v>126885.0607449022</v>
+        <v>1647.105232287808</v>
       </c>
       <c r="D206" t="n">
-        <v>62961.39519439574</v>
+        <v>-5066.250468925514</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'DevType': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>11378</v>
+        <v>14190</v>
       </c>
       <c r="C207" t="n">
-        <v>55204.48521673719</v>
+        <v>1290.8613408699</v>
       </c>
       <c r="D207" t="n">
-        <v>-8719.180333769276</v>
+        <v>-5422.494360343422</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>12069</v>
+        <v>16344</v>
       </c>
       <c r="C208" t="n">
-        <v>30560.90501086294</v>
+        <v>2289.159933879372</v>
       </c>
       <c r="D208" t="n">
-        <v>-33362.76053964353</v>
+        <v>-4424.195767333949</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'DevType': '2', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>11840</v>
+        <v>14536</v>
       </c>
       <c r="C209" t="n">
-        <v>87878.97815320843</v>
+        <v>2594.579217815487</v>
       </c>
       <c r="D209" t="n">
-        <v>23955.31260270196</v>
+        <v>-4118.776483397834</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>11123</v>
+        <v>14171</v>
       </c>
       <c r="C210" t="n">
-        <v>136223.8610306273</v>
+        <v>3210.732110532633</v>
       </c>
       <c r="D210" t="n">
-        <v>72300.1954801208</v>
+        <v>-3502.623590680688</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'DevType': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>11417</v>
+        <v>13836</v>
       </c>
       <c r="C211" t="n">
-        <v>30198.623392097</v>
+        <v>1532.295648282041</v>
       </c>
       <c r="D211" t="n">
-        <v>-33725.04215840947</v>
+        <v>-5181.060052931281</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'Hobby': '1', 'HDI': '1', 'DevType': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>10543</v>
+        <v>13610</v>
       </c>
       <c r="C212" t="n">
-        <v>58184.21780465585</v>
+        <v>2100.299174126955</v>
       </c>
       <c r="D212" t="n">
-        <v>-5739.447745850623</v>
+        <v>-4613.056527086366</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'DevType': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>10325</v>
+        <v>11862</v>
       </c>
       <c r="C213" t="n">
-        <v>136182.4562529833</v>
+        <v>1793.827495472855</v>
       </c>
       <c r="D213" t="n">
-        <v>72258.79070247684</v>
+        <v>-4919.528205740467</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>11416</v>
+        <v>11397</v>
       </c>
       <c r="C214" t="n">
-        <v>-19434.38803135163</v>
+        <v>1607.124123823324</v>
       </c>
       <c r="D214" t="n">
-        <v>-83358.05358185811</v>
+        <v>-5106.231577389997</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>11168</v>
+        <v>16152</v>
       </c>
       <c r="C215" t="n">
-        <v>50513.9438103208</v>
+        <v>3274.466712898681</v>
       </c>
       <c r="D215" t="n">
-        <v>-13409.72174018567</v>
+        <v>-3438.88898831464</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>10340</v>
+        <v>14309</v>
       </c>
       <c r="C216" t="n">
-        <v>62358.2501876016</v>
+        <v>4247.402699733061</v>
       </c>
       <c r="D216" t="n">
-        <v>-1565.415362904874</v>
+        <v>-2465.95300148026</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Student': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>10330</v>
+        <v>14089</v>
       </c>
       <c r="C217" t="n">
-        <v>89206.46154344876</v>
+        <v>3383.595038829238</v>
       </c>
       <c r="D217" t="n">
-        <v>25282.79599294229</v>
+        <v>-3329.760662384083</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>10218</v>
+        <v>14027</v>
       </c>
       <c r="C218" t="n">
-        <v>55639.69826898278</v>
+        <v>3445.74983815108</v>
       </c>
       <c r="D218" t="n">
-        <v>-8283.967281523692</v>
+        <v>-3267.605863062242</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>10618</v>
+        <v>13686</v>
       </c>
       <c r="C219" t="n">
-        <v>-20327.82109792085</v>
+        <v>3493.505714852993</v>
       </c>
       <c r="D219" t="n">
-        <v>-84251.48664842732</v>
+        <v>-3219.849986360328</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Student': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>11004</v>
+        <v>13466</v>
       </c>
       <c r="C220" t="n">
-        <v>16849.08577774846</v>
+        <v>3461.396678984217</v>
       </c>
       <c r="D220" t="n">
-        <v>-47074.57977275801</v>
+        <v>-3251.959022229104</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>10799</v>
+        <v>12226</v>
       </c>
       <c r="C221" t="n">
-        <v>91934.37037727165</v>
+        <v>3518.848100329573</v>
       </c>
       <c r="D221" t="n">
-        <v>28010.70482676518</v>
+        <v>-3194.507600883748</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>10385</v>
+        <v>11698</v>
       </c>
       <c r="C222" t="n">
-        <v>16576.68658917306</v>
+        <v>3653.753047740825</v>
       </c>
       <c r="D222" t="n">
-        <v>-47346.97896133341</v>
+        <v>-3059.602653472496</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>13244</v>
+        <v>13502</v>
       </c>
       <c r="C223" t="n">
-        <v>50719.90963090238</v>
+        <v>2878.611264350014</v>
       </c>
       <c r="D223" t="n">
-        <v>-13203.75591960409</v>
+        <v>-3834.744436863308</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Gender': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>13085</v>
+        <v>11905</v>
       </c>
       <c r="C224" t="n">
-        <v>-12808.39565578514</v>
+        <v>3182.92964078851</v>
       </c>
       <c r="D224" t="n">
-        <v>-76732.0612062916</v>
+        <v>-3530.426060424812</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GINI': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>12352</v>
+        <v>11551</v>
       </c>
       <c r="C225" t="n">
-        <v>56605.07735344118</v>
+        <v>3334.380225456031</v>
       </c>
       <c r="D225" t="n">
-        <v>-7318.588197065292</v>
+        <v>-3378.975475757291</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>11628</v>
+        <v>11475</v>
       </c>
       <c r="C226" t="n">
-        <v>61264.49581056608</v>
+        <v>2536.815334333516</v>
       </c>
       <c r="D226" t="n">
-        <v>-2659.169739940393</v>
+        <v>-4176.540366879806</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '2', 'Gender': '1'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>12410</v>
+        <v>11129</v>
       </c>
       <c r="C227" t="n">
-        <v>-13888.4620224859</v>
+        <v>3462.628635934517</v>
       </c>
       <c r="D227" t="n">
-        <v>-77812.12757299238</v>
+        <v>-3250.727065278805</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'GINI': '2'}</t>
+          <t>{'Hobby': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>11432</v>
+        <v>10060</v>
       </c>
       <c r="C228" t="n">
-        <v>57873.4575465932</v>
+        <v>3090.209237181427</v>
       </c>
       <c r="D228" t="n">
-        <v>-6050.208003913271</v>
+        <v>-3623.146464031894</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GINI': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>11288</v>
+        <v>14637</v>
       </c>
       <c r="C229" t="n">
-        <v>-13400.67686923808</v>
+        <v>4976.972919439485</v>
       </c>
       <c r="D229" t="n">
-        <v>-77324.34241974456</v>
+        <v>-1736.382781773837</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'GINI': '2', 'Gender': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>10718</v>
+        <v>12850</v>
       </c>
       <c r="C230" t="n">
-        <v>-14652.56120500071</v>
+        <v>5395.556948987812</v>
       </c>
       <c r="D230" t="n">
-        <v>-78576.22675550719</v>
+        <v>-1317.79875222551</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>10785</v>
+        <v>12246</v>
       </c>
       <c r="C231" t="n">
-        <v>-12941.59400865815</v>
+        <v>5806.039781572334</v>
       </c>
       <c r="D231" t="n">
-        <v>-76865.25955916462</v>
+        <v>-907.3159196409879</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'GINI': '2'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>10767</v>
+        <v>11973</v>
       </c>
       <c r="C232" t="n">
-        <v>63488.42878745684</v>
+        <v>7303.073193089516</v>
       </c>
       <c r="D232" t="n">
-        <v>-435.2367630496301</v>
+        <v>589.7174918761948</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'GINI': '2', 'Gender': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>10220</v>
+        <v>11847</v>
       </c>
       <c r="C233" t="n">
-        <v>-13785.34157678852</v>
+        <v>6084.419716786843</v>
       </c>
       <c r="D233" t="n">
-        <v>-77709.00712729499</v>
+        <v>-628.9359844264782</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>11997</v>
+        <v>12264</v>
       </c>
       <c r="C234" t="n">
-        <v>19539458.91496402</v>
+        <v>4582.822615720833</v>
       </c>
       <c r="D234" t="n">
-        <v>19475535.24941352</v>
+        <v>-2130.533085492489</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>10476</v>
+        <v>11544</v>
       </c>
       <c r="C235" t="n">
-        <v>103590.0287144722</v>
+        <v>4812.718011538638</v>
       </c>
       <c r="D235" t="n">
-        <v>39666.36316396573</v>
+        <v>-1900.637689674683</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>10476</v>
+        <v>10008</v>
       </c>
       <c r="C236" t="n">
-        <v>103590.0287144722</v>
+        <v>4255.020991835941</v>
       </c>
       <c r="D236" t="n">
-        <v>39666.36316396573</v>
+        <v>-2458.334709377381</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GDP': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>10476</v>
+        <v>11298</v>
       </c>
       <c r="C237" t="n">
-        <v>103590.0287144722</v>
+        <v>5382.075242543939</v>
       </c>
       <c r="D237" t="n">
-        <v>39666.36316396573</v>
+        <v>-1331.280458669383</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'GDP': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>10476</v>
+        <v>11243</v>
       </c>
       <c r="C238" t="n">
-        <v>103590.0287144722</v>
+        <v>4929.198596616427</v>
       </c>
       <c r="D238" t="n">
-        <v>39666.36316396573</v>
+        <v>-1784.157104596894</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>{'GDP': '2', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>10476</v>
+        <v>18591</v>
       </c>
       <c r="C239" t="n">
-        <v>103590.0287144722</v>
+        <v>5759.491004058506</v>
       </c>
       <c r="D239" t="n">
-        <v>39666.36316396573</v>
+        <v>-953.8646971548151</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'GDP': '2'}</t>
+          <t>{'HoursComputer': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>10476</v>
+        <v>16690</v>
       </c>
       <c r="C240" t="n">
-        <v>103590.0287144722</v>
+        <v>4361.051980132219</v>
       </c>
       <c r="D240" t="n">
-        <v>39666.36316396573</v>
+        <v>-2352.303721081103</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GDP': '2', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>10476</v>
+        <v>16363</v>
       </c>
       <c r="C241" t="n">
-        <v>103590.0287144722</v>
+        <v>5602.899987220042</v>
       </c>
       <c r="D241" t="n">
-        <v>39666.36316396573</v>
+        <v>-1110.455713993279</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'GDP': '2', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>10476</v>
+        <v>15402</v>
       </c>
       <c r="C242" t="n">
-        <v>103590.0287144722</v>
+        <v>6060.471993983761</v>
       </c>
       <c r="D242" t="n">
-        <v>39666.36316396573</v>
+        <v>-652.8837072295601</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'GDP': '2', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>10476</v>
+        <v>15321</v>
       </c>
       <c r="C243" t="n">
-        <v>103590.0287144722</v>
+        <v>6262.554982791322</v>
       </c>
       <c r="D243" t="n">
-        <v>39666.36316396573</v>
+        <v>-450.8007184219996</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>{'GDP': '2', 'Country': '2'}</t>
+          <t>{'HoursComputer': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>10476</v>
+        <v>13518</v>
       </c>
       <c r="C244" t="n">
-        <v>103590.0287144722</v>
+        <v>8000.472296346132</v>
       </c>
       <c r="D244" t="n">
-        <v>39666.36316396573</v>
+        <v>1287.11659513281</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'Country': '2'}</t>
+          <t>{'HoursComputer': '2', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>10476</v>
+        <v>12478</v>
       </c>
       <c r="C245" t="n">
-        <v>103590.0287144722</v>
+        <v>849.5230257039779</v>
       </c>
       <c r="D245" t="n">
-        <v>39666.36316396573</v>
+        <v>-5863.832675509344</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>10476</v>
+        <v>15737</v>
       </c>
       <c r="C246" t="n">
-        <v>103590.0287144722</v>
+        <v>4570.176052280543</v>
       </c>
       <c r="D246" t="n">
-        <v>39666.36316396573</v>
+        <v>-2143.179648932779</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Country': '2'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>10476</v>
+        <v>15555</v>
       </c>
       <c r="C247" t="n">
-        <v>103590.0287144722</v>
+        <v>5831.184976203039</v>
       </c>
       <c r="D247" t="n">
-        <v>39666.36316396573</v>
+        <v>-882.1707250102827</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GDP': '2', 'Country': '2'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>10476</v>
+        <v>13718</v>
       </c>
       <c r="C248" t="n">
-        <v>103590.0287144722</v>
+        <v>3839.915003739956</v>
       </c>
       <c r="D248" t="n">
-        <v>39666.36316396573</v>
+        <v>-2873.440697473366</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'GDP': '2', 'Country': '2'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>10476</v>
+        <v>13062</v>
       </c>
       <c r="C249" t="n">
-        <v>103590.0287144722</v>
+        <v>4634.027934442552</v>
       </c>
       <c r="D249" t="n">
-        <v>39666.36316396573</v>
+        <v>-2079.32776677077</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>{'GDP': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>10476</v>
+        <v>14577</v>
       </c>
       <c r="C250" t="n">
-        <v>103590.0287144722</v>
+        <v>6296.556389061149</v>
       </c>
       <c r="D250" t="n">
-        <v>39666.36316396573</v>
+        <v>-416.7993121521722</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'HoursComputer': '2', 'Student': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>10476</v>
+        <v>13183</v>
       </c>
       <c r="C251" t="n">
-        <v>103590.0287144722</v>
+        <v>4648.706710793031</v>
       </c>
       <c r="D251" t="n">
-        <v>39666.36316396573</v>
+        <v>-2064.648990420291</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>10476</v>
+        <v>12877</v>
       </c>
       <c r="C252" t="n">
-        <v>103590.0287144722</v>
+        <v>5700.839701924018</v>
       </c>
       <c r="D252" t="n">
-        <v>39666.36316396573</v>
+        <v>-1012.515999289303</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Student': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>10476</v>
+        <v>12492</v>
       </c>
       <c r="C253" t="n">
-        <v>103590.0287144722</v>
+        <v>5419.333904431972</v>
       </c>
       <c r="D253" t="n">
-        <v>39666.36316396573</v>
+        <v>-1294.02179678135</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'GDP': '2', 'Country': '2'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>10476</v>
+        <v>12293</v>
       </c>
       <c r="C254" t="n">
-        <v>103590.0287144722</v>
+        <v>6081.686905605286</v>
       </c>
       <c r="D254" t="n">
-        <v>39666.36316396573</v>
+        <v>-631.6687956080359</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GDP': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>10476</v>
+        <v>10930</v>
       </c>
       <c r="C255" t="n">
-        <v>103590.0287144722</v>
+        <v>4269.884832450462</v>
       </c>
       <c r="D255" t="n">
-        <v>39666.36316396573</v>
+        <v>-2443.47086876286</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'GDP': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HoursComputer': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>10476</v>
+        <v>10454</v>
       </c>
       <c r="C256" t="n">
-        <v>103590.0287144722</v>
+        <v>5348.742148216966</v>
       </c>
       <c r="D256" t="n">
-        <v>39666.36316396573</v>
+        <v>-1364.613552996356</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>10476</v>
+        <v>14416</v>
       </c>
       <c r="C257" t="n">
-        <v>103590.0287144722</v>
+        <v>6001.435926975244</v>
       </c>
       <c r="D257" t="n">
-        <v>39666.36316396573</v>
+        <v>-711.9197742380775</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'GDP': '2', 'Continent': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>10476</v>
+        <v>13336</v>
       </c>
       <c r="C258" t="n">
-        <v>103590.0287144722</v>
+        <v>4534.037833430545</v>
       </c>
       <c r="D258" t="n">
-        <v>39666.36316396573</v>
+        <v>-2179.317867782776</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Age': '3'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>13962</v>
+        <v>12899</v>
       </c>
       <c r="C259" t="n">
-        <v>95264.22278665585</v>
+        <v>6750.23378024084</v>
       </c>
       <c r="D259" t="n">
-        <v>31340.55723614938</v>
+        <v>36.87807902751865</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>13877</v>
+        <v>12796</v>
       </c>
       <c r="C260" t="n">
-        <v>22200.1520720694</v>
+        <v>6167.854660143666</v>
       </c>
       <c r="D260" t="n">
-        <v>-41723.51347843707</v>
+        <v>-545.501041069655</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Age': '3'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>13246</v>
+        <v>12565</v>
       </c>
       <c r="C261" t="n">
-        <v>89336.93904100593</v>
+        <v>4668.145511396449</v>
       </c>
       <c r="D261" t="n">
-        <v>25413.27349049946</v>
+        <v>-2045.210189816872</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Age': '3'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>12457</v>
+        <v>12205</v>
       </c>
       <c r="C262" t="n">
-        <v>149031.8402651832</v>
+        <v>6987.311849211497</v>
       </c>
       <c r="D262" t="n">
-        <v>85108.17471467669</v>
+        <v>273.9561479981758</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Age': '3'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>11536</v>
+        <v>11301</v>
       </c>
       <c r="C263" t="n">
-        <v>77869.45118695292</v>
+        <v>4911.561600578071</v>
       </c>
       <c r="D263" t="n">
-        <v>13945.78563644645</v>
+        <v>-1801.79410063525</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Age': '3'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>12482</v>
+        <v>10706</v>
       </c>
       <c r="C264" t="n">
-        <v>118061.9093359757</v>
+        <v>5787.437791082421</v>
       </c>
       <c r="D264" t="n">
-        <v>54138.24378546918</v>
+        <v>-925.917910130901</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Gender': '1', 'Age': '3'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>13152</v>
+        <v>12170</v>
       </c>
       <c r="C265" t="n">
-        <v>24166.37470810031</v>
+        <v>6317.513944526267</v>
       </c>
       <c r="D265" t="n">
-        <v>-39757.29084240616</v>
+        <v>-395.8417566870548</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Age': '3'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>12276</v>
+        <v>11050</v>
       </c>
       <c r="C266" t="n">
-        <v>96553.14034116853</v>
+        <v>4174.079861612177</v>
       </c>
       <c r="D266" t="n">
-        <v>32629.47479066206</v>
+        <v>-2539.275839601144</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'Age': '3'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>12197</v>
+        <v>10851</v>
       </c>
       <c r="C267" t="n">
-        <v>20689.14590955137</v>
+        <v>6210.088689441614</v>
       </c>
       <c r="D267" t="n">
-        <v>-43234.5196409551</v>
+        <v>-503.2670117717071</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Gender': '1', 'Age': '3'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>11569</v>
+        <v>10525</v>
       </c>
       <c r="C268" t="n">
-        <v>22712.48136079961</v>
+        <v>5043.600313560341</v>
       </c>
       <c r="D268" t="n">
-        <v>-41211.18418970685</v>
+        <v>-1669.75538765298</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Age': '3'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HoursComputer': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>11480</v>
+        <v>10363</v>
       </c>
       <c r="C269" t="n">
-        <v>148794.4845903584</v>
+        <v>6644.848633742173</v>
       </c>
       <c r="D269" t="n">
-        <v>84870.81903985195</v>
+        <v>-68.50706747114873</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Gender': '1', 'Age': '3'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>11413</v>
+        <v>12614</v>
       </c>
       <c r="C270" t="n">
-        <v>48281.02901156971</v>
+        <v>7555.641496967081</v>
       </c>
       <c r="D270" t="n">
-        <v>-15642.63653893676</v>
+        <v>842.2857957537599</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Age': '3'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>11131</v>
+        <v>11252</v>
       </c>
       <c r="C271" t="n">
-        <v>154752.6200156263</v>
+        <v>7673.129988735673</v>
       </c>
       <c r="D271" t="n">
-        <v>90828.95446511987</v>
+        <v>959.7742875223512</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1', 'Age': '3'}</t>
+          <t>{'HoursComputer': '2', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>10403</v>
+        <v>11065</v>
       </c>
       <c r="C272" t="n">
-        <v>173509.8618677677</v>
+        <v>6063.8247104933</v>
       </c>
       <c r="D272" t="n">
-        <v>109586.1963172612</v>
+        <v>-649.5309907200217</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Gender': '1', 'Age': '3'}</t>
+          <t>{'HoursComputer': '2', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>10794</v>
+        <v>10543</v>
       </c>
       <c r="C273" t="n">
-        <v>48266.52623160169</v>
+        <v>5482.570396700766</v>
       </c>
       <c r="D273" t="n">
-        <v>-15657.13931890478</v>
+        <v>-1230.785304512556</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1', 'Age': '3'}</t>
+          <t>{'HoursComputer': '2', 'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>10259</v>
+        <v>10452</v>
       </c>
       <c r="C274" t="n">
-        <v>154302.1317732638</v>
+        <v>8398.131361223113</v>
       </c>
       <c r="D274" t="n">
-        <v>90378.4662227573</v>
+        <v>1684.775660009792</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Gender': '1', 'Age': '3'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>10200</v>
+        <v>10619</v>
       </c>
       <c r="C275" t="n">
-        <v>48375.08708617621</v>
+        <v>7493.257917551108</v>
       </c>
       <c r="D275" t="n">
-        <v>-15548.57846433026</v>
+        <v>779.9022163377867</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'SexualOrientation': '1', 'Age': '3'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>10544</v>
+        <v>10322</v>
       </c>
       <c r="C276" t="n">
-        <v>86499.78152591171</v>
+        <v>5922.333330214813</v>
       </c>
       <c r="D276" t="n">
-        <v>22576.11597540524</v>
+        <v>-791.0223709985084</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Gender': '1', 'Age': '3'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>10509</v>
+        <v>11858</v>
       </c>
       <c r="C277" t="n">
-        <v>-16299.5765660066</v>
+        <v>574.1713638388577</v>
       </c>
       <c r="D277" t="n">
-        <v>-80223.24211651307</v>
+        <v>-6139.184337374464</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'Age': '3'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>10087</v>
+        <v>10396</v>
       </c>
       <c r="C278" t="n">
-        <v>77766.62475644196</v>
+        <v>738.43162567067</v>
       </c>
       <c r="D278" t="n">
-        <v>13842.95920593549</v>
+        <v>-5974.924075542652</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Age': '3'}</t>
+          <t>{'HoursComputer': '2', 'Student': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>11580</v>
+        <v>10363</v>
       </c>
       <c r="C279" t="n">
-        <v>124297.1006484771</v>
+        <v>241.2359283364706</v>
       </c>
       <c r="D279" t="n">
-        <v>60373.43509797067</v>
+        <v>-6472.119772876851</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'Age': '3'}</t>
+          <t>{'GINI': '2', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>10920</v>
+        <v>17827</v>
       </c>
       <c r="C280" t="n">
-        <v>119981.6103806577</v>
+        <v>9167.440434295811</v>
       </c>
       <c r="D280" t="n">
-        <v>56057.94483015123</v>
+        <v>2454.08473308249</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'Age': '3'}</t>
+          <t>{'GINI': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>11648</v>
+        <v>16046</v>
       </c>
       <c r="C281" t="n">
-        <v>34197.23934972074</v>
+        <v>7226.922415426796</v>
       </c>
       <c r="D281" t="n">
-        <v>-29726.42620078573</v>
+        <v>513.5667142134744</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1', 'Age': '3'}</t>
+          <t>{'GINI': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>11037</v>
+        <v>15435</v>
       </c>
       <c r="C282" t="n">
-        <v>36538.09939428286</v>
+        <v>7774.367462050464</v>
       </c>
       <c r="D282" t="n">
-        <v>-27385.56615622361</v>
+        <v>1061.011760837143</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Age': '3'}</t>
+          <t>{'GINI': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>10133</v>
+        <v>13244</v>
       </c>
       <c r="C283" t="n">
-        <v>126427.7268330802</v>
+        <v>9576.996472942028</v>
       </c>
       <c r="D283" t="n">
-        <v>62504.06128257376</v>
+        <v>2863.640771728707</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'Gender': '1', 'Age': '3'}</t>
+          <t>{'GINI': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>10195</v>
+        <v>12497</v>
       </c>
       <c r="C284" t="n">
-        <v>32239.03641666218</v>
+        <v>10780.72149609526</v>
       </c>
       <c r="D284" t="n">
-        <v>-31684.62913384429</v>
+        <v>4067.365794881935</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>12249</v>
+      </c>
+      <c r="C285" t="n">
+        <v>14493.57243843499</v>
+      </c>
+      <c r="D285" t="n">
+        <v>7780.216737221667</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'UndergradMajor': '2'}</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>11550</v>
+      </c>
+      <c r="C286" t="n">
+        <v>5284.672602339246</v>
+      </c>
+      <c r="D286" t="n">
+        <v>-1428.683098874076</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HoursComputer': '2'}</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>10601</v>
+      </c>
+      <c r="C287" t="n">
+        <v>7942.148183269531</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1228.792482056209</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Student': '1', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>14992</v>
+      </c>
+      <c r="C288" t="n">
+        <v>6420.989804841173</v>
+      </c>
+      <c r="D288" t="n">
+        <v>-292.3658963721482</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Hobby': '1', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>14590</v>
+      </c>
+      <c r="C289" t="n">
+        <v>7366.136172271008</v>
+      </c>
+      <c r="D289" t="n">
+        <v>652.7804710576866</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Hobby': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>12877</v>
+      </c>
+      <c r="C290" t="n">
+        <v>4706.941402338681</v>
+      </c>
+      <c r="D290" t="n">
+        <v>-2006.414298874641</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Hobby': '1', 'Student': '1', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>12186</v>
+      </c>
+      <c r="C291" t="n">
+        <v>4560.303199644346</v>
+      </c>
+      <c r="D291" t="n">
+        <v>-2153.052501568975</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'RaceEthnicity': '1', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>12410</v>
+      </c>
+      <c r="C292" t="n">
+        <v>10335.34292767448</v>
+      </c>
+      <c r="D292" t="n">
+        <v>3621.987226461163</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'RaceEthnicity': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>11432</v>
+      </c>
+      <c r="C293" t="n">
+        <v>6445.753055192663</v>
+      </c>
+      <c r="D293" t="n">
+        <v>-267.6026460206585</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'RaceEthnicity': '1', 'Hobby': '1'}</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>10767</v>
+      </c>
+      <c r="C294" t="n">
+        <v>7785.496879119766</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1072.141177906445</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'RaceEthnicity': '1', 'Student': '1', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>10718</v>
+      </c>
+      <c r="C295" t="n">
+        <v>7555.294303687337</v>
+      </c>
+      <c r="D295" t="n">
+        <v>841.9386024740152</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'RaceEthnicity': '1', 'Hobby': '1', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>10220</v>
+      </c>
+      <c r="C296" t="n">
+        <v>8337.303032455024</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1623.947331241702</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Dependents': '2', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>11535</v>
+      </c>
+      <c r="C297" t="n">
+        <v>11130.36354880801</v>
+      </c>
+      <c r="D297" t="n">
+        <v>4417.007847594688</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Dependents': '2', 'Hobby': '1'}</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>10190</v>
+      </c>
+      <c r="C298" t="n">
+        <v>8150.905962628605</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1437.550261415284</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Dependents': '2', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>10140</v>
+      </c>
+      <c r="C299" t="n">
+        <v>7229.665700553215</v>
+      </c>
+      <c r="D299" t="n">
+        <v>516.3099993398937</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>11370</v>
+      </c>
+      <c r="C300" t="n">
+        <v>13733.85870259893</v>
+      </c>
+      <c r="D300" t="n">
+        <v>7020.503001385608</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Student': '1', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>10175</v>
+      </c>
+      <c r="C301" t="n">
+        <v>9790.056500179791</v>
+      </c>
+      <c r="D301" t="n">
+        <v>3076.70079896647</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'UndergradMajor': '2', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>10919</v>
+      </c>
+      <c r="C302" t="n">
+        <v>3410.452579569446</v>
+      </c>
+      <c r="D302" t="n">
+        <v>-3302.903121643876</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>13664</v>
+      </c>
+      <c r="C303" t="n">
+        <v>13797.70359829684</v>
+      </c>
+      <c r="D303" t="n">
+        <v>7084.347897083514</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>{'Student': '1', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>12188</v>
+      </c>
+      <c r="C304" t="n">
+        <v>11356.59978084381</v>
+      </c>
+      <c r="D304" t="n">
+        <v>4643.244079630486</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C305" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D305" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Student': '1', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>12188</v>
+      </c>
+      <c r="C306" t="n">
+        <v>11356.59978084381</v>
+      </c>
+      <c r="D306" t="n">
+        <v>4643.244079630486</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Student': '1', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>11312</v>
+      </c>
+      <c r="C307" t="n">
+        <v>10433.8247232144</v>
+      </c>
+      <c r="D307" t="n">
+        <v>3720.469022001075</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'HDI': '1', 'Student': '1', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>11312</v>
+      </c>
+      <c r="C308" t="n">
+        <v>10433.8247232144</v>
+      </c>
+      <c r="D308" t="n">
+        <v>3720.469022001075</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C309" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D309" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Continent': '2', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C310" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D310" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Student': '1', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C311" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D311" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C312" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D312" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Student': '1', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C313" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D313" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Exercise': '3'}</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>12145</v>
+      </c>
+      <c r="C314" t="n">
+        <v>3141.615856410298</v>
+      </c>
+      <c r="D314" t="n">
+        <v>-3571.739844803023</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>{'Exercise': '3', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>10675</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1187.566419059048</v>
+      </c>
+      <c r="D315" t="n">
+        <v>-5525.789282154274</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>{'Exercise': '3', 'Hobby': '1'}</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>10441</v>
+      </c>
+      <c r="C316" t="n">
+        <v>911.8619438721937</v>
+      </c>
+      <c r="D316" t="n">
+        <v>-5801.493757341128</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Exercise': '3', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>10125</v>
+      </c>
+      <c r="C317" t="n">
+        <v>612.1502845475799</v>
+      </c>
+      <c r="D317" t="n">
+        <v>-6101.205416665742</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>{'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C318" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D318" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C319" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D319" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C320" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D320" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C321" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D321" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>{'Student': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C322" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D322" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C323" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D323" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C324" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D324" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C325" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D325" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C326" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D326" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'HDI': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C327" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D327" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Gender': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C328" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D328" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C329" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D329" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Gender': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C330" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D330" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C331" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D331" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Continent': '2', 'Gender': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C332" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D332" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Continent': '2', 'HDI': '1', 'GDP': '2', 'GINI': '2'}</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C333" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D333" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Student': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C334" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D334" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Student': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C335" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D335" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>{'Student': '1', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C336" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D336" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Student': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C337" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D337" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>{'Student': '1', 'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C338" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D338" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Student': '1', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C339" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D339" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>{'Continent': '2', 'HDI': '1', 'Student': '1', 'GDP': '2', 'GINI': '2'}</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C340" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D340" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>{'Country': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C341" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D341" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>{'Country': '2', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C342" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D342" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C343" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D343" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C344" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D344" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C345" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D345" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>{'Student': '1', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C346" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D346" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>{'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C347" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D347" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Country': '2', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C348" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D348" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Country': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C349" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D349" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C350" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D350" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C351" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D351" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Country': '2', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C352" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D352" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C353" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D353" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C354" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D354" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C355" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D355" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C356" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D356" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>{'Continent': '2', 'HDI': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>11829</v>
+      </c>
+      <c r="C357" t="n">
+        <v>15232.53888880945</v>
+      </c>
+      <c r="D357" t="n">
+        <v>8519.183187596125</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'HDI': '1', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C358" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D358" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Country': '2', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C359" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D359" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Country': '2', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C360" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D360" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Country': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C361" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D361" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'Gender': '1'}</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C362" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D362" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'HDI': '1', 'Country': '2', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C363" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D363" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C364" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D364" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Country': '2', 'Gender': '1', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C365" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D365" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Country': '2', 'Gender': '1', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C366" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D366" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C367" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D367" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Continent': '2', 'HDI': '1', 'GINI': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C368" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D368" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'HDI': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C369" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D369" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Continent': '2', 'HDI': '1', 'GDP': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C370" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D370" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Continent': '2', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C371" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D371" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Continent': '2', 'HDI': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C372" t="n">
+        <v>14367.19376073352</v>
+      </c>
+      <c r="D372" t="n">
+        <v>7653.838059520202</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Country': '2', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C373" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D373" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Student': '1', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C374" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D374" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>{'Student': '1', 'Country': '2', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C375" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D375" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>{'Student': '1', 'Country': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C376" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D376" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C377" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D377" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Country': '2', 'Continent': '2', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C378" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D378" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>{'Student': '1', 'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C379" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D379" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Student': '1', 'Country': '2', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C380" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D380" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Student': '1', 'Country': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C381" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D381" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>{'Student': '1', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C382" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D382" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>{'Continent': '2', 'HDI': '1', 'Student': '1', 'GINI': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C383" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D383" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Student': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C384" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D384" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>{'Continent': '2', 'HDI': '1', 'Student': '1', 'GDP': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C385" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D385" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>{'Continent': '2', 'Student': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C386" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D386" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>{'Continent': '2', 'HDI': '1', 'Student': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>10592</v>
+      </c>
+      <c r="C387" t="n">
+        <v>11450.5807904955</v>
+      </c>
+      <c r="D387" t="n">
+        <v>4737.225089282177</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>17245</v>
+      </c>
+      <c r="C388" t="n">
+        <v>8060.128048085273</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1346.772346871951</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>15934</v>
+      </c>
+      <c r="C389" t="n">
+        <v>7355.426207414689</v>
+      </c>
+      <c r="D389" t="n">
+        <v>642.0705062013676</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'RaceEthnicity': '1'}</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>13962</v>
+      </c>
+      <c r="C390" t="n">
+        <v>7763.272803999966</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1049.917102786644</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>13871</v>
+      </c>
+      <c r="C391" t="n">
+        <v>10212.29456785343</v>
+      </c>
+      <c r="D391" t="n">
+        <v>3498.938866640109</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Dependents': '2'}</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>13696</v>
+      </c>
+      <c r="C392" t="n">
+        <v>9582.463471463969</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2869.107770250647</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'UndergradMajor': '2'}</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>11604</v>
+      </c>
+      <c r="C393" t="n">
+        <v>5138.590960239977</v>
+      </c>
+      <c r="D393" t="n">
+        <v>-1574.764740973344</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Hobby': '1'}</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>15101</v>
+      </c>
+      <c r="C394" t="n">
+        <v>7790.015822527435</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1076.660121314114</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'HoursComputer': '2'}</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>10606</v>
+      </c>
+      <c r="C395" t="n">
+        <v>8379.878184612351</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1666.52248339903</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>{'GINI': '2', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>10066</v>
+      </c>
+      <c r="C396" t="n">
+        <v>11408.26808244848</v>
+      </c>
+      <c r="D396" t="n">
+        <v>4694.912381235158</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Age': '3', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>14939</v>
+      </c>
+      <c r="C397" t="n">
+        <v>7088.326986545298</v>
+      </c>
+      <c r="D397" t="n">
+        <v>374.9712853319761</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>13152</v>
+      </c>
+      <c r="C398" t="n">
+        <v>8500.067416506725</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1786.711715293403</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'RaceEthnicity': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>12276</v>
+      </c>
+      <c r="C399" t="n">
+        <v>6978.795445838928</v>
+      </c>
+      <c r="D399" t="n">
+        <v>265.4397446256062</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'RaceEthnicity': '1', 'Hobby': '1'}</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>11580</v>
+      </c>
+      <c r="C400" t="n">
+        <v>6994.389780416497</v>
+      </c>
+      <c r="D400" t="n">
+        <v>281.0340792031757</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>11569</v>
+      </c>
+      <c r="C401" t="n">
+        <v>7873.983683822924</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1160.627982609602</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>10133</v>
+      </c>
+      <c r="C402" t="n">
+        <v>6699.145899462711</v>
+      </c>
+      <c r="D402" t="n">
+        <v>-14.2098017506105</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>11037</v>
+      </c>
+      <c r="C403" t="n">
+        <v>7565.162115387219</v>
+      </c>
+      <c r="D403" t="n">
+        <v>851.8064141738978</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Age': '3', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>12950</v>
+      </c>
+      <c r="C404" t="n">
+        <v>10219.12836103825</v>
+      </c>
+      <c r="D404" t="n">
+        <v>3505.772659824929</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'HDI': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>12285</v>
+      </c>
+      <c r="C405" t="n">
+        <v>9530.136204319409</v>
+      </c>
+      <c r="D405" t="n">
+        <v>2816.780503106088</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'RaceEthnicity': '1', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>11480</v>
+      </c>
+      <c r="C406" t="n">
+        <v>9514.627629160645</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2801.271927947323</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Hobby': '1', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>11512</v>
+      </c>
+      <c r="C407" t="n">
+        <v>10230.78867115581</v>
+      </c>
+      <c r="D407" t="n">
+        <v>3517.432969942484</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Age': '3', 'HDI': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>11476</v>
+      </c>
+      <c r="C408" t="n">
+        <v>9235.597058102685</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2522.241356889363</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>10794</v>
+      </c>
+      <c r="C409" t="n">
+        <v>10412.15678733433</v>
+      </c>
+      <c r="D409" t="n">
+        <v>3698.80108612101</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>10259</v>
+      </c>
+      <c r="C410" t="n">
+        <v>8732.145989301145</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2018.790288087824</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>10888</v>
+      </c>
+      <c r="C411" t="n">
+        <v>10207.58978645974</v>
+      </c>
+      <c r="D411" t="n">
+        <v>3494.234085246414</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>10154</v>
+      </c>
+      <c r="C412" t="n">
+        <v>9421.220530706376</v>
+      </c>
+      <c r="D412" t="n">
+        <v>2707.864829493054</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Age': '3', 'Dependents': '2'}</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>12741</v>
+      </c>
+      <c r="C413" t="n">
+        <v>10231.01475295892</v>
+      </c>
+      <c r="D413" t="n">
+        <v>3517.659051745596</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Dependents': '2', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>11804</v>
+      </c>
+      <c r="C414" t="n">
+        <v>8685.996923545939</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1972.641222332618</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Dependents': '2', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>10601</v>
+      </c>
+      <c r="C415" t="n">
+        <v>11453.5100702705</v>
+      </c>
+      <c r="D415" t="n">
+        <v>4740.154369057175</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>10544</v>
+      </c>
+      <c r="C416" t="n">
+        <v>8599.415050997261</v>
+      </c>
+      <c r="D416" t="n">
+        <v>1886.059349783939</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Dependents': '2', 'Hobby': '1'}</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>11255</v>
+      </c>
+      <c r="C417" t="n">
+        <v>9408.095039962718</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2694.739338749397</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Age': '3', 'Dependents': '2', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>10977</v>
+      </c>
+      <c r="C418" t="n">
+        <v>8907.150357644125</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2193.794656430803</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>10612</v>
+      </c>
+      <c r="C419" t="n">
+        <v>9984.542658296567</v>
+      </c>
+      <c r="D419" t="n">
+        <v>3271.186957083245</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>11004</v>
+      </c>
+      <c r="C420" t="n">
+        <v>3851.052327067658</v>
+      </c>
+      <c r="D420" t="n">
+        <v>-2862.303374145663</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Hobby': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>13013</v>
+      </c>
+      <c r="C421" t="n">
+        <v>6908.911518718556</v>
+      </c>
+      <c r="D421" t="n">
+        <v>195.5558175052347</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1'}</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>14314</v>
+      </c>
+      <c r="C422" t="n">
+        <v>7759.774607899914</v>
+      </c>
+      <c r="D422" t="n">
+        <v>1046.418906686593</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>12348</v>
+      </c>
+      <c r="C423" t="n">
+        <v>7037.057368671631</v>
+      </c>
+      <c r="D423" t="n">
+        <v>323.7016674583092</v>
       </c>
     </row>
   </sheetData>

--- a/algorithms_results/Yardens_results/FPGrowth_subgroups_results_delta_10000_2.xlsx
+++ b/algorithms_results/Yardens_results/FPGrowth_subgroups_results_delta_10000_2.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D423"/>
+  <dimension ref="A1:D437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,183 +662,183 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'Dependents': '1'}</t>
+          <t>{'GINI': '1'}</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11129</v>
+        <v>13376</v>
       </c>
       <c r="C10" t="n">
-        <v>5982.040967086004</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-731.314734127317</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '1'}</t>
+          <t>{'Dependents': '1'}</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10705</v>
+        <v>11129</v>
       </c>
       <c r="C11" t="n">
-        <v>7207.640912963764</v>
+        <v>5982.040967086004</v>
       </c>
       <c r="D11" t="n">
-        <v>494.2852117504426</v>
+        <v>-731.314734127317</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'EducationParents': '1'}</t>
+          <t>{'HoursComputer': '1'}</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10410</v>
+        <v>10705</v>
       </c>
       <c r="C12" t="n">
-        <v>8041.492512881828</v>
+        <v>7207.640912963764</v>
       </c>
       <c r="D12" t="n">
-        <v>1328.136811668506</v>
+        <v>494.2852117504426</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'Dependents': '2'}</t>
+          <t>{'EducationParents': '1'}</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24167</v>
+        <v>10410</v>
       </c>
       <c r="C13" t="n">
-        <v>7072.162954162452</v>
+        <v>8041.492512881828</v>
       </c>
       <c r="D13" t="n">
-        <v>358.8072529491301</v>
+        <v>1328.136811668506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2'}</t>
+          <t>{'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22173</v>
+        <v>24167</v>
       </c>
       <c r="C14" t="n">
-        <v>3542.149042873403</v>
+        <v>7072.162954162452</v>
       </c>
       <c r="D14" t="n">
-        <v>-3171.206658339918</v>
+        <v>358.8072529491301</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2'}</t>
+          <t>{'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19738</v>
+        <v>22173</v>
       </c>
       <c r="C15" t="n">
-        <v>5820.891848914629</v>
+        <v>3542.149042873403</v>
       </c>
       <c r="D15" t="n">
-        <v>-892.4638522986925</v>
+        <v>-3171.206658339918</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'Exercise': '2'}</t>
+          <t>{'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10297</v>
+        <v>19738</v>
       </c>
       <c r="C16" t="n">
-        <v>10771.92455702791</v>
+        <v>5820.891848914629</v>
       </c>
       <c r="D16" t="n">
-        <v>4058.568855814586</v>
+        <v>-892.4638522986925</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'GINI': '2'}</t>
+          <t>{'Exercise': '2'}</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19081</v>
+        <v>10297</v>
       </c>
       <c r="C17" t="n">
-        <v>9822.797811066226</v>
+        <v>10771.92455702791</v>
       </c>
       <c r="D17" t="n">
-        <v>3109.442109852905</v>
+        <v>4058.568855814586</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'Continent': '2'}</t>
+          <t>{'GINI': '2'}</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13664</v>
+        <v>19081</v>
       </c>
       <c r="C18" t="n">
-        <v>13797.70359829684</v>
+        <v>9822.797811066226</v>
       </c>
       <c r="D18" t="n">
-        <v>7084.347897083514</v>
+        <v>3109.442109852905</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'Exercise': '3'}</t>
+          <t>{'Continent': '2'}</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12820</v>
+        <v>13664</v>
       </c>
       <c r="C19" t="n">
-        <v>3558.704492548648</v>
+        <v>13797.70359829684</v>
       </c>
       <c r="D19" t="n">
-        <v>-3154.651208664674</v>
+        <v>7084.347897083514</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'GDP': '2'}</t>
+          <t>{'Exercise': '3'}</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11829</v>
+        <v>12820</v>
       </c>
       <c r="C20" t="n">
-        <v>15232.53888880945</v>
+        <v>3558.704492548648</v>
       </c>
       <c r="D20" t="n">
-        <v>8519.183187596125</v>
+        <v>-3154.651208664674</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'Country': '2'}</t>
+          <t>{'GDP': '2'}</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -854,1015 +854,1015 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'Age': '3'}</t>
+          <t>{'Country': '2'}</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18401</v>
+        <v>11829</v>
       </c>
       <c r="C22" t="n">
-        <v>8048.308572796766</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D22" t="n">
-        <v>1334.952871583445</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Student': '1'}</t>
+          <t>{'Age': '3'}</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27820</v>
+        <v>18401</v>
       </c>
       <c r="C23" t="n">
-        <v>4860.761884746209</v>
+        <v>8048.308572796766</v>
       </c>
       <c r="D23" t="n">
-        <v>-1852.593816467112</v>
+        <v>1334.952871583445</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27456</v>
+        <v>27820</v>
       </c>
       <c r="C24" t="n">
-        <v>5084.527001737077</v>
+        <v>4860.761884746209</v>
       </c>
       <c r="D24" t="n">
-        <v>-1628.828699476245</v>
+        <v>-1852.593816467112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23894</v>
+        <v>27456</v>
       </c>
       <c r="C25" t="n">
-        <v>4208.446115890501</v>
+        <v>5084.527001737077</v>
       </c>
       <c r="D25" t="n">
-        <v>-2504.90958532282</v>
+        <v>-1628.828699476245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22758</v>
+        <v>23894</v>
       </c>
       <c r="C26" t="n">
-        <v>4081.320153739394</v>
+        <v>4208.446115890501</v>
       </c>
       <c r="D26" t="n">
-        <v>-2632.035547473928</v>
+        <v>-2504.90958532282</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25944</v>
+        <v>22758</v>
       </c>
       <c r="C27" t="n">
-        <v>7219.315451383841</v>
+        <v>4081.320153739394</v>
       </c>
       <c r="D27" t="n">
-        <v>505.9597501705193</v>
+        <v>-2632.035547473928</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23773</v>
+        <v>25944</v>
       </c>
       <c r="C28" t="n">
-        <v>7095.77558069452</v>
+        <v>7219.315451383841</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4198794811982</v>
+        <v>505.9597501705193</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22660</v>
+        <v>23773</v>
       </c>
       <c r="C29" t="n">
-        <v>7025.684796894849</v>
+        <v>7095.77558069452</v>
       </c>
       <c r="D29" t="n">
-        <v>312.3290956815272</v>
+        <v>382.4198794811982</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22370</v>
+        <v>22660</v>
       </c>
       <c r="C30" t="n">
-        <v>6176.689060932703</v>
+        <v>7025.684796894849</v>
       </c>
       <c r="D30" t="n">
-        <v>-536.6666402806186</v>
+        <v>312.3290956815272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21574</v>
+        <v>22370</v>
       </c>
       <c r="C31" t="n">
-        <v>6412.706957617019</v>
+        <v>6176.689060932703</v>
       </c>
       <c r="D31" t="n">
-        <v>-300.6487435963027</v>
+        <v>-536.6666402806186</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19358</v>
+        <v>21574</v>
       </c>
       <c r="C32" t="n">
-        <v>5757.284204945694</v>
+        <v>6412.706957617019</v>
       </c>
       <c r="D32" t="n">
-        <v>-956.0714962676275</v>
+        <v>-300.6487435963027</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18438</v>
+        <v>19358</v>
       </c>
       <c r="C33" t="n">
-        <v>5619.548811679768</v>
+        <v>5757.284204945694</v>
       </c>
       <c r="D33" t="n">
-        <v>-1093.806889533554</v>
+        <v>-956.0714962676275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25910</v>
+        <v>18438</v>
       </c>
       <c r="C34" t="n">
-        <v>6471.012774252379</v>
+        <v>5619.548811679768</v>
       </c>
       <c r="D34" t="n">
-        <v>-242.3429269609423</v>
+        <v>-1093.806889533554</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23264</v>
+        <v>25910</v>
       </c>
       <c r="C35" t="n">
-        <v>5618.412897795355</v>
+        <v>6471.012774252379</v>
       </c>
       <c r="D35" t="n">
-        <v>-1094.942803417966</v>
+        <v>-242.3429269609423</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>23146</v>
+        <v>23264</v>
       </c>
       <c r="C36" t="n">
-        <v>7669.000695259265</v>
+        <v>5618.412897795355</v>
       </c>
       <c r="D36" t="n">
-        <v>955.6449940459433</v>
+        <v>-1094.942803417966</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22529</v>
+        <v>23146</v>
       </c>
       <c r="C37" t="n">
-        <v>5345.204113474854</v>
+        <v>7669.000695259265</v>
       </c>
       <c r="D37" t="n">
-        <v>-1368.151587738467</v>
+        <v>955.6449940459433</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22014</v>
+        <v>22529</v>
       </c>
       <c r="C38" t="n">
-        <v>5982.017555487582</v>
+        <v>5345.204113474854</v>
       </c>
       <c r="D38" t="n">
-        <v>-731.3381457257392</v>
+        <v>-1368.151587738467</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21900</v>
+        <v>22014</v>
       </c>
       <c r="C39" t="n">
-        <v>7566.667087338407</v>
+        <v>5982.017555487582</v>
       </c>
       <c r="D39" t="n">
-        <v>853.3113861250858</v>
+        <v>-731.3381457257392</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20128</v>
+        <v>21900</v>
       </c>
       <c r="C40" t="n">
-        <v>6694.06933007496</v>
+        <v>7566.667087338407</v>
       </c>
       <c r="D40" t="n">
-        <v>-19.28637113836157</v>
+        <v>853.3113861250858</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19043</v>
+        <v>20128</v>
       </c>
       <c r="C41" t="n">
-        <v>7073.278421988637</v>
+        <v>6694.06933007496</v>
       </c>
       <c r="D41" t="n">
-        <v>359.9227207753156</v>
+        <v>-19.28637113836157</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21544</v>
+        <v>19043</v>
       </c>
       <c r="C42" t="n">
-        <v>5551.102665918384</v>
+        <v>7073.278421988637</v>
       </c>
       <c r="D42" t="n">
-        <v>-1162.253035294938</v>
+        <v>359.9227207753156</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19133</v>
+        <v>21544</v>
       </c>
       <c r="C43" t="n">
-        <v>6167.928095255636</v>
+        <v>5551.102665918384</v>
       </c>
       <c r="D43" t="n">
-        <v>-545.427605957686</v>
+        <v>-1162.253035294938</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>18956</v>
+        <v>19133</v>
       </c>
       <c r="C44" t="n">
-        <v>4707.214742762342</v>
+        <v>6167.928095255636</v>
       </c>
       <c r="D44" t="n">
-        <v>-2006.140958450979</v>
+        <v>-545.427605957686</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>18306</v>
+        <v>18956</v>
       </c>
       <c r="C45" t="n">
-        <v>6286.555506924179</v>
+        <v>4707.214742762342</v>
       </c>
       <c r="D45" t="n">
-        <v>-426.8001942891424</v>
+        <v>-2006.140958450979</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18136</v>
+        <v>18306</v>
       </c>
       <c r="C46" t="n">
-        <v>5289.423209809513</v>
+        <v>6286.555506924179</v>
       </c>
       <c r="D46" t="n">
-        <v>-1423.932491403809</v>
+        <v>-426.8001942891424</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>16486</v>
+        <v>18136</v>
       </c>
       <c r="C47" t="n">
-        <v>5666.495872135472</v>
+        <v>5289.423209809513</v>
       </c>
       <c r="D47" t="n">
-        <v>-1046.859829077849</v>
+        <v>-1423.932491403809</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15779</v>
+        <v>16486</v>
       </c>
       <c r="C48" t="n">
-        <v>6251.332734797039</v>
+        <v>5666.495872135472</v>
       </c>
       <c r="D48" t="n">
-        <v>-462.0229664162825</v>
+        <v>-1046.859829077849</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>16065</v>
+        <v>15779</v>
       </c>
       <c r="C49" t="n">
-        <v>4156.361432148196</v>
+        <v>6251.332734797039</v>
       </c>
       <c r="D49" t="n">
-        <v>-2556.994269065125</v>
+        <v>-462.0229664162825</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Student': '1'}</t>
+          <t>{'FormalEducation': '1', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>14779</v>
+        <v>16065</v>
       </c>
       <c r="C50" t="n">
-        <v>4607.279095772894</v>
+        <v>4156.361432148196</v>
       </c>
       <c r="D50" t="n">
-        <v>-2106.076605440428</v>
+        <v>-2556.994269065125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Hobby': '1'}</t>
+          <t>{'FormalEducation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13729</v>
+        <v>14779</v>
       </c>
       <c r="C51" t="n">
-        <v>3752.00434229091</v>
+        <v>4607.279095772894</v>
       </c>
       <c r="D51" t="n">
-        <v>-2961.351358922411</v>
+        <v>-2106.076605440428</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'HDI': '1'}</t>
+          <t>{'FormalEducation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12988</v>
+        <v>13729</v>
       </c>
       <c r="C52" t="n">
-        <v>6346.378413272951</v>
+        <v>3752.00434229091</v>
       </c>
       <c r="D52" t="n">
-        <v>-366.9772879403708</v>
+        <v>-2961.351358922411</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>12747</v>
+        <v>12988</v>
       </c>
       <c r="C53" t="n">
-        <v>6521.820031304564</v>
+        <v>6346.378413272951</v>
       </c>
       <c r="D53" t="n">
-        <v>-191.5356699087579</v>
+        <v>-366.9772879403708</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Dependents': '2'}</t>
+          <t>{'FormalEducation': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>11889</v>
+        <v>12747</v>
       </c>
       <c r="C54" t="n">
-        <v>8005.636881248936</v>
+        <v>6521.820031304564</v>
       </c>
       <c r="D54" t="n">
-        <v>1292.281180035615</v>
+        <v>-191.5356699087579</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'FormalEducation': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>11310</v>
+        <v>11889</v>
       </c>
       <c r="C55" t="n">
-        <v>1790.85632592141</v>
+        <v>8005.636881248936</v>
       </c>
       <c r="D55" t="n">
-        <v>-4922.499375291911</v>
+        <v>1292.281180035615</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'FormalEducation': '1'}</t>
+          <t>{'FormalEducation': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10868</v>
+        <v>11310</v>
       </c>
       <c r="C56" t="n">
-        <v>5452.299621678139</v>
+        <v>1790.85632592141</v>
       </c>
       <c r="D56" t="n">
-        <v>-1261.056079535182</v>
+        <v>-4922.499375291911</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'FormalEducation': '1'}</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13856</v>
+        <v>10868</v>
       </c>
       <c r="C57" t="n">
-        <v>3480.789109812271</v>
+        <v>5452.299621678139</v>
       </c>
       <c r="D57" t="n">
-        <v>-3232.566591401051</v>
+        <v>-1261.056079535182</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'Hobby': '1'}</t>
+          <t>{'FormalEducation': '1', 'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>13035</v>
+        <v>13856</v>
       </c>
       <c r="C58" t="n">
-        <v>3055.195564704285</v>
+        <v>3480.789109812271</v>
       </c>
       <c r="D58" t="n">
-        <v>-3658.160136509036</v>
+        <v>-3232.566591401051</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>11725</v>
+        <v>13035</v>
       </c>
       <c r="C59" t="n">
-        <v>2768.390500492396</v>
+        <v>3055.195564704285</v>
       </c>
       <c r="D59" t="n">
-        <v>-3944.965200720926</v>
+        <v>-3658.160136509036</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'FormalEducation': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11142</v>
+        <v>11725</v>
       </c>
       <c r="C60" t="n">
-        <v>2456.886802253134</v>
+        <v>2768.390500492396</v>
       </c>
       <c r="D60" t="n">
-        <v>-4256.468898960187</v>
+        <v>-3944.965200720926</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12139</v>
+        <v>11142</v>
       </c>
       <c r="C61" t="n">
-        <v>4770.80124644188</v>
+        <v>2456.886802253134</v>
       </c>
       <c r="D61" t="n">
-        <v>-1942.554454771442</v>
+        <v>-4256.468898960187</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>11640</v>
+        <v>12139</v>
       </c>
       <c r="C62" t="n">
-        <v>5462.057895865366</v>
+        <v>4770.80124644188</v>
       </c>
       <c r="D62" t="n">
-        <v>-1251.297805347956</v>
+        <v>-1942.554454771442</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10423</v>
+        <v>11640</v>
       </c>
       <c r="C63" t="n">
-        <v>5195.057726463114</v>
+        <v>5462.057895865366</v>
       </c>
       <c r="D63" t="n">
-        <v>-1518.297974750208</v>
+        <v>-1251.297805347956</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10886</v>
+        <v>10423</v>
       </c>
       <c r="C64" t="n">
-        <v>4025.890132833666</v>
+        <v>5195.057726463114</v>
       </c>
       <c r="D64" t="n">
-        <v>-2687.465568379655</v>
+        <v>-1518.297974750208</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>12006</v>
+        <v>10886</v>
       </c>
       <c r="C65" t="n">
-        <v>6452.768629762377</v>
+        <v>4025.890132833666</v>
       </c>
       <c r="D65" t="n">
-        <v>-260.5870714509447</v>
+        <v>-2687.465568379655</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Student': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'FormalEducation': '1', 'Gender': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>11170</v>
+        <v>12006</v>
       </c>
       <c r="C66" t="n">
-        <v>6019.176948768032</v>
+        <v>6452.768629762377</v>
       </c>
       <c r="D66" t="n">
-        <v>-694.1787524452893</v>
+        <v>-260.5870714509447</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'FormalEducation': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10869</v>
+        <v>11170</v>
       </c>
       <c r="C67" t="n">
-        <v>6648.531004748326</v>
+        <v>6019.176948768032</v>
       </c>
       <c r="D67" t="n">
-        <v>-64.82469646499521</v>
+        <v>-694.1787524452893</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10267</v>
+        <v>10869</v>
       </c>
       <c r="C68" t="n">
-        <v>5788.079104279298</v>
+        <v>6648.531004748326</v>
       </c>
       <c r="D68" t="n">
-        <v>-925.2765969340235</v>
+        <v>-64.82469646499521</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'Student': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'FormalEducation': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10523</v>
+        <v>10267</v>
       </c>
       <c r="C69" t="n">
-        <v>6283.1080195612</v>
+        <v>5788.079104279298</v>
       </c>
       <c r="D69" t="n">
-        <v>-430.2476816521212</v>
+        <v>-925.2765969340235</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'FormalEducation': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>10233</v>
+        <v>10523</v>
       </c>
       <c r="C70" t="n">
-        <v>6568.343205338938</v>
+        <v>6283.1080195612</v>
       </c>
       <c r="D70" t="n">
-        <v>-145.0124958743836</v>
+        <v>-430.2476816521212</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>11034</v>
+        <v>10233</v>
       </c>
       <c r="C71" t="n">
-        <v>7726.053737005758</v>
+        <v>6568.343205338938</v>
       </c>
       <c r="D71" t="n">
-        <v>1012.698035792437</v>
+        <v>-145.0124958743836</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'FormalEducation': '1', 'Gender': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>10019</v>
+        <v>11034</v>
       </c>
       <c r="C72" t="n">
-        <v>7307.246263408175</v>
+        <v>7726.053737005758</v>
       </c>
       <c r="D72" t="n">
-        <v>593.8905621948534</v>
+        <v>1012.698035792437</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'FormalEducation': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>10704</v>
+        <v>10019</v>
       </c>
       <c r="C73" t="n">
-        <v>587.1978129865015</v>
+        <v>7307.246263408175</v>
       </c>
       <c r="D73" t="n">
-        <v>-6126.15788822682</v>
+        <v>593.8905621948534</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'GINI': '2'}</t>
+          <t>{'FormalEducation': '1', 'UndergradMajor': '2', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>10139</v>
+        <v>10704</v>
       </c>
       <c r="C74" t="n">
-        <v>4341.598080788931</v>
+        <v>587.1978129865015</v>
       </c>
       <c r="D74" t="n">
-        <v>-2371.757620424391</v>
+        <v>-6126.15788822682</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'GDP': '1'}</t>
+          <t>{'GINI': '2', 'FormalEducation': '1', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>15752</v>
+        <v>10139</v>
       </c>
       <c r="C75" t="n">
-        <v>3295.830519890884</v>
+        <v>4341.598080788931</v>
       </c>
       <c r="D75" t="n">
-        <v>-3417.525181322438</v>
+        <v>-2371.757620424391</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>14972</v>
+        <v>15752</v>
       </c>
       <c r="C76" t="n">
-        <v>2291.155932144135</v>
+        <v>3295.830519890884</v>
       </c>
       <c r="D76" t="n">
-        <v>-4422.199769069186</v>
+        <v>-3417.525181322438</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>13543</v>
+        <v>14972</v>
       </c>
       <c r="C77" t="n">
-        <v>4271.359150869486</v>
+        <v>2291.155932144135</v>
       </c>
       <c r="D77" t="n">
-        <v>-2441.996550343835</v>
+        <v>-4422.199769069186</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Student': '1'}</t>
+          <t>{'GDP': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>13181</v>
+        <v>13543</v>
       </c>
       <c r="C78" t="n">
-        <v>3818.674868508243</v>
+        <v>4271.359150869486</v>
       </c>
       <c r="D78" t="n">
-        <v>-2894.680832705079</v>
+        <v>-2441.996550343835</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>12990</v>
+        <v>13181</v>
       </c>
       <c r="C79" t="n">
-        <v>3334.394391013402</v>
+        <v>3818.674868508243</v>
       </c>
       <c r="D79" t="n">
-        <v>-3378.96131019992</v>
+        <v>-2894.680832705079</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>11252</v>
+        <v>12990</v>
       </c>
       <c r="C80" t="n">
-        <v>3548.681348261595</v>
+        <v>3334.394391013402</v>
       </c>
       <c r="D80" t="n">
-        <v>-3164.674352951727</v>
+        <v>-3378.96131019992</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10304</v>
+        <v>11252</v>
       </c>
       <c r="C81" t="n">
-        <v>1398.159101211331</v>
+        <v>3548.681348261595</v>
       </c>
       <c r="D81" t="n">
-        <v>-5315.19660000199</v>
+        <v>-3164.674352951727</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>14972</v>
+        <v>10304</v>
       </c>
       <c r="C82" t="n">
-        <v>2291.155932144135</v>
+        <v>1398.159101211331</v>
       </c>
       <c r="D82" t="n">
-        <v>-4422.199769069186</v>
+        <v>-5315.19660000199</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>13543</v>
+        <v>14972</v>
       </c>
       <c r="C83" t="n">
-        <v>4271.359150869486</v>
+        <v>2291.155932144135</v>
       </c>
       <c r="D83" t="n">
-        <v>-2441.996550343835</v>
+        <v>-4422.199769069186</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>12923</v>
+        <v>13543</v>
       </c>
       <c r="C84" t="n">
-        <v>3558.80054499852</v>
+        <v>4271.359150869486</v>
       </c>
       <c r="D84" t="n">
-        <v>-3154.555156214802</v>
+        <v>-2441.996550343835</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1878,103 +1878,103 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>13181</v>
+        <v>12923</v>
       </c>
       <c r="C86" t="n">
-        <v>3818.674868508243</v>
+        <v>3558.80054499852</v>
       </c>
       <c r="D86" t="n">
-        <v>-2894.680832705079</v>
+        <v>-3154.555156214802</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'Student': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>12535</v>
+        <v>13181</v>
       </c>
       <c r="C87" t="n">
-        <v>3173.246927464169</v>
+        <v>3818.674868508243</v>
       </c>
       <c r="D87" t="n">
-        <v>-3540.108773749152</v>
+        <v>-2894.680832705079</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'GDP': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>11420</v>
+        <v>12535</v>
       </c>
       <c r="C88" t="n">
-        <v>5179.20310827674</v>
+        <v>3173.246927464169</v>
       </c>
       <c r="D88" t="n">
-        <v>-1534.152592936582</v>
+        <v>-3540.108773749152</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>12535</v>
+        <v>11420</v>
       </c>
       <c r="C89" t="n">
-        <v>3173.246927464169</v>
+        <v>5179.20310827674</v>
       </c>
       <c r="D89" t="n">
-        <v>-3540.108773749152</v>
+        <v>-1534.152592936582</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>11420</v>
+        <v>12535</v>
       </c>
       <c r="C90" t="n">
-        <v>5179.20310827674</v>
+        <v>3173.246927464169</v>
       </c>
       <c r="D90" t="n">
-        <v>-1534.152592936582</v>
+        <v>-3540.108773749152</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'GDP': '1', 'Student': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>10895</v>
+        <v>11420</v>
       </c>
       <c r="C91" t="n">
-        <v>4924.720261095068</v>
+        <v>5179.20310827674</v>
       </c>
       <c r="D91" t="n">
-        <v>-1788.635440118253</v>
+        <v>-1534.152592936582</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1990,119 +1990,119 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>12990</v>
+        <v>10895</v>
       </c>
       <c r="C93" t="n">
-        <v>3334.394391013402</v>
+        <v>4924.720261095068</v>
       </c>
       <c r="D93" t="n">
-        <v>-3378.96131019992</v>
+        <v>-1788.635440118253</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>12461</v>
+        <v>12990</v>
       </c>
       <c r="C94" t="n">
-        <v>2901.674533602559</v>
+        <v>3334.394391013402</v>
       </c>
       <c r="D94" t="n">
-        <v>-3811.681167610762</v>
+        <v>-3378.96131019992</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>11245</v>
+        <v>12461</v>
       </c>
       <c r="C95" t="n">
-        <v>3674.746807792224</v>
+        <v>2901.674533602559</v>
       </c>
       <c r="D95" t="n">
-        <v>-3038.608893421097</v>
+        <v>-3811.681167610762</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>10760</v>
+        <v>11245</v>
       </c>
       <c r="C96" t="n">
-        <v>4182.46300213111</v>
+        <v>3674.746807792224</v>
       </c>
       <c r="D96" t="n">
-        <v>-2530.892699082212</v>
+        <v>-3038.608893421097</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>12461</v>
+        <v>10760</v>
       </c>
       <c r="C97" t="n">
-        <v>2901.674533602559</v>
+        <v>4182.46300213111</v>
       </c>
       <c r="D97" t="n">
-        <v>-3811.681167610762</v>
+        <v>-2530.892699082212</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>11245</v>
+        <v>12461</v>
       </c>
       <c r="C98" t="n">
-        <v>3674.746807792224</v>
+        <v>2901.674533602559</v>
       </c>
       <c r="D98" t="n">
-        <v>-3038.608893421097</v>
+        <v>-3811.681167610762</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>10822</v>
+        <v>11245</v>
       </c>
       <c r="C99" t="n">
-        <v>3723.145410233127</v>
+        <v>3674.746807792224</v>
       </c>
       <c r="D99" t="n">
-        <v>-2990.210290980194</v>
+        <v>-3038.608893421097</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2118,39 +2118,39 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'GDP': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>10760</v>
+        <v>10822</v>
       </c>
       <c r="C101" t="n">
-        <v>4182.46300213111</v>
+        <v>3723.145410233127</v>
       </c>
       <c r="D101" t="n">
-        <v>-2530.892699082212</v>
+        <v>-2990.210290980194</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>10323</v>
+        <v>10760</v>
       </c>
       <c r="C102" t="n">
-        <v>4219.642681064523</v>
+        <v>4182.46300213111</v>
       </c>
       <c r="D102" t="n">
-        <v>-2493.713020148798</v>
+        <v>-2530.892699082212</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2166,39 +2166,39 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'Student': '1', 'GDP': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>11252</v>
+        <v>10323</v>
       </c>
       <c r="C104" t="n">
-        <v>3548.681348261595</v>
+        <v>4219.642681064523</v>
       </c>
       <c r="D104" t="n">
-        <v>-3164.674352951727</v>
+        <v>-2493.713020148798</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>10622</v>
+        <v>11252</v>
       </c>
       <c r="C105" t="n">
-        <v>2200.405104562714</v>
+        <v>3548.681348261595</v>
       </c>
       <c r="D105" t="n">
-        <v>-4512.950596650608</v>
+        <v>-3164.674352951727</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2214,71 +2214,71 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10304</v>
+        <v>10622</v>
       </c>
       <c r="C107" t="n">
-        <v>1398.159101211331</v>
+        <v>2200.405104562714</v>
       </c>
       <c r="D107" t="n">
-        <v>-5315.19660000199</v>
+        <v>-4512.950596650608</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Continent': '1'}</t>
+          <t>{'GDP': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>14174</v>
+        <v>10304</v>
       </c>
       <c r="C108" t="n">
-        <v>1230.633024994443</v>
+        <v>1398.159101211331</v>
       </c>
       <c r="D108" t="n">
-        <v>-5482.722676218878</v>
+        <v>-5315.19660000199</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>13337</v>
+        <v>14174</v>
       </c>
       <c r="C109" t="n">
-        <v>3292.028787749212</v>
+        <v>1230.633024994443</v>
       </c>
       <c r="D109" t="n">
-        <v>-3421.32691346411</v>
+        <v>-5482.722676218878</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Continent': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>12414</v>
+        <v>13337</v>
       </c>
       <c r="C110" t="n">
-        <v>2025.048858279017</v>
+        <v>3292.028787749212</v>
       </c>
       <c r="D110" t="n">
-        <v>-4688.306842934304</v>
+        <v>-3421.32691346411</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Continent': '1'}</t>
+          <t>{'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2294,215 +2294,215 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Continent': '1'}</t>
+          <t>{'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>12270</v>
+        <v>12414</v>
       </c>
       <c r="C112" t="n">
-        <v>3302.750893854428</v>
+        <v>2025.048858279017</v>
       </c>
       <c r="D112" t="n">
-        <v>-3410.604807358894</v>
+        <v>-4688.306842934304</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Continent': '1'}</t>
+          <t>{'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>12176</v>
+        <v>12270</v>
       </c>
       <c r="C113" t="n">
-        <v>2273.1327139246</v>
+        <v>3302.750893854428</v>
       </c>
       <c r="D113" t="n">
-        <v>-4440.222987288721</v>
+        <v>-3410.604807358894</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Continent': '1'}</t>
+          <t>{'Continent': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>10829</v>
+        <v>12176</v>
       </c>
       <c r="C114" t="n">
-        <v>1536.250640999153</v>
+        <v>2273.1327139246</v>
       </c>
       <c r="D114" t="n">
-        <v>-5177.105060214169</v>
+        <v>-4440.222987288721</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Continent': '1'}</t>
+          <t>{'Dependents': '2', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>12751</v>
+        <v>10829</v>
       </c>
       <c r="C115" t="n">
-        <v>2580.216580747708</v>
+        <v>1536.250640999153</v>
       </c>
       <c r="D115" t="n">
-        <v>-4133.139120465614</v>
+        <v>-5177.105060214169</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>11850</v>
+        <v>12751</v>
       </c>
       <c r="C116" t="n">
-        <v>939.8379505216415</v>
+        <v>2580.216580747708</v>
       </c>
       <c r="D116" t="n">
-        <v>-5773.51775069168</v>
+        <v>-4133.139120465614</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'GDP': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>11026</v>
+        <v>11850</v>
       </c>
       <c r="C117" t="n">
-        <v>3361.020374478494</v>
+        <v>939.8379505216415</v>
       </c>
       <c r="D117" t="n">
-        <v>-3352.335326734828</v>
+        <v>-5773.51775069168</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'GDP': '1', 'Continent': '1'}</t>
+          <t>{'GDP': '1', 'RaceEthnicity': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>10556</v>
+        <v>11026</v>
       </c>
       <c r="C118" t="n">
-        <v>2491.733392297801</v>
+        <v>3361.020374478494</v>
       </c>
       <c r="D118" t="n">
-        <v>-4221.622308915521</v>
+        <v>-3352.335326734828</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Continent': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'RaceEthnicity': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>12414</v>
+        <v>10556</v>
       </c>
       <c r="C119" t="n">
-        <v>2025.048858279017</v>
+        <v>2491.733392297801</v>
       </c>
       <c r="D119" t="n">
-        <v>-4688.306842934304</v>
+        <v>-4221.622308915521</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Continent': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>11850</v>
+        <v>12414</v>
       </c>
       <c r="C120" t="n">
-        <v>939.8379505216415</v>
+        <v>2025.048858279017</v>
       </c>
       <c r="D120" t="n">
-        <v>-5773.51775069168</v>
+        <v>-4688.306842934304</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>11026</v>
+        <v>11850</v>
       </c>
       <c r="C121" t="n">
-        <v>3361.020374478494</v>
+        <v>939.8379505216415</v>
       </c>
       <c r="D121" t="n">
-        <v>-3352.335326734828</v>
+        <v>-5773.51775069168</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Continent': '1', 'GDP': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11850</v>
+        <v>11026</v>
       </c>
       <c r="C122" t="n">
-        <v>939.8379505216415</v>
+        <v>3361.020374478494</v>
       </c>
       <c r="D122" t="n">
-        <v>-5773.51775069168</v>
+        <v>-3352.335326734828</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Continent': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>11026</v>
+        <v>11850</v>
       </c>
       <c r="C123" t="n">
-        <v>3361.020374478494</v>
+        <v>939.8379505216415</v>
       </c>
       <c r="D123" t="n">
-        <v>-3352.335326734828</v>
+        <v>-5773.51775069168</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Continent': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'RaceEthnicity': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>10556</v>
+        <v>11026</v>
       </c>
       <c r="C124" t="n">
-        <v>2491.733392297801</v>
+        <v>3361.020374478494</v>
       </c>
       <c r="D124" t="n">
-        <v>-4221.622308915521</v>
+        <v>-3352.335326734828</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Continent': '1', 'RaceEthnicity': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'RaceEthnicity': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2518,55 +2518,55 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'Continent': '1'}</t>
+          <t>{'HDI': '1', 'Continent': '1', 'Gender': '1', 'RaceEthnicity': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>11796</v>
+        <v>10556</v>
       </c>
       <c r="C126" t="n">
-        <v>2571.388807306062</v>
+        <v>2491.733392297801</v>
       </c>
       <c r="D126" t="n">
-        <v>-4141.96689390726</v>
+        <v>-4221.622308915521</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>11053</v>
+        <v>11796</v>
       </c>
       <c r="C127" t="n">
-        <v>4438.256643355662</v>
+        <v>2571.388807306062</v>
       </c>
       <c r="D127" t="n">
-        <v>-2275.099057857659</v>
+        <v>-4141.96689390726</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>{'Continent': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>10307</v>
+        <v>11053</v>
       </c>
       <c r="C128" t="n">
-        <v>3254.996070201035</v>
+        <v>4438.256643355662</v>
       </c>
       <c r="D128" t="n">
-        <v>-3458.359631012287</v>
+        <v>-2275.099057857659</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Continent': '1', 'GDP': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2582,87 +2582,87 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'Continent': '1'}</t>
+          <t>{'GDP': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>10654</v>
+        <v>10307</v>
       </c>
       <c r="C130" t="n">
-        <v>3809.891470605769</v>
+        <v>3254.996070201035</v>
       </c>
       <c r="D130" t="n">
-        <v>-2903.464230607553</v>
+        <v>-3458.359631012287</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>{'Continent': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>10307</v>
+        <v>10654</v>
       </c>
       <c r="C131" t="n">
-        <v>3254.996070201035</v>
+        <v>3809.891470605769</v>
       </c>
       <c r="D131" t="n">
-        <v>-3458.359631012287</v>
+        <v>-2903.464230607553</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Student': '1', 'Continent': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>11621</v>
+        <v>10307</v>
       </c>
       <c r="C132" t="n">
-        <v>1413.463302990777</v>
+        <v>3254.996070201035</v>
       </c>
       <c r="D132" t="n">
-        <v>-5299.892398222545</v>
+        <v>-3458.359631012287</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Student': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'Continent': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>10995</v>
+        <v>11621</v>
       </c>
       <c r="C133" t="n">
-        <v>3564.696745010334</v>
+        <v>1413.463302990777</v>
       </c>
       <c r="D133" t="n">
-        <v>-3148.658956202988</v>
+        <v>-5299.892398222545</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1', 'Continent': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Continent': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>10285</v>
+        <v>10995</v>
       </c>
       <c r="C134" t="n">
-        <v>2712.665943486069</v>
+        <v>3564.696745010334</v>
       </c>
       <c r="D134" t="n">
-        <v>-4000.689757727253</v>
+        <v>-3148.658956202988</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Student': '1', 'Continent': '1'}</t>
+          <t>{'HDI': '1', 'Continent': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2678,87 +2678,87 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'Continent': '1'}</t>
+          <t>{'GDP': '1', 'Continent': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>10513</v>
+        <v>10285</v>
       </c>
       <c r="C136" t="n">
-        <v>2968.382268362951</v>
+        <v>2712.665943486069</v>
       </c>
       <c r="D136" t="n">
-        <v>-3744.973432850371</v>
+        <v>-4000.689757727253</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1', 'Continent': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Continent': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>10285</v>
+        <v>10513</v>
       </c>
       <c r="C137" t="n">
-        <v>2712.665943486069</v>
+        <v>2968.382268362951</v>
       </c>
       <c r="D137" t="n">
-        <v>-4000.689757727253</v>
+        <v>-3744.973432850371</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Continent': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Continent': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>10272</v>
+        <v>10285</v>
       </c>
       <c r="C138" t="n">
-        <v>167.6735827370063</v>
+        <v>2712.665943486069</v>
       </c>
       <c r="D138" t="n">
-        <v>-6545.682118476315</v>
+        <v>-4000.689757727253</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>12698</v>
+        <v>10272</v>
       </c>
       <c r="C139" t="n">
-        <v>51952.46265055831</v>
+        <v>167.6735827370063</v>
       </c>
       <c r="D139" t="n">
-        <v>45239.10694934498</v>
+        <v>-6545.682118476315</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1'}</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>12493</v>
+        <v>12698</v>
       </c>
       <c r="C140" t="n">
-        <v>2401.742957735809</v>
+        <v>51952.46265055831</v>
       </c>
       <c r="D140" t="n">
-        <v>-4311.612743477512</v>
+        <v>45239.10694934498</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'GINI': '1'}</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2774,119 +2774,119 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'GINI': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>11541</v>
+        <v>12493</v>
       </c>
       <c r="C142" t="n">
-        <v>-14976.95903229892</v>
+        <v>2401.742957735809</v>
       </c>
       <c r="D142" t="n">
-        <v>-21690.31473351224</v>
+        <v>-4311.612743477512</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Student': '1'}</t>
+          <t>{'GINI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>11181</v>
+        <v>11541</v>
       </c>
       <c r="C143" t="n">
-        <v>19252.922990233</v>
+        <v>-14976.95903229892</v>
       </c>
       <c r="D143" t="n">
-        <v>12539.56728901968</v>
+        <v>-21690.31473351224</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Hobby': '1'}</t>
+          <t>{'GINI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>10971</v>
+        <v>11181</v>
       </c>
       <c r="C144" t="n">
-        <v>-2143.148876537512</v>
+        <v>19252.922990233</v>
       </c>
       <c r="D144" t="n">
-        <v>-8856.504577750833</v>
+        <v>12539.56728901968</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Continent': '1'}</t>
+          <t>{'GINI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>10458</v>
+        <v>10971</v>
       </c>
       <c r="C145" t="n">
-        <v>-663.118766309188</v>
+        <v>-2143.148876537512</v>
       </c>
       <c r="D145" t="n">
-        <v>-7376.474467522509</v>
+        <v>-8856.504577750833</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'GDP': '1'}</t>
+          <t>{'GINI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>11846</v>
+        <v>10458</v>
       </c>
       <c r="C146" t="n">
-        <v>1062.159152704848</v>
+        <v>-663.118766309188</v>
       </c>
       <c r="D146" t="n">
-        <v>-5651.196548508473</v>
+        <v>-7376.474467522509</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>12493</v>
+        <v>11846</v>
       </c>
       <c r="C147" t="n">
-        <v>2401.742957735809</v>
+        <v>1062.159152704848</v>
       </c>
       <c r="D147" t="n">
-        <v>-4311.612743477512</v>
+        <v>-5651.196548508473</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'GINI': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>11846</v>
+        <v>12493</v>
       </c>
       <c r="C148" t="n">
-        <v>1062.159152704848</v>
+        <v>2401.742957735809</v>
       </c>
       <c r="D148" t="n">
-        <v>-5651.196548508473</v>
+        <v>-4311.612743477512</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2902,55 +2902,55 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>10707</v>
+        <v>11846</v>
       </c>
       <c r="C150" t="n">
-        <v>3177.485521743298</v>
+        <v>1062.159152704848</v>
       </c>
       <c r="D150" t="n">
-        <v>-3535.870179470024</v>
+        <v>-5651.196548508473</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'RaceEthnicity': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>10707</v>
+        <v>10997</v>
       </c>
       <c r="C151" t="n">
-        <v>3177.485521743298</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>-3535.870179470024</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'GINI': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>10191</v>
+        <v>10707</v>
       </c>
       <c r="C152" t="n">
-        <v>2073.25752677342</v>
+        <v>3177.485521743298</v>
       </c>
       <c r="D152" t="n">
-        <v>-4640.098174439901</v>
+        <v>-3535.870179470024</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'RaceEthnicity': '1', 'GDP': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'GINI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2966,7 +2966,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2982,71 +2982,71 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'GINI': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>10191</v>
+        <v>10707</v>
       </c>
       <c r="C155" t="n">
-        <v>2073.25752677342</v>
+        <v>3177.485521743298</v>
       </c>
       <c r="D155" t="n">
-        <v>-4640.098174439901</v>
+        <v>-3535.870179470024</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'Student': '1'}</t>
+          <t>{'GDP': '1', 'GINI': '1', 'Gender': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>10619</v>
+        <v>10191</v>
       </c>
       <c r="C156" t="n">
-        <v>7174.621267101612</v>
+        <v>2073.25752677342</v>
       </c>
       <c r="D156" t="n">
-        <v>461.2655658882904</v>
+        <v>-4640.098174439901</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'GINI': '1', 'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>10524</v>
+        <v>10191</v>
       </c>
       <c r="C157" t="n">
-        <v>3354.048633551495</v>
+        <v>2073.25752677342</v>
       </c>
       <c r="D157" t="n">
-        <v>-3359.307067661826</v>
+        <v>-4640.098174439901</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'GDP': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>10524</v>
+        <v>10619</v>
       </c>
       <c r="C158" t="n">
-        <v>3354.048633551495</v>
+        <v>7174.621267101612</v>
       </c>
       <c r="D158" t="n">
-        <v>-3359.307067661826</v>
+        <v>461.2655658882904</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
+          <t>{'GINI': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -3062,55 +3062,55 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'Hobby': '1'}</t>
+          <t>{'GDP': '1', 'GINI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>10505</v>
+        <v>10524</v>
       </c>
       <c r="C160" t="n">
-        <v>-346.9948553294034</v>
+        <v>3354.048633551495</v>
       </c>
       <c r="D160" t="n">
-        <v>-7060.350556542725</v>
+        <v>-3359.307067661826</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'GINI': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>10217</v>
+        <v>10524</v>
       </c>
       <c r="C161" t="n">
-        <v>2622.769506859957</v>
+        <v>3354.048633551495</v>
       </c>
       <c r="D161" t="n">
-        <v>-4090.586194353365</v>
+        <v>-3359.307067661826</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Hobby': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>10217</v>
+        <v>10505</v>
       </c>
       <c r="C162" t="n">
-        <v>2622.769506859957</v>
+        <v>-346.9948553294034</v>
       </c>
       <c r="D162" t="n">
-        <v>-4090.586194353365</v>
+        <v>-7060.350556542725</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'GINI': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -3126,2759 +3126,2759 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '1'}</t>
+          <t>{'GDP': '1', 'GINI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10685</v>
+        <v>10217</v>
       </c>
       <c r="C164" t="n">
-        <v>4437.272134021358</v>
+        <v>2622.769506859957</v>
       </c>
       <c r="D164" t="n">
-        <v>-2276.083567191963</v>
+        <v>-4090.586194353365</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Dependents': '1'}</t>
+          <t>{'GDP': '1', 'GINI': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>10062</v>
+        <v>10217</v>
       </c>
       <c r="C165" t="n">
-        <v>5588.172321573164</v>
+        <v>2622.769506859957</v>
       </c>
       <c r="D165" t="n">
-        <v>-1125.183379640157</v>
+        <v>-4090.586194353365</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '1'}</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>10028</v>
+        <v>10685</v>
       </c>
       <c r="C166" t="n">
-        <v>4955.436926446409</v>
+        <v>4437.272134021358</v>
       </c>
       <c r="D166" t="n">
-        <v>-1757.918774766912</v>
+        <v>-2276.083567191963</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>22568</v>
+        <v>10062</v>
       </c>
       <c r="C167" t="n">
-        <v>6660.009269424866</v>
+        <v>5588.172321573164</v>
       </c>
       <c r="D167" t="n">
-        <v>-53.34643178845545</v>
+        <v>-1125.183379640157</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '1'}</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>19952</v>
+        <v>10028</v>
       </c>
       <c r="C168" t="n">
-        <v>5741.315462563783</v>
+        <v>4955.436926446409</v>
       </c>
       <c r="D168" t="n">
-        <v>-972.0402386495389</v>
+        <v>-1757.918774766912</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>19464</v>
+        <v>22568</v>
       </c>
       <c r="C169" t="n">
-        <v>5774.123848787556</v>
+        <v>6660.009269424866</v>
       </c>
       <c r="D169" t="n">
-        <v>-939.2318524257653</v>
+        <v>-53.34643178845545</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>18755</v>
+        <v>19952</v>
       </c>
       <c r="C170" t="n">
-        <v>8440.872413111409</v>
+        <v>5741.315462563783</v>
       </c>
       <c r="D170" t="n">
-        <v>1727.516711898087</v>
+        <v>-972.0402386495389</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>18715</v>
+        <v>19464</v>
       </c>
       <c r="C171" t="n">
-        <v>5443.202083884486</v>
+        <v>5774.123848787556</v>
       </c>
       <c r="D171" t="n">
-        <v>-1270.153617328835</v>
+        <v>-939.2318524257653</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1'}</t>
+          <t>{'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>18868</v>
+        <v>18755</v>
       </c>
       <c r="C172" t="n">
-        <v>5634.634999361796</v>
+        <v>8440.872413111409</v>
       </c>
       <c r="D172" t="n">
-        <v>-1078.720701851526</v>
+        <v>1727.516711898087</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>18145</v>
+        <v>18715</v>
       </c>
       <c r="C173" t="n">
-        <v>5331.204181537214</v>
+        <v>5443.202083884486</v>
       </c>
       <c r="D173" t="n">
-        <v>-1382.151519676107</v>
+        <v>-1270.153617328835</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>15886</v>
+        <v>18868</v>
       </c>
       <c r="C174" t="n">
-        <v>3923.495586716469</v>
+        <v>5634.634999361796</v>
       </c>
       <c r="D174" t="n">
-        <v>-2789.860114496852</v>
+        <v>-1078.720701851526</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>15007</v>
+        <v>18145</v>
       </c>
       <c r="C175" t="n">
-        <v>4003.268385218564</v>
+        <v>5331.204181537214</v>
       </c>
       <c r="D175" t="n">
-        <v>-2710.087315994757</v>
+        <v>-1382.151519676107</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>17456</v>
+        <v>15886</v>
       </c>
       <c r="C176" t="n">
-        <v>7663.615191867112</v>
+        <v>3923.495586716469</v>
       </c>
       <c r="D176" t="n">
-        <v>950.2594906537906</v>
+        <v>-2789.860114496852</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>15601</v>
+        <v>15007</v>
       </c>
       <c r="C177" t="n">
-        <v>6881.083296062101</v>
+        <v>4003.268385218564</v>
       </c>
       <c r="D177" t="n">
-        <v>167.7275948487795</v>
+        <v>-2710.087315994757</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>15574</v>
+        <v>17456</v>
       </c>
       <c r="C178" t="n">
-        <v>7178.223410287983</v>
+        <v>7663.615191867112</v>
       </c>
       <c r="D178" t="n">
-        <v>464.8677090746614</v>
+        <v>950.2594906537906</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>14503</v>
+        <v>15601</v>
       </c>
       <c r="C179" t="n">
-        <v>6113.752999060658</v>
+        <v>6881.083296062101</v>
       </c>
       <c r="D179" t="n">
-        <v>-599.6027021526634</v>
+        <v>167.7275948487795</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>14713</v>
+        <v>15574</v>
       </c>
       <c r="C180" t="n">
-        <v>6795.263248758026</v>
+        <v>7178.223410287983</v>
       </c>
       <c r="D180" t="n">
-        <v>81.90754754470436</v>
+        <v>464.8677090746614</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>12812</v>
+        <v>14503</v>
       </c>
       <c r="C181" t="n">
-        <v>5256.635622114268</v>
+        <v>6113.752999060658</v>
       </c>
       <c r="D181" t="n">
-        <v>-1456.720079099054</v>
+        <v>-599.6027021526634</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>12090</v>
+        <v>14713</v>
       </c>
       <c r="C182" t="n">
-        <v>5166.412482998766</v>
+        <v>6795.263248758026</v>
       </c>
       <c r="D182" t="n">
-        <v>-1546.943218214556</v>
+        <v>81.90754754470436</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
+          <t>{'Student': '1', 'HDI': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>17563</v>
+        <v>12812</v>
       </c>
       <c r="C183" t="n">
-        <v>5093.2900472175</v>
+        <v>5256.635622114268</v>
       </c>
       <c r="D183" t="n">
-        <v>-1620.065653995822</v>
+        <v>-1456.720079099054</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>15673</v>
+        <v>12090</v>
       </c>
       <c r="C184" t="n">
-        <v>6373.699265659056</v>
+        <v>5166.412482998766</v>
       </c>
       <c r="D184" t="n">
-        <v>-339.656435554266</v>
+        <v>-1546.943218214556</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>15532</v>
+        <v>17563</v>
       </c>
       <c r="C185" t="n">
-        <v>4235.626288481227</v>
+        <v>5093.2900472175</v>
       </c>
       <c r="D185" t="n">
-        <v>-2477.729412732095</v>
+        <v>-1620.065653995822</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>15301</v>
+        <v>15673</v>
       </c>
       <c r="C186" t="n">
-        <v>3964.682726108012</v>
+        <v>6373.699265659056</v>
       </c>
       <c r="D186" t="n">
-        <v>-2748.67297510531</v>
+        <v>-339.656435554266</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>14691</v>
+        <v>15532</v>
       </c>
       <c r="C187" t="n">
-        <v>5840.821070632547</v>
+        <v>4235.626288481227</v>
       </c>
       <c r="D187" t="n">
-        <v>-872.5346305807743</v>
+        <v>-2477.729412732095</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>14766</v>
+        <v>15301</v>
       </c>
       <c r="C188" t="n">
-        <v>4014.43045013909</v>
+        <v>3964.682726108012</v>
       </c>
       <c r="D188" t="n">
-        <v>-2698.925251074231</v>
+        <v>-2748.67297510531</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>13081</v>
+        <v>14691</v>
       </c>
       <c r="C189" t="n">
-        <v>5176.478412017457</v>
+        <v>5840.821070632547</v>
       </c>
       <c r="D189" t="n">
-        <v>-1536.877289195864</v>
+        <v>-872.5346305807743</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>12432</v>
+        <v>14766</v>
       </c>
       <c r="C190" t="n">
-        <v>4770.770380485729</v>
+        <v>4014.43045013909</v>
       </c>
       <c r="D190" t="n">
-        <v>-1942.585320727592</v>
+        <v>-2698.925251074231</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>14334</v>
+        <v>13081</v>
       </c>
       <c r="C191" t="n">
-        <v>4101.966529871975</v>
+        <v>5176.478412017457</v>
       </c>
       <c r="D191" t="n">
-        <v>-2611.389171341347</v>
+        <v>-1536.877289195864</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'Dependents': '2'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>13157</v>
+        <v>12432</v>
       </c>
       <c r="C192" t="n">
-        <v>4802.44220159377</v>
+        <v>4770.770380485729</v>
       </c>
       <c r="D192" t="n">
-        <v>-1910.913499619552</v>
+        <v>-1942.585320727592</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>12550</v>
+        <v>14334</v>
       </c>
       <c r="C193" t="n">
-        <v>2998.633776348373</v>
+        <v>4101.966529871975</v>
       </c>
       <c r="D193" t="n">
-        <v>-3714.721924864949</v>
+        <v>-2611.389171341347</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'Dependents': '2'}</t>
+          <t>{'Student': '1', 'HDI': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>12315</v>
+        <v>13157</v>
       </c>
       <c r="C194" t="n">
-        <v>4855.967853003912</v>
+        <v>4802.44220159377</v>
       </c>
       <c r="D194" t="n">
-        <v>-1857.38784820941</v>
+        <v>-1910.913499619552</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>11922</v>
+        <v>12550</v>
       </c>
       <c r="C195" t="n">
-        <v>3119.841713619107</v>
+        <v>2998.633776348373</v>
       </c>
       <c r="D195" t="n">
-        <v>-3593.513987594215</v>
+        <v>-3714.721924864949</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>10859</v>
+        <v>12315</v>
       </c>
       <c r="C196" t="n">
-        <v>4235.858197808889</v>
+        <v>4855.967853003912</v>
       </c>
       <c r="D196" t="n">
-        <v>-2477.497503404433</v>
+        <v>-1857.38784820941</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>10312</v>
+        <v>11922</v>
       </c>
       <c r="C197" t="n">
-        <v>4279.798279661542</v>
+        <v>3119.841713619107</v>
       </c>
       <c r="D197" t="n">
-        <v>-2433.557421551779</v>
+        <v>-3593.513987594215</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1', 'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>21070</v>
+        <v>10859</v>
       </c>
       <c r="C198" t="n">
-        <v>2140.616974317039</v>
+        <v>4235.858197808889</v>
       </c>
       <c r="D198" t="n">
-        <v>-4572.738726896283</v>
+        <v>-2477.497503404433</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>18239</v>
+        <v>10312</v>
       </c>
       <c r="C199" t="n">
-        <v>2972.364938069738</v>
+        <v>4279.798279661542</v>
       </c>
       <c r="D199" t="n">
-        <v>-3740.990763143584</v>
+        <v>-2433.557421551779</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>18192</v>
+        <v>21070</v>
       </c>
       <c r="C200" t="n">
-        <v>2404.812213119229</v>
+        <v>2140.616974317039</v>
       </c>
       <c r="D200" t="n">
-        <v>-4308.543488094092</v>
+        <v>-4572.738726896283</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>17185</v>
+        <v>18239</v>
       </c>
       <c r="C201" t="n">
-        <v>3962.0157917935</v>
+        <v>2972.364938069738</v>
       </c>
       <c r="D201" t="n">
-        <v>-2751.339909419821</v>
+        <v>-3740.990763143584</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'RaceEthnicity': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>16908</v>
+        <v>18192</v>
       </c>
       <c r="C202" t="n">
-        <v>3943.333030186835</v>
+        <v>2404.812213119229</v>
       </c>
       <c r="D202" t="n">
-        <v>-2770.022671026486</v>
+        <v>-4308.543488094092</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>15506</v>
+        <v>17185</v>
       </c>
       <c r="C203" t="n">
-        <v>6360.879966712541</v>
+        <v>3962.0157917935</v>
       </c>
       <c r="D203" t="n">
-        <v>-352.4757345007802</v>
+        <v>-2751.339909419821</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'UndergradMajor': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>17486</v>
+        <v>16908</v>
       </c>
       <c r="C204" t="n">
-        <v>1946.722347701861</v>
+        <v>3943.333030186835</v>
       </c>
       <c r="D204" t="n">
-        <v>-4766.633353511461</v>
+        <v>-2770.022671026486</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>17295</v>
+        <v>15506</v>
       </c>
       <c r="C205" t="n">
-        <v>1412.889200370405</v>
+        <v>6360.879966712541</v>
       </c>
       <c r="D205" t="n">
-        <v>-5300.466500842917</v>
+        <v>-352.4757345007802</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>14794</v>
+        <v>17486</v>
       </c>
       <c r="C206" t="n">
-        <v>1647.105232287808</v>
+        <v>1946.722347701861</v>
       </c>
       <c r="D206" t="n">
-        <v>-5066.250468925514</v>
+        <v>-4766.633353511461</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>14190</v>
+        <v>17295</v>
       </c>
       <c r="C207" t="n">
-        <v>1290.8613408699</v>
+        <v>1412.889200370405</v>
       </c>
       <c r="D207" t="n">
-        <v>-5422.494360343422</v>
+        <v>-5300.466500842917</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>16344</v>
+        <v>14794</v>
       </c>
       <c r="C208" t="n">
-        <v>2289.159933879372</v>
+        <v>1647.105232287808</v>
       </c>
       <c r="D208" t="n">
-        <v>-4424.195767333949</v>
+        <v>-5066.250468925514</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>14536</v>
+        <v>14190</v>
       </c>
       <c r="C209" t="n">
-        <v>2594.579217815487</v>
+        <v>1290.8613408699</v>
       </c>
       <c r="D209" t="n">
-        <v>-4118.776483397834</v>
+        <v>-5422.494360343422</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>14171</v>
+        <v>16344</v>
       </c>
       <c r="C210" t="n">
-        <v>3210.732110532633</v>
+        <v>2289.159933879372</v>
       </c>
       <c r="D210" t="n">
-        <v>-3502.623590680688</v>
+        <v>-4424.195767333949</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>13836</v>
+        <v>14536</v>
       </c>
       <c r="C211" t="n">
-        <v>1532.295648282041</v>
+        <v>2594.579217815487</v>
       </c>
       <c r="D211" t="n">
-        <v>-5181.060052931281</v>
+        <v>-4118.776483397834</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>13610</v>
+        <v>14171</v>
       </c>
       <c r="C212" t="n">
-        <v>2100.299174126955</v>
+        <v>3210.732110532633</v>
       </c>
       <c r="D212" t="n">
-        <v>-4613.056527086366</v>
+        <v>-3502.623590680688</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>11862</v>
+        <v>13836</v>
       </c>
       <c r="C213" t="n">
-        <v>1793.827495472855</v>
+        <v>1532.295648282041</v>
       </c>
       <c r="D213" t="n">
-        <v>-4919.528205740467</v>
+        <v>-5181.060052931281</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Gender': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>11397</v>
+        <v>13610</v>
       </c>
       <c r="C214" t="n">
-        <v>1607.124123823324</v>
+        <v>2100.299174126955</v>
       </c>
       <c r="D214" t="n">
-        <v>-5106.231577389997</v>
+        <v>-4613.056527086366</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>16152</v>
+        <v>11862</v>
       </c>
       <c r="C215" t="n">
-        <v>3274.466712898681</v>
+        <v>1793.827495472855</v>
       </c>
       <c r="D215" t="n">
-        <v>-3438.88898831464</v>
+        <v>-4919.528205740467</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Gender': '1', 'Student': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>14309</v>
+        <v>11397</v>
       </c>
       <c r="C216" t="n">
-        <v>4247.402699733061</v>
+        <v>1607.124123823324</v>
       </c>
       <c r="D216" t="n">
-        <v>-2465.95300148026</v>
+        <v>-5106.231577389997</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Student': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>14089</v>
+        <v>16152</v>
       </c>
       <c r="C217" t="n">
-        <v>3383.595038829238</v>
+        <v>3274.466712898681</v>
       </c>
       <c r="D217" t="n">
-        <v>-3329.760662384083</v>
+        <v>-3438.88898831464</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>14027</v>
+        <v>14309</v>
       </c>
       <c r="C218" t="n">
-        <v>3445.74983815108</v>
+        <v>4247.402699733061</v>
       </c>
       <c r="D218" t="n">
-        <v>-3267.605863062242</v>
+        <v>-2465.95300148026</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'UndergradMajor': '2', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>13686</v>
+        <v>14089</v>
       </c>
       <c r="C219" t="n">
-        <v>3493.505714852993</v>
+        <v>3383.595038829238</v>
       </c>
       <c r="D219" t="n">
-        <v>-3219.849986360328</v>
+        <v>-3329.760662384083</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Student': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>13466</v>
+        <v>14027</v>
       </c>
       <c r="C220" t="n">
-        <v>3461.396678984217</v>
+        <v>3445.74983815108</v>
       </c>
       <c r="D220" t="n">
-        <v>-3251.959022229104</v>
+        <v>-3267.605863062242</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>12226</v>
+        <v>13686</v>
       </c>
       <c r="C221" t="n">
-        <v>3518.848100329573</v>
+        <v>3493.505714852993</v>
       </c>
       <c r="D221" t="n">
-        <v>-3194.507600883748</v>
+        <v>-3219.849986360328</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>11698</v>
+        <v>13466</v>
       </c>
       <c r="C222" t="n">
-        <v>3653.753047740825</v>
+        <v>3461.396678984217</v>
       </c>
       <c r="D222" t="n">
-        <v>-3059.602653472496</v>
+        <v>-3251.959022229104</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>13502</v>
+        <v>12226</v>
       </c>
       <c r="C223" t="n">
-        <v>2878.611264350014</v>
+        <v>3518.848100329573</v>
       </c>
       <c r="D223" t="n">
-        <v>-3834.744436863308</v>
+        <v>-3194.507600883748</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>11905</v>
+        <v>11698</v>
       </c>
       <c r="C224" t="n">
-        <v>3182.92964078851</v>
+        <v>3653.753047740825</v>
       </c>
       <c r="D224" t="n">
-        <v>-3530.426060424812</v>
+        <v>-3059.602653472496</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>11551</v>
+        <v>13502</v>
       </c>
       <c r="C225" t="n">
-        <v>3334.380225456031</v>
+        <v>2878.611264350014</v>
       </c>
       <c r="D225" t="n">
-        <v>-3378.975475757291</v>
+        <v>-3834.744436863308</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>11475</v>
+        <v>11905</v>
       </c>
       <c r="C226" t="n">
-        <v>2536.815334333516</v>
+        <v>3182.92964078851</v>
       </c>
       <c r="D226" t="n">
-        <v>-4176.540366879806</v>
+        <v>-3530.426060424812</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1', 'Student': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>11129</v>
+        <v>11551</v>
       </c>
       <c r="C227" t="n">
-        <v>3462.628635934517</v>
+        <v>3334.380225456031</v>
       </c>
       <c r="D227" t="n">
-        <v>-3250.727065278805</v>
+        <v>-3378.975475757291</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>10060</v>
+        <v>11475</v>
       </c>
       <c r="C228" t="n">
-        <v>3090.209237181427</v>
+        <v>2536.815334333516</v>
       </c>
       <c r="D228" t="n">
-        <v>-3623.146464031894</v>
+        <v>-4176.540366879806</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>14637</v>
+        <v>11129</v>
       </c>
       <c r="C229" t="n">
-        <v>4976.972919439485</v>
+        <v>3462.628635934517</v>
       </c>
       <c r="D229" t="n">
-        <v>-1736.382781773837</v>
+        <v>-3250.727065278805</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'RaceEthnicity': '1', 'Student': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>12850</v>
+        <v>10060</v>
       </c>
       <c r="C230" t="n">
-        <v>5395.556948987812</v>
+        <v>3090.209237181427</v>
       </c>
       <c r="D230" t="n">
-        <v>-1317.79875222551</v>
+        <v>-3623.146464031894</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>12246</v>
+        <v>14637</v>
       </c>
       <c r="C231" t="n">
-        <v>5806.039781572334</v>
+        <v>4976.972919439485</v>
       </c>
       <c r="D231" t="n">
-        <v>-907.3159196409879</v>
+        <v>-1736.382781773837</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>11973</v>
+        <v>12850</v>
       </c>
       <c r="C232" t="n">
-        <v>7303.073193089516</v>
+        <v>5395.556948987812</v>
       </c>
       <c r="D232" t="n">
-        <v>589.7174918761948</v>
+        <v>-1317.79875222551</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>11847</v>
+        <v>12246</v>
       </c>
       <c r="C233" t="n">
-        <v>6084.419716786843</v>
+        <v>5806.039781572334</v>
       </c>
       <c r="D233" t="n">
-        <v>-628.9359844264782</v>
+        <v>-907.3159196409879</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>12264</v>
+        <v>11973</v>
       </c>
       <c r="C234" t="n">
-        <v>4582.822615720833</v>
+        <v>7303.073193089516</v>
       </c>
       <c r="D234" t="n">
-        <v>-2130.533085492489</v>
+        <v>589.7174918761948</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>11544</v>
+        <v>11847</v>
       </c>
       <c r="C235" t="n">
-        <v>4812.718011538638</v>
+        <v>6084.419716786843</v>
       </c>
       <c r="D235" t="n">
-        <v>-1900.637689674683</v>
+        <v>-628.9359844264782</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>10008</v>
+        <v>12264</v>
       </c>
       <c r="C236" t="n">
-        <v>4255.020991835941</v>
+        <v>4582.822615720833</v>
       </c>
       <c r="D236" t="n">
-        <v>-2458.334709377381</v>
+        <v>-2130.533085492489</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>11298</v>
+        <v>11544</v>
       </c>
       <c r="C237" t="n">
-        <v>5382.075242543939</v>
+        <v>4812.718011538638</v>
       </c>
       <c r="D237" t="n">
-        <v>-1331.280458669383</v>
+        <v>-1900.637689674683</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
+          <t>{'Student': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>11243</v>
+        <v>10008</v>
       </c>
       <c r="C238" t="n">
-        <v>4929.198596616427</v>
+        <v>4255.020991835941</v>
       </c>
       <c r="D238" t="n">
-        <v>-1784.157104596894</v>
+        <v>-2458.334709377381</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>18591</v>
+        <v>11298</v>
       </c>
       <c r="C239" t="n">
-        <v>5759.491004058506</v>
+        <v>5382.075242543939</v>
       </c>
       <c r="D239" t="n">
-        <v>-953.8646971548151</v>
+        <v>-1331.280458669383</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>16690</v>
+        <v>11243</v>
       </c>
       <c r="C240" t="n">
-        <v>4361.051980132219</v>
+        <v>4929.198596616427</v>
       </c>
       <c r="D240" t="n">
-        <v>-2352.303721081103</v>
+        <v>-1784.157104596894</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>16363</v>
+        <v>18591</v>
       </c>
       <c r="C241" t="n">
-        <v>5602.899987220042</v>
+        <v>5759.491004058506</v>
       </c>
       <c r="D241" t="n">
-        <v>-1110.455713993279</v>
+        <v>-953.8646971548151</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'RaceEthnicity': '1'}</t>
+          <t>{'Student': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>15402</v>
+        <v>16690</v>
       </c>
       <c r="C242" t="n">
-        <v>6060.471993983761</v>
+        <v>4361.051980132219</v>
       </c>
       <c r="D242" t="n">
-        <v>-652.8837072295601</v>
+        <v>-2352.303721081103</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>15321</v>
+        <v>16363</v>
       </c>
       <c r="C243" t="n">
-        <v>6262.554982791322</v>
+        <v>5602.899987220042</v>
       </c>
       <c r="D243" t="n">
-        <v>-450.8007184219996</v>
+        <v>-1110.455713993279</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Dependents': '2'}</t>
+          <t>{'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>13518</v>
+        <v>15402</v>
       </c>
       <c r="C244" t="n">
-        <v>8000.472296346132</v>
+        <v>6060.471993983761</v>
       </c>
       <c r="D244" t="n">
-        <v>1287.11659513281</v>
+        <v>-652.8837072295601</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'UndergradMajor': '2'}</t>
+          <t>{'HDI': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>12478</v>
+        <v>15321</v>
       </c>
       <c r="C245" t="n">
-        <v>849.5230257039779</v>
+        <v>6262.554982791322</v>
       </c>
       <c r="D245" t="n">
-        <v>-5863.832675509344</v>
+        <v>-450.8007184219996</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Student': '1'}</t>
+          <t>{'Dependents': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>15737</v>
+        <v>13518</v>
       </c>
       <c r="C246" t="n">
-        <v>4570.176052280543</v>
+        <v>8000.472296346132</v>
       </c>
       <c r="D246" t="n">
-        <v>-2143.179648932779</v>
+        <v>1287.11659513281</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>15555</v>
+        <v>12478</v>
       </c>
       <c r="C247" t="n">
-        <v>5831.184976203039</v>
+        <v>849.5230257039779</v>
       </c>
       <c r="D247" t="n">
-        <v>-882.1707250102827</v>
+        <v>-5863.832675509344</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>13718</v>
+        <v>15737</v>
       </c>
       <c r="C248" t="n">
-        <v>3839.915003739956</v>
+        <v>4570.176052280543</v>
       </c>
       <c r="D248" t="n">
-        <v>-2873.440697473366</v>
+        <v>-2143.179648932779</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>13062</v>
+        <v>15555</v>
       </c>
       <c r="C249" t="n">
-        <v>4634.027934442552</v>
+        <v>5831.184976203039</v>
       </c>
       <c r="D249" t="n">
-        <v>-2079.32776677077</v>
+        <v>-882.1707250102827</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'RaceEthnicity': '1'}</t>
+          <t>{'Student': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>14577</v>
+        <v>13718</v>
       </c>
       <c r="C250" t="n">
-        <v>6296.556389061149</v>
+        <v>3839.915003739956</v>
       </c>
       <c r="D250" t="n">
-        <v>-416.7993121521722</v>
+        <v>-2873.440697473366</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Student': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>13183</v>
+        <v>13062</v>
       </c>
       <c r="C251" t="n">
-        <v>4648.706710793031</v>
+        <v>4634.027934442552</v>
       </c>
       <c r="D251" t="n">
-        <v>-2064.648990420291</v>
+        <v>-2079.32776677077</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>12877</v>
+        <v>14577</v>
       </c>
       <c r="C252" t="n">
-        <v>5700.839701924018</v>
+        <v>6296.556389061149</v>
       </c>
       <c r="D252" t="n">
-        <v>-1012.515999289303</v>
+        <v>-416.7993121521722</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Student': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'Student': '1', 'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>12492</v>
+        <v>13183</v>
       </c>
       <c r="C253" t="n">
-        <v>5419.333904431972</v>
+        <v>4648.706710793031</v>
       </c>
       <c r="D253" t="n">
-        <v>-1294.02179678135</v>
+        <v>-2064.648990420291</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>12293</v>
+        <v>12877</v>
       </c>
       <c r="C254" t="n">
-        <v>6081.686905605286</v>
+        <v>5700.839701924018</v>
       </c>
       <c r="D254" t="n">
-        <v>-631.6687956080359</v>
+        <v>-1012.515999289303</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>10930</v>
+        <v>12492</v>
       </c>
       <c r="C255" t="n">
-        <v>4269.884832450462</v>
+        <v>5419.333904431972</v>
       </c>
       <c r="D255" t="n">
-        <v>-2443.47086876286</v>
+        <v>-1294.02179678135</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HoursComputer': '2', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>10454</v>
+        <v>12293</v>
       </c>
       <c r="C256" t="n">
-        <v>5348.742148216966</v>
+        <v>6081.686905605286</v>
       </c>
       <c r="D256" t="n">
-        <v>-1364.613552996356</v>
+        <v>-631.6687956080359</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1'}</t>
+          <t>{'Student': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>14416</v>
+        <v>10930</v>
       </c>
       <c r="C257" t="n">
-        <v>6001.435926975244</v>
+        <v>4269.884832450462</v>
       </c>
       <c r="D257" t="n">
-        <v>-711.9197742380775</v>
+        <v>-2443.47086876286</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HoursComputer': '2', 'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>13336</v>
+        <v>10454</v>
       </c>
       <c r="C258" t="n">
-        <v>4534.037833430545</v>
+        <v>5348.742148216966</v>
       </c>
       <c r="D258" t="n">
-        <v>-2179.317867782776</v>
+        <v>-1364.613552996356</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>12899</v>
+        <v>14416</v>
       </c>
       <c r="C259" t="n">
-        <v>6750.23378024084</v>
+        <v>6001.435926975244</v>
       </c>
       <c r="D259" t="n">
-        <v>36.87807902751865</v>
+        <v>-711.9197742380775</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Student': '1', 'HDI': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>12796</v>
+        <v>13336</v>
       </c>
       <c r="C260" t="n">
-        <v>6167.854660143666</v>
+        <v>4534.037833430545</v>
       </c>
       <c r="D260" t="n">
-        <v>-545.501041069655</v>
+        <v>-2179.317867782776</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>12565</v>
+        <v>12899</v>
       </c>
       <c r="C261" t="n">
-        <v>4668.145511396449</v>
+        <v>6750.23378024084</v>
       </c>
       <c r="D261" t="n">
-        <v>-2045.210189816872</v>
+        <v>36.87807902751865</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>12205</v>
+        <v>12796</v>
       </c>
       <c r="C262" t="n">
-        <v>6987.311849211497</v>
+        <v>6167.854660143666</v>
       </c>
       <c r="D262" t="n">
-        <v>273.9561479981758</v>
+        <v>-545.501041069655</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'HDI': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>11301</v>
+        <v>12565</v>
       </c>
       <c r="C263" t="n">
-        <v>4911.561600578071</v>
+        <v>4668.145511396449</v>
       </c>
       <c r="D263" t="n">
-        <v>-1801.79410063525</v>
+        <v>-2045.210189816872</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'HoursComputer': '2'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>10706</v>
+        <v>12205</v>
       </c>
       <c r="C264" t="n">
-        <v>5787.437791082421</v>
+        <v>6987.311849211497</v>
       </c>
       <c r="D264" t="n">
-        <v>-925.917910130901</v>
+        <v>273.9561479981758</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Student': '1', 'HDI': '1', 'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>12170</v>
+        <v>11301</v>
       </c>
       <c r="C265" t="n">
-        <v>6317.513944526267</v>
+        <v>4911.561600578071</v>
       </c>
       <c r="D265" t="n">
-        <v>-395.8417566870548</v>
+        <v>-1801.79410063525</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>11050</v>
+        <v>10706</v>
       </c>
       <c r="C266" t="n">
-        <v>4174.079861612177</v>
+        <v>5787.437791082421</v>
       </c>
       <c r="D266" t="n">
-        <v>-2539.275839601144</v>
+        <v>-925.917910130901</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>10851</v>
+        <v>12170</v>
       </c>
       <c r="C267" t="n">
-        <v>6210.088689441614</v>
+        <v>6317.513944526267</v>
       </c>
       <c r="D267" t="n">
-        <v>-503.2670117717071</v>
+        <v>-395.8417566870548</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'HDI': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>10525</v>
+        <v>11050</v>
       </c>
       <c r="C268" t="n">
-        <v>5043.600313560341</v>
+        <v>4174.079861612177</v>
       </c>
       <c r="D268" t="n">
-        <v>-1669.75538765298</v>
+        <v>-2539.275839601144</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HoursComputer': '2', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>10363</v>
+        <v>10851</v>
       </c>
       <c r="C269" t="n">
-        <v>6644.848633742173</v>
+        <v>6210.088689441614</v>
       </c>
       <c r="D269" t="n">
-        <v>-68.50706747114873</v>
+        <v>-503.2670117717071</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Dependents': '2'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1', 'Gender': '1', 'Student': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>12614</v>
+        <v>10525</v>
       </c>
       <c r="C270" t="n">
-        <v>7555.641496967081</v>
+        <v>5043.600313560341</v>
       </c>
       <c r="D270" t="n">
-        <v>842.2857957537599</v>
+        <v>-1669.75538765298</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>11252</v>
+        <v>10363</v>
       </c>
       <c r="C271" t="n">
-        <v>7673.129988735673</v>
+        <v>6644.848633742173</v>
       </c>
       <c r="D271" t="n">
-        <v>959.7742875223512</v>
+        <v>-68.50706747114873</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>11065</v>
+        <v>12614</v>
       </c>
       <c r="C272" t="n">
-        <v>6063.8247104933</v>
+        <v>7555.641496967081</v>
       </c>
       <c r="D272" t="n">
-        <v>-649.5309907200217</v>
+        <v>842.2857957537599</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>10543</v>
+        <v>11252</v>
       </c>
       <c r="C273" t="n">
-        <v>5482.570396700766</v>
+        <v>7673.129988735673</v>
       </c>
       <c r="D273" t="n">
-        <v>-1230.785304512556</v>
+        <v>959.7742875223512</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'Student': '1', 'Dependents': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>10452</v>
+        <v>11065</v>
       </c>
       <c r="C274" t="n">
-        <v>8398.131361223113</v>
+        <v>6063.8247104933</v>
       </c>
       <c r="D274" t="n">
-        <v>1684.775660009792</v>
+        <v>-649.5309907200217</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>10619</v>
+        <v>10543</v>
       </c>
       <c r="C275" t="n">
-        <v>7493.257917551108</v>
+        <v>5482.570396700766</v>
       </c>
       <c r="D275" t="n">
-        <v>779.9022163377867</v>
+        <v>-1230.785304512556</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'Dependents': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>10322</v>
+        <v>10452</v>
       </c>
       <c r="C276" t="n">
-        <v>5922.333330214813</v>
+        <v>8398.131361223113</v>
       </c>
       <c r="D276" t="n">
-        <v>-791.0223709985084</v>
+        <v>1684.775660009792</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'UndergradMajor': '2'}</t>
+          <t>{'Dependents': '2', 'Gender': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>11858</v>
+        <v>10619</v>
       </c>
       <c r="C277" t="n">
-        <v>574.1713638388577</v>
+        <v>7493.257917551108</v>
       </c>
       <c r="D277" t="n">
-        <v>-6139.184337374464</v>
+        <v>779.9022163377867</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'UndergradMajor': '2'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'Dependents': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>10396</v>
+        <v>10322</v>
       </c>
       <c r="C278" t="n">
-        <v>738.43162567067</v>
+        <v>5922.333330214813</v>
       </c>
       <c r="D278" t="n">
-        <v>-5974.924075542652</v>
+        <v>-791.0223709985084</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Student': '1', 'UndergradMajor': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>10363</v>
+        <v>11858</v>
       </c>
       <c r="C279" t="n">
-        <v>241.2359283364706</v>
+        <v>574.1713638388577</v>
       </c>
       <c r="D279" t="n">
-        <v>-6472.119772876851</v>
+        <v>-6139.184337374464</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Gender': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>17827</v>
+        <v>10396</v>
       </c>
       <c r="C280" t="n">
-        <v>9167.440434295811</v>
+        <v>738.43162567067</v>
       </c>
       <c r="D280" t="n">
-        <v>2454.08473308249</v>
+        <v>-5974.924075542652</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Student': '1'}</t>
+          <t>{'Student': '1', 'UndergradMajor': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>16046</v>
+        <v>10363</v>
       </c>
       <c r="C281" t="n">
-        <v>7226.922415426796</v>
+        <v>241.2359283364706</v>
       </c>
       <c r="D281" t="n">
-        <v>513.5667142134744</v>
+        <v>-6472.119772876851</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Hobby': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>15435</v>
+        <v>17827</v>
       </c>
       <c r="C282" t="n">
-        <v>7774.367462050464</v>
+        <v>9167.440434295811</v>
       </c>
       <c r="D282" t="n">
-        <v>1061.011760837143</v>
+        <v>2454.08473308249</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'RaceEthnicity': '1'}</t>
+          <t>{'GINI': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>13244</v>
+        <v>16046</v>
       </c>
       <c r="C283" t="n">
-        <v>9576.996472942028</v>
+        <v>7226.922415426796</v>
       </c>
       <c r="D283" t="n">
-        <v>2863.640771728707</v>
+        <v>513.5667142134744</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Dependents': '2'}</t>
+          <t>{'GINI': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>12497</v>
+        <v>15435</v>
       </c>
       <c r="C284" t="n">
-        <v>10780.72149609526</v>
+        <v>7774.367462050464</v>
       </c>
       <c r="D284" t="n">
-        <v>4067.365794881935</v>
+        <v>1061.011760837143</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1'}</t>
+          <t>{'GINI': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>12249</v>
+        <v>13244</v>
       </c>
       <c r="C285" t="n">
-        <v>14493.57243843499</v>
+        <v>9576.996472942028</v>
       </c>
       <c r="D285" t="n">
-        <v>7780.216737221667</v>
+        <v>2863.640771728707</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'UndergradMajor': '2'}</t>
+          <t>{'GINI': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>11550</v>
+        <v>12497</v>
       </c>
       <c r="C286" t="n">
-        <v>5284.672602339246</v>
+        <v>10780.72149609526</v>
       </c>
       <c r="D286" t="n">
-        <v>-1428.683098874076</v>
+        <v>4067.365794881935</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HoursComputer': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>10601</v>
+        <v>12249</v>
       </c>
       <c r="C287" t="n">
-        <v>7942.148183269531</v>
+        <v>14493.57243843499</v>
       </c>
       <c r="D287" t="n">
-        <v>1228.792482056209</v>
+        <v>7780.216737221667</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Student': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>14992</v>
+        <v>11550</v>
       </c>
       <c r="C288" t="n">
-        <v>6420.989804841173</v>
+        <v>5284.672602339246</v>
       </c>
       <c r="D288" t="n">
-        <v>-292.3658963721482</v>
+        <v>-1428.683098874076</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>14590</v>
+        <v>10601</v>
       </c>
       <c r="C289" t="n">
-        <v>7366.136172271008</v>
+        <v>7942.148183269531</v>
       </c>
       <c r="D289" t="n">
-        <v>652.7804710576866</v>
+        <v>1228.792482056209</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>12877</v>
+        <v>14992</v>
       </c>
       <c r="C290" t="n">
-        <v>4706.941402338681</v>
+        <v>6420.989804841173</v>
       </c>
       <c r="D290" t="n">
-        <v>-2006.414298874641</v>
+        <v>-292.3658963721482</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Hobby': '1', 'Student': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>12186</v>
+        <v>14590</v>
       </c>
       <c r="C291" t="n">
-        <v>4560.303199644346</v>
+        <v>7366.136172271008</v>
       </c>
       <c r="D291" t="n">
-        <v>-2153.052501568975</v>
+        <v>652.7804710576866</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'RaceEthnicity': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>12410</v>
+        <v>12877</v>
       </c>
       <c r="C292" t="n">
-        <v>10335.34292767448</v>
+        <v>4706.941402338681</v>
       </c>
       <c r="D292" t="n">
-        <v>3621.987226461163</v>
+        <v>-2006.414298874641</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'RaceEthnicity': '1', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>11432</v>
+        <v>12186</v>
       </c>
       <c r="C293" t="n">
-        <v>6445.753055192663</v>
+        <v>4560.303199644346</v>
       </c>
       <c r="D293" t="n">
-        <v>-267.6026460206585</v>
+        <v>-2153.052501568975</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'RaceEthnicity': '1', 'Hobby': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>10767</v>
+        <v>12410</v>
       </c>
       <c r="C294" t="n">
-        <v>7785.496879119766</v>
+        <v>10335.34292767448</v>
       </c>
       <c r="D294" t="n">
-        <v>1072.141177906445</v>
+        <v>3621.987226461163</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'RaceEthnicity': '1', 'Student': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>10718</v>
+        <v>11432</v>
       </c>
       <c r="C295" t="n">
-        <v>7555.294303687337</v>
+        <v>6445.753055192663</v>
       </c>
       <c r="D295" t="n">
-        <v>841.9386024740152</v>
+        <v>-267.6026460206585</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'RaceEthnicity': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>10220</v>
+        <v>10767</v>
       </c>
       <c r="C296" t="n">
-        <v>8337.303032455024</v>
+        <v>7785.496879119766</v>
       </c>
       <c r="D296" t="n">
-        <v>1623.947331241702</v>
+        <v>1072.141177906445</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Dependents': '2', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>11535</v>
+        <v>10718</v>
       </c>
       <c r="C297" t="n">
-        <v>11130.36354880801</v>
+        <v>7555.294303687337</v>
       </c>
       <c r="D297" t="n">
-        <v>4417.007847594688</v>
+        <v>841.9386024740152</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Dependents': '2', 'Hobby': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>10190</v>
+        <v>10220</v>
       </c>
       <c r="C298" t="n">
-        <v>8150.905962628605</v>
+        <v>8337.303032455024</v>
       </c>
       <c r="D298" t="n">
-        <v>1437.550261415284</v>
+        <v>1623.947331241702</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>10140</v>
+        <v>11535</v>
       </c>
       <c r="C299" t="n">
-        <v>7229.665700553215</v>
+        <v>11130.36354880801</v>
       </c>
       <c r="D299" t="n">
-        <v>516.3099993398937</v>
+        <v>4417.007847594688</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>11370</v>
+        <v>10190</v>
       </c>
       <c r="C300" t="n">
-        <v>13733.85870259893</v>
+        <v>8150.905962628605</v>
       </c>
       <c r="D300" t="n">
-        <v>7020.503001385608</v>
+        <v>1437.550261415284</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Student': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>10175</v>
+        <v>10140</v>
       </c>
       <c r="C301" t="n">
-        <v>9790.056500179791</v>
+        <v>7229.665700553215</v>
       </c>
       <c r="D301" t="n">
-        <v>3076.70079896647</v>
+        <v>516.3099993398937</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>10919</v>
+        <v>11370</v>
       </c>
       <c r="C302" t="n">
-        <v>3410.452579569446</v>
+        <v>13733.85870259893</v>
       </c>
       <c r="D302" t="n">
-        <v>-3302.903121643876</v>
+        <v>7020.503001385608</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Continent': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>13664</v>
+        <v>10950</v>
       </c>
       <c r="C303" t="n">
-        <v>13797.70359829684</v>
+        <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>7084.347897083514</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Continent': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>12188</v>
+        <v>10007</v>
       </c>
       <c r="C304" t="n">
-        <v>11356.59978084381</v>
+        <v>0</v>
       </c>
       <c r="D304" t="n">
-        <v>4643.244079630486</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Continent': '2'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>11829</v>
+        <v>10175</v>
       </c>
       <c r="C305" t="n">
-        <v>15232.53888880945</v>
+        <v>9790.056500179791</v>
       </c>
       <c r="D305" t="n">
-        <v>8519.183187596125</v>
+        <v>3076.70079896647</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1', 'Continent': '2'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>12188</v>
+        <v>10919</v>
       </c>
       <c r="C306" t="n">
-        <v>11356.59978084381</v>
+        <v>3410.452579569446</v>
       </c>
       <c r="D306" t="n">
-        <v>4643.244079630486</v>
+        <v>-3302.903121643876</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Student': '1', 'Continent': '2'}</t>
+          <t>{'HDI': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>11312</v>
+        <v>13664</v>
       </c>
       <c r="C307" t="n">
-        <v>10433.8247232144</v>
+        <v>13797.70359829684</v>
       </c>
       <c r="D307" t="n">
-        <v>3720.469022001075</v>
+        <v>7084.347897083514</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Student': '1', 'Continent': '2'}</t>
+          <t>{'Gender': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>11312</v>
+        <v>12674</v>
       </c>
       <c r="C308" t="n">
-        <v>10433.8247232144</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>3720.469022001075</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2'}</t>
+          <t>{'Continent': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>11829</v>
+        <v>12188</v>
       </c>
       <c r="C309" t="n">
-        <v>15232.53888880945</v>
+        <v>11356.59978084381</v>
       </c>
       <c r="D309" t="n">
-        <v>8519.183187596125</v>
+        <v>4643.244079630486</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Continent': '2', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C310" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D310" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Student': '1', 'Continent': '2'}</t>
+          <t>{'Hobby': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>10592</v>
+        <v>11130</v>
       </c>
       <c r="C311" t="n">
-        <v>11450.5807904955</v>
+        <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>4737.225089282177</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2', 'Gender': '1'}</t>
+          <t>{'Continent': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>10972</v>
+        <v>11011</v>
       </c>
       <c r="C312" t="n">
-        <v>14367.19376073352</v>
+        <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>7653.838059520202</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Student': '1', 'Continent': '2'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>10592</v>
+        <v>12674</v>
       </c>
       <c r="C313" t="n">
-        <v>11450.5807904955</v>
+        <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>4737.225089282177</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Exercise': '3'}</t>
+          <t>{'HDI': '1', 'Continent': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>12145</v>
+        <v>12188</v>
       </c>
       <c r="C314" t="n">
-        <v>3141.615856410298</v>
+        <v>11356.59978084381</v>
       </c>
       <c r="D314" t="n">
-        <v>-3571.739844803023</v>
+        <v>4643.244079630486</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>{'Exercise': '3', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Continent': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>10675</v>
+        <v>11312</v>
       </c>
       <c r="C315" t="n">
-        <v>1187.566419059048</v>
+        <v>10433.8247232144</v>
       </c>
       <c r="D315" t="n">
-        <v>-5525.789282154274</v>
+        <v>3720.469022001075</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>{'Exercise': '3', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Continent': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>10441</v>
+        <v>11312</v>
       </c>
       <c r="C316" t="n">
-        <v>911.8619438721937</v>
+        <v>10433.8247232144</v>
       </c>
       <c r="D316" t="n">
-        <v>-5801.493757341128</v>
+        <v>3720.469022001075</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Exercise': '3', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>10125</v>
+        <v>11829</v>
       </c>
       <c r="C317" t="n">
-        <v>612.1502845475799</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D317" t="n">
-        <v>-6101.205416665742</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>11829</v>
+        <v>10972</v>
       </c>
       <c r="C318" t="n">
-        <v>15232.53888880945</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D318" t="n">
-        <v>8519.183187596125</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'Continent': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>11829</v>
+        <v>10592</v>
       </c>
       <c r="C319" t="n">
-        <v>15232.53888880945</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D319" t="n">
-        <v>8519.183187596125</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'HDI': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>11829</v>
+        <v>10972</v>
       </c>
       <c r="C320" t="n">
-        <v>15232.53888880945</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D320" t="n">
-        <v>8519.183187596125</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>10972</v>
+        <v>10592</v>
       </c>
       <c r="C321" t="n">
-        <v>14367.19376073352</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D321" t="n">
-        <v>7653.838059520202</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '2'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>10592</v>
+        <v>11130</v>
       </c>
       <c r="C322" t="n">
-        <v>11450.5807904955</v>
+        <v>0</v>
       </c>
       <c r="D322" t="n">
-        <v>4737.225089282177</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>11829</v>
+        <v>10483</v>
       </c>
       <c r="C323" t="n">
-        <v>15232.53888880945</v>
+        <v>0</v>
       </c>
       <c r="D323" t="n">
-        <v>8519.183187596125</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'GDP': '2'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>11829</v>
+        <v>10483</v>
       </c>
       <c r="C324" t="n">
-        <v>15232.53888880945</v>
+        <v>0</v>
       </c>
       <c r="D324" t="n">
-        <v>8519.183187596125</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'Continent': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>11829</v>
+        <v>11011</v>
       </c>
       <c r="C325" t="n">
-        <v>15232.53888880945</v>
+        <v>0</v>
       </c>
       <c r="D325" t="n">
-        <v>8519.183187596125</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'Continent': '2', 'Gender': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>11829</v>
+        <v>10288</v>
       </c>
       <c r="C326" t="n">
-        <v>15232.53888880945</v>
+        <v>0</v>
       </c>
       <c r="D326" t="n">
-        <v>8519.183187596125</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'GDP': '2'}</t>
+          <t>{'Continent': '2', 'Gender': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>10972</v>
+        <v>10288</v>
       </c>
       <c r="C327" t="n">
-        <v>14367.19376073352</v>
+        <v>0</v>
       </c>
       <c r="D327" t="n">
-        <v>7653.838059520202</v>
+        <v>-6713.355701213321</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Gender': '1', 'GDP': '2'}</t>
+          <t>{'Gender': '1', 'Exercise': '3'}</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>10972</v>
+        <v>12145</v>
       </c>
       <c r="C328" t="n">
-        <v>14367.19376073352</v>
+        <v>3141.615856410298</v>
       </c>
       <c r="D328" t="n">
-        <v>7653.838059520202</v>
+        <v>-3571.739844803023</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'Exercise': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>10972</v>
+        <v>10675</v>
       </c>
       <c r="C329" t="n">
-        <v>14367.19376073352</v>
+        <v>1187.566419059048</v>
       </c>
       <c r="D329" t="n">
-        <v>7653.838059520202</v>
+        <v>-5525.789282154274</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Gender': '1', 'GDP': '2'}</t>
+          <t>{'Hobby': '1', 'Exercise': '3'}</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>10972</v>
+        <v>10441</v>
       </c>
       <c r="C330" t="n">
-        <v>14367.19376073352</v>
+        <v>911.8619438721937</v>
       </c>
       <c r="D330" t="n">
-        <v>7653.838059520202</v>
+        <v>-5801.493757341128</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'Gender': '1', 'Exercise': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>10972</v>
+        <v>10125</v>
       </c>
       <c r="C331" t="n">
-        <v>14367.19376073352</v>
+        <v>612.1502845475799</v>
       </c>
       <c r="D331" t="n">
-        <v>7653.838059520202</v>
+        <v>-6101.205416665742</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Continent': '2', 'Gender': '1', 'GDP': '2'}</t>
+          <t>{'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C332" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D332" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Continent': '2', 'HDI': '1', 'GDP': '2', 'GINI': '2'}</t>
+          <t>{'GINI': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C333" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D333" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1', 'GDP': '2'}</t>
+          <t>{'GDP': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>10592</v>
+        <v>11829</v>
       </c>
       <c r="C334" t="n">
-        <v>11450.5807904955</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D334" t="n">
-        <v>4737.225089282177</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Student': '1', 'GDP': '2'}</t>
+          <t>{'Gender': '1', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C335" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D335" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'GDP': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -5894,135 +5894,135 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Student': '1', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>10592</v>
+        <v>11829</v>
       </c>
       <c r="C337" t="n">
-        <v>11450.5807904955</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D337" t="n">
-        <v>4737.225089282177</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>10592</v>
+        <v>11829</v>
       </c>
       <c r="C338" t="n">
-        <v>11450.5807904955</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D338" t="n">
-        <v>4737.225089282177</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Student': '1', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'GDP': '2', 'HDI': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>10592</v>
+        <v>11829</v>
       </c>
       <c r="C339" t="n">
-        <v>11450.5807904955</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D339" t="n">
-        <v>4737.225089282177</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'HDI': '1', 'Student': '1', 'GDP': '2', 'GINI': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>10592</v>
+        <v>11829</v>
       </c>
       <c r="C340" t="n">
-        <v>11450.5807904955</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D340" t="n">
-        <v>4737.225089282177</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>{'Country': '2', 'GDP': '2'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>11829</v>
+        <v>10972</v>
       </c>
       <c r="C341" t="n">
-        <v>15232.53888880945</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D341" t="n">
-        <v>8519.183187596125</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>{'Country': '2', 'Continent': '2'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>11829</v>
+        <v>10972</v>
       </c>
       <c r="C342" t="n">
-        <v>15232.53888880945</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D342" t="n">
-        <v>8519.183187596125</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2'}</t>
+          <t>{'Gender': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>11829</v>
+        <v>10972</v>
       </c>
       <c r="C343" t="n">
-        <v>15232.53888880945</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D343" t="n">
-        <v>8519.183187596125</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'HDI': '1', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>11829</v>
+        <v>10972</v>
       </c>
       <c r="C344" t="n">
-        <v>15232.53888880945</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D344" t="n">
-        <v>8519.183187596125</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Country': '2'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -6038,151 +6038,151 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C346" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D346" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>{'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Gender': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>11829</v>
+        <v>10972</v>
       </c>
       <c r="C347" t="n">
-        <v>15232.53888880945</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D347" t="n">
-        <v>8519.183187596125</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2', 'Continent': '2'}</t>
+          <t>{'GDP': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>11829</v>
+        <v>10592</v>
       </c>
       <c r="C348" t="n">
-        <v>15232.53888880945</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D348" t="n">
-        <v>8519.183187596125</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'GDP': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>11829</v>
+        <v>10592</v>
       </c>
       <c r="C349" t="n">
-        <v>15232.53888880945</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D349" t="n">
-        <v>8519.183187596125</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'GDP': '2', 'Continent': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>11829</v>
+        <v>10592</v>
       </c>
       <c r="C350" t="n">
-        <v>15232.53888880945</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D350" t="n">
-        <v>8519.183187596125</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'GDP': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>11829</v>
+        <v>10592</v>
       </c>
       <c r="C351" t="n">
-        <v>15232.53888880945</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D351" t="n">
-        <v>8519.183187596125</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Country': '2', 'Continent': '2'}</t>
+          <t>{'GDP': '2', 'HDI': '1', 'Continent': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>11829</v>
+        <v>10592</v>
       </c>
       <c r="C352" t="n">
-        <v>15232.53888880945</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D352" t="n">
-        <v>8519.183187596125</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'GDP': '2', 'Continent': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>11829</v>
+        <v>10592</v>
       </c>
       <c r="C353" t="n">
-        <v>15232.53888880945</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D353" t="n">
-        <v>8519.183187596125</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'Continent': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Student': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>11829</v>
+        <v>10592</v>
       </c>
       <c r="C354" t="n">
-        <v>15232.53888880945</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D354" t="n">
-        <v>8519.183187596125</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
+          <t>{'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -6198,7 +6198,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'Continent': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -6214,7 +6214,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'HDI': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -6230,23 +6230,23 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C358" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D358" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -6262,199 +6262,199 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Country': '2', 'Continent': '2'}</t>
+          <t>{'Country': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>10972</v>
+        <v>10592</v>
       </c>
       <c r="C360" t="n">
-        <v>14367.19376073352</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D360" t="n">
-        <v>7653.838059520202</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Country': '2', 'GDP': '2'}</t>
+          <t>{'Continent': '2', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C361" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D361" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'Continent': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C362" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D362" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Country': '2', 'Continent': '2'}</t>
+          <t>{'GINI': '2', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C363" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D363" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'Continent': '2', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C364" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D364" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2', 'Gender': '1', 'Continent': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C365" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D365" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2', 'Gender': '1', 'GDP': '2'}</t>
+          <t>{'Continent': '2', 'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C366" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D366" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'GDP': '2', 'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C367" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D367" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Continent': '2', 'HDI': '1', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'Continent': '2', 'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C368" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D368" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C369" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D369" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Continent': '2', 'HDI': '1', 'GDP': '2', 'Country': '2'}</t>
+          <t>{'GDP': '2', 'Continent': '2', 'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C370" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D370" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Continent': '2', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'Country': '2', 'GINI': '2', 'HDI': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>10972</v>
+        <v>11829</v>
       </c>
       <c r="C371" t="n">
-        <v>14367.19376073352</v>
+        <v>15232.53888880945</v>
       </c>
       <c r="D371" t="n">
-        <v>7653.838059520202</v>
+        <v>8519.183187596125</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Continent': '2', 'HDI': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -6470,231 +6470,231 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Country': '2', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C373" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D373" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Student': '1', 'Country': '2'}</t>
+          <t>{'Continent': '2', 'Gender': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C374" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D374" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Country': '2', 'Continent': '2'}</t>
+          <t>{'Gender': '1', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C375" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D375" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Country': '2', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C376" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D376" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'Student': '1'}</t>
+          <t>{'Continent': '2', 'Gender': '1', 'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C377" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D377" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Country': '2', 'Continent': '2', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C378" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D378" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'Continent': '2', 'Gender': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C379" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D379" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Student': '1', 'Country': '2', 'Continent': '2'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C380" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D380" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Student': '1', 'Country': '2', 'GDP': '2'}</t>
+          <t>{'Continent': '2', 'Gender': '1', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C381" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D381" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'Country': '2', 'GINI': '2', 'HDI': '1', 'Gender': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C382" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D382" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'HDI': '1', 'Student': '1', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'Country': '2', 'GINI': '2', 'HDI': '1', 'Gender': '1', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C383" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D383" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'Country': '2', 'HDI': '1', 'Gender': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C384" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D384" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'HDI': '1', 'Student': '1', 'GDP': '2', 'Country': '2'}</t>
+          <t>{'Country': '2', 'GINI': '2', 'Gender': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C385" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D385" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'Student': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'Country': '2', 'GINI': '2', 'HDI': '1', 'Gender': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>10592</v>
+        <v>10972</v>
       </c>
       <c r="C386" t="n">
-        <v>11450.5807904955</v>
+        <v>14367.19376073352</v>
       </c>
       <c r="D386" t="n">
-        <v>4737.225089282177</v>
+        <v>7653.838059520202</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'HDI': '1', 'Student': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'HDI': '1', 'Country': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -6710,576 +6710,800 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3'}</t>
+          <t>{'GINI': '2', 'Country': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>17245</v>
+        <v>10592</v>
       </c>
       <c r="C388" t="n">
-        <v>8060.128048085273</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D388" t="n">
-        <v>1346.772346871951</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Student': '1'}</t>
+          <t>{'Continent': '2', 'Country': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>15934</v>
+        <v>10592</v>
       </c>
       <c r="C389" t="n">
-        <v>7355.426207414689</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D389" t="n">
-        <v>642.0705062013676</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'RaceEthnicity': '1'}</t>
+          <t>{'GDP': '2', 'Country': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>13962</v>
+        <v>10592</v>
       </c>
       <c r="C390" t="n">
-        <v>7763.272803999966</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D390" t="n">
-        <v>1049.917102786644</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'HDI': '1'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>13871</v>
+        <v>10592</v>
       </c>
       <c r="C391" t="n">
-        <v>10212.29456785343</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D391" t="n">
-        <v>3498.938866640109</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Dependents': '2'}</t>
+          <t>{'Continent': '2', 'HDI': '1', 'Country': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>13696</v>
+        <v>10592</v>
       </c>
       <c r="C392" t="n">
-        <v>9582.463471463969</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D392" t="n">
-        <v>2869.107770250647</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'UndergradMajor': '2'}</t>
+          <t>{'HDI': '1', 'GDP': '2', 'Country': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>11604</v>
+        <v>10592</v>
       </c>
       <c r="C393" t="n">
-        <v>5138.590960239977</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D393" t="n">
-        <v>-1574.764740973344</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Hobby': '1'}</t>
+          <t>{'GINI': '2', 'Continent': '2', 'Country': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>15101</v>
+        <v>10592</v>
       </c>
       <c r="C394" t="n">
-        <v>7790.015822527435</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D394" t="n">
-        <v>1076.660121314114</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'HoursComputer': '2'}</t>
+          <t>{'GINI': '2', 'GDP': '2', 'Country': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>10606</v>
+        <v>10592</v>
       </c>
       <c r="C395" t="n">
-        <v>8379.878184612351</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D395" t="n">
-        <v>1666.52248339903</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Age': '3'}</t>
+          <t>{'Continent': '2', 'GDP': '2', 'Country': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>10066</v>
+        <v>10592</v>
       </c>
       <c r="C396" t="n">
-        <v>11408.26808244848</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D396" t="n">
-        <v>4694.912381235158</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Student': '1'}</t>
+          <t>{'Country': '2', 'GINI': '2', 'HDI': '1', 'Student': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>14939</v>
+        <v>10592</v>
       </c>
       <c r="C397" t="n">
-        <v>7088.326986545298</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D397" t="n">
-        <v>374.9712853319761</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Age': '3'}</t>
+          <t>{'Country': '2', 'GINI': '2', 'HDI': '1', 'Student': '1', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>13152</v>
+        <v>10592</v>
       </c>
       <c r="C398" t="n">
-        <v>8500.067416506725</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D398" t="n">
-        <v>1786.711715293403</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'RaceEthnicity': '1', 'Student': '1'}</t>
+          <t>{'Country': '2', 'HDI': '1', 'Student': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>12276</v>
+        <v>10592</v>
       </c>
       <c r="C399" t="n">
-        <v>6978.795445838928</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D399" t="n">
-        <v>265.4397446256062</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'RaceEthnicity': '1', 'Hobby': '1'}</t>
+          <t>{'Country': '2', 'GINI': '2', 'Student': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>11580</v>
+        <v>10592</v>
       </c>
       <c r="C400" t="n">
-        <v>6994.389780416497</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D400" t="n">
-        <v>281.0340792031757</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'Age': '3'}</t>
+          <t>{'Country': '2', 'GINI': '2', 'HDI': '1', 'Student': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>11569</v>
+        <v>10592</v>
       </c>
       <c r="C401" t="n">
-        <v>7873.983683822924</v>
+        <v>11450.5807904955</v>
       </c>
       <c r="D401" t="n">
-        <v>1160.627982609602</v>
+        <v>4737.225089282177</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>10133</v>
+        <v>17245</v>
       </c>
       <c r="C402" t="n">
-        <v>6699.145899462711</v>
+        <v>8060.128048085273</v>
       </c>
       <c r="D402" t="n">
-        <v>-14.2098017506105</v>
+        <v>1346.772346871951</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>11037</v>
+        <v>15934</v>
       </c>
       <c r="C403" t="n">
-        <v>7565.162115387219</v>
+        <v>7355.426207414689</v>
       </c>
       <c r="D403" t="n">
-        <v>851.8064141738978</v>
+        <v>642.0705062013676</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'HDI': '1'}</t>
+          <t>{'Age': '3', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>12950</v>
+        <v>13962</v>
       </c>
       <c r="C404" t="n">
-        <v>10219.12836103825</v>
+        <v>7763.272803999966</v>
       </c>
       <c r="D404" t="n">
-        <v>3505.772659824929</v>
+        <v>1049.917102786644</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Age': '3', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>12285</v>
+        <v>13871</v>
       </c>
       <c r="C405" t="n">
-        <v>9530.136204319409</v>
+        <v>10212.29456785343</v>
       </c>
       <c r="D405" t="n">
-        <v>2816.780503106088</v>
+        <v>3498.938866640109</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'Age': '3', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>11480</v>
+        <v>13696</v>
       </c>
       <c r="C406" t="n">
-        <v>9514.627629160645</v>
+        <v>9582.463471463969</v>
       </c>
       <c r="D406" t="n">
-        <v>2801.271927947323</v>
+        <v>2869.107770250647</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Age': '3', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>11512</v>
+        <v>11604</v>
       </c>
       <c r="C407" t="n">
-        <v>10230.78867115581</v>
+        <v>5138.590960239977</v>
       </c>
       <c r="D407" t="n">
-        <v>3517.432969942484</v>
+        <v>-1574.764740973344</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Age': '3', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>11476</v>
+        <v>15101</v>
       </c>
       <c r="C408" t="n">
-        <v>9235.597058102685</v>
+        <v>7790.015822527435</v>
       </c>
       <c r="D408" t="n">
-        <v>2522.241356889363</v>
+        <v>1076.660121314114</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>10794</v>
+        <v>10606</v>
       </c>
       <c r="C409" t="n">
-        <v>10412.15678733433</v>
+        <v>8379.878184612351</v>
       </c>
       <c r="D409" t="n">
-        <v>3698.80108612101</v>
+        <v>1666.52248339903</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>10259</v>
+        <v>10066</v>
       </c>
       <c r="C410" t="n">
-        <v>8732.145989301145</v>
+        <v>11408.26808244848</v>
       </c>
       <c r="D410" t="n">
-        <v>2018.790288087824</v>
+        <v>4694.912381235158</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>10888</v>
+        <v>14939</v>
       </c>
       <c r="C411" t="n">
-        <v>10207.58978645974</v>
+        <v>7088.326986545298</v>
       </c>
       <c r="D411" t="n">
-        <v>3494.234085246414</v>
+        <v>374.9712853319761</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>10154</v>
+        <v>13152</v>
       </c>
       <c r="C412" t="n">
-        <v>9421.220530706376</v>
+        <v>8500.067416506725</v>
       </c>
       <c r="D412" t="n">
-        <v>2707.864829493054</v>
+        <v>1786.711715293403</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Dependents': '2'}</t>
+          <t>{'Age': '3', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>12741</v>
+        <v>12276</v>
       </c>
       <c r="C413" t="n">
-        <v>10231.01475295892</v>
+        <v>6978.795445838928</v>
       </c>
       <c r="D413" t="n">
-        <v>3517.659051745596</v>
+        <v>265.4397446256062</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Age': '3', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>11804</v>
+        <v>11580</v>
       </c>
       <c r="C414" t="n">
-        <v>8685.996923545939</v>
+        <v>6994.389780416497</v>
       </c>
       <c r="D414" t="n">
-        <v>1972.641222332618</v>
+        <v>281.0340792031757</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>10601</v>
+        <v>11569</v>
       </c>
       <c r="C415" t="n">
-        <v>11453.5100702705</v>
+        <v>7873.983683822924</v>
       </c>
       <c r="D415" t="n">
-        <v>4740.154369057175</v>
+        <v>1160.627982609602</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
+          <t>{'Age': '3', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>10544</v>
+        <v>10133</v>
       </c>
       <c r="C416" t="n">
-        <v>8599.415050997261</v>
+        <v>6699.145899462711</v>
       </c>
       <c r="D416" t="n">
-        <v>1886.059349783939</v>
+        <v>-14.2098017506105</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Dependents': '2', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>11255</v>
+        <v>11037</v>
       </c>
       <c r="C417" t="n">
-        <v>9408.095039962718</v>
+        <v>7565.162115387219</v>
       </c>
       <c r="D417" t="n">
-        <v>2694.739338749397</v>
+        <v>851.8064141738978</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>10977</v>
+        <v>12950</v>
       </c>
       <c r="C418" t="n">
-        <v>8907.150357644125</v>
+        <v>10219.12836103825</v>
       </c>
       <c r="D418" t="n">
-        <v>2193.794656430803</v>
+        <v>3505.772659824929</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>10612</v>
+        <v>12285</v>
       </c>
       <c r="C419" t="n">
-        <v>9984.542658296567</v>
+        <v>9530.136204319409</v>
       </c>
       <c r="D419" t="n">
-        <v>3271.186957083245</v>
+        <v>2816.780503106088</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Age': '3'}</t>
+          <t>{'Age': '3', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>11004</v>
+        <v>11480</v>
       </c>
       <c r="C420" t="n">
-        <v>3851.052327067658</v>
+        <v>9514.627629160645</v>
       </c>
       <c r="D420" t="n">
-        <v>-2862.303374145663</v>
+        <v>2801.271927947323</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Age': '3', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>13013</v>
+        <v>11512</v>
       </c>
       <c r="C421" t="n">
-        <v>6908.911518718556</v>
+        <v>10230.78867115581</v>
       </c>
       <c r="D421" t="n">
-        <v>195.5558175052347</v>
+        <v>3517.432969942484</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>14314</v>
+        <v>11476</v>
       </c>
       <c r="C422" t="n">
-        <v>7759.774607899914</v>
+        <v>9235.597058102685</v>
       </c>
       <c r="D422" t="n">
-        <v>1046.418906686593</v>
+        <v>2522.241356889363</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'RaceEthnicity': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B423" t="n">
+        <v>10794</v>
+      </c>
+      <c r="C423" t="n">
+        <v>10412.15678733433</v>
+      </c>
+      <c r="D423" t="n">
+        <v>3698.80108612101</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>10259</v>
+      </c>
+      <c r="C424" t="n">
+        <v>8732.145989301145</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2018.790288087824</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>10888</v>
+      </c>
+      <c r="C425" t="n">
+        <v>10207.58978645974</v>
+      </c>
+      <c r="D425" t="n">
+        <v>3494.234085246414</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>10154</v>
+      </c>
+      <c r="C426" t="n">
+        <v>9421.220530706376</v>
+      </c>
+      <c r="D426" t="n">
+        <v>2707.864829493054</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Dependents': '2', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>12741</v>
+      </c>
+      <c r="C427" t="n">
+        <v>10231.01475295892</v>
+      </c>
+      <c r="D427" t="n">
+        <v>3517.659051745596</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Dependents': '2', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>11804</v>
+      </c>
+      <c r="C428" t="n">
+        <v>8685.996923545939</v>
+      </c>
+      <c r="D428" t="n">
+        <v>1972.641222332618</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'HDI': '1', 'Dependents': '2'}</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>10601</v>
+      </c>
+      <c r="C429" t="n">
+        <v>11453.5100702705</v>
+      </c>
+      <c r="D429" t="n">
+        <v>4740.154369057175</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>10544</v>
+      </c>
+      <c r="C430" t="n">
+        <v>8599.415050997261</v>
+      </c>
+      <c r="D430" t="n">
+        <v>1886.059349783939</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Hobby': '1', 'Dependents': '2'}</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>11255</v>
+      </c>
+      <c r="C431" t="n">
+        <v>9408.095039962718</v>
+      </c>
+      <c r="D431" t="n">
+        <v>2694.739338749397</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Dependents': '2', 'Age': '3', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>10977</v>
+      </c>
+      <c r="C432" t="n">
+        <v>8907.150357644125</v>
+      </c>
+      <c r="D432" t="n">
+        <v>2193.794656430803</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Hobby': '1', 'Age': '3', 'Dependents': '2'}</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>10612</v>
+      </c>
+      <c r="C433" t="n">
+        <v>9984.542658296567</v>
+      </c>
+      <c r="D433" t="n">
+        <v>3271.186957083245</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>11004</v>
+      </c>
+      <c r="C434" t="n">
+        <v>3851.052327067658</v>
+      </c>
+      <c r="D434" t="n">
+        <v>-2862.303374145663</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>{'Age': '3', 'Hobby': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>13013</v>
+      </c>
+      <c r="C435" t="n">
+        <v>6908.911518718556</v>
+      </c>
+      <c r="D435" t="n">
+        <v>195.5558175052347</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Hobby': '1', 'Age': '3'}</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>14314</v>
+      </c>
+      <c r="C436" t="n">
+        <v>7759.774607899914</v>
+      </c>
+      <c r="D436" t="n">
+        <v>1046.418906686593</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Hobby': '1', 'Age': '3', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
         <v>12348</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C437" t="n">
         <v>7037.057368671631</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D437" t="n">
         <v>323.7016674583092</v>
       </c>
     </row>
